--- a/nodes_source_analyses/households/households_space_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="174">
   <si>
     <t>Source</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>input.electricity</t>
-  </si>
-  <si>
-    <t>output.useable_heat</t>
   </si>
   <si>
     <t>full_load_hours</t>
@@ -525,9 +522,6 @@
     <t>http://refman.et-model.com/publications/2015</t>
   </si>
   <si>
-    <t>For now, input.network_gas is set to 0.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">heatpump part share is </t>
   </si>
   <si>
@@ -599,9 +593,6 @@
     <t>http://refman.et-model.com/publications/2017</t>
   </si>
   <si>
-    <t>For gas part</t>
-  </si>
-  <si>
     <t>Based on HR-107 condensing boiler</t>
   </si>
   <si>
@@ -627,6 +618,45 @@
   </si>
   <si>
     <t>Sum of heatpump_air_water_electricity and combined_network_gas</t>
+  </si>
+  <si>
+    <t>For now, we set the gas part share to be 0.2</t>
+  </si>
+  <si>
+    <t>output of useable heat share from gas part</t>
+  </si>
+  <si>
+    <t>To find the input share of network gas,</t>
+  </si>
+  <si>
+    <t>we divide the output share by the efficiency</t>
+  </si>
+  <si>
+    <r>
+      <t>output.useable_heat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.network_gas</t>
+    </r>
+  </si>
+  <si>
+    <t>output.useable_heat.ambient_heat</t>
+  </si>
+  <si>
+    <t>output.useable_heat.electricity</t>
+  </si>
+  <si>
+    <t>efficiency of gas part</t>
+  </si>
+  <si>
+    <t>Efficiency of HP part</t>
   </si>
 </sst>
 </file>
@@ -640,12 +670,40 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1134,625 +1192,654 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="360">
+  <cellStyleXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="360">
+  <cellStyles count="379">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2023,6 +2110,25 @@
     <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2880,7 +2986,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3031,10 +3137,10 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3059,28 +3165,28 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="153"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="162"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="168"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
@@ -3153,13 +3259,13 @@
       </c>
       <c r="E10" s="147">
         <f>'Research data'!G6</f>
-        <v>0.62222222222222223</v>
+        <v>0.63199000312402376</v>
       </c>
       <c r="F10" s="114"/>
       <c r="G10" s="114"/>
       <c r="H10" s="26"/>
       <c r="I10" s="136" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J10" s="39"/>
     </row>
@@ -3174,13 +3280,13 @@
       </c>
       <c r="E11" s="147">
         <f>'Research data'!G7</f>
-        <v>0.17777777777777778</v>
+        <v>0.18056857232114965</v>
       </c>
       <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="26"/>
       <c r="I11" s="136" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="38"/>
@@ -3189,18 +3295,20 @@
       <c r="A12" s="38"/>
       <c r="B12" s="19"/>
       <c r="C12" s="127" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="147">
         <f>'Research data'!G8</f>
-        <v>0.2</v>
+        <v>0.18744142455482662</v>
       </c>
       <c r="F12" s="114"/>
       <c r="G12" s="114"/>
       <c r="H12" s="26"/>
       <c r="I12" s="136" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="38"/>
@@ -3208,74 +3316,74 @@
     <row r="13" spans="1:11" ht="19" thickBot="1">
       <c r="A13" s="38"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="114" t="s">
-        <v>88</v>
+      <c r="C13" s="155" t="s">
+        <v>170</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="147">
         <f>'Research data'!G9</f>
-        <v>1.0669999999999999</v>
+        <v>1</v>
       </c>
       <c r="F13" s="114"/>
       <c r="G13" s="114"/>
       <c r="H13" s="26"/>
       <c r="I13" s="116" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J13" s="39"/>
       <c r="K13" s="120"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="18" t="s">
+    <row r="14" spans="1:11" ht="19" thickBot="1">
+      <c r="A14" s="38"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="147">
         <f>'Research data'!G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="114"/>
       <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="136" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="119"/>
+        <v>159</v>
+      </c>
+      <c r="J14" s="39"/>
       <c r="K14" s="120"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
-      <c r="A15" s="117"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="114" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="18" t="s">
+    <row r="15" spans="1:11" ht="19" thickBot="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="147">
         <f>'Research data'!G11</f>
-        <v>0</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="F15" s="114"/>
       <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="136" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="119"/>
+        <v>159</v>
+      </c>
+      <c r="J15" s="39"/>
       <c r="K15" s="120"/>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="117"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="114" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>4</v>
@@ -3288,38 +3396,38 @@
       <c r="G16" s="114"/>
       <c r="H16" s="114"/>
       <c r="I16" s="136" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="J16" s="119"/>
       <c r="K16" s="120"/>
     </row>
-    <row r="17" spans="1:11" ht="19" thickBot="1">
+    <row r="17" spans="1:11" ht="16" thickBot="1">
       <c r="A17" s="117"/>
-      <c r="B17" s="34"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="114" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="115">
         <f>'Research data'!G13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="114"/>
       <c r="G17" s="114"/>
       <c r="H17" s="114"/>
       <c r="I17" s="136" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="J17" s="119"/>
-      <c r="K17" s="38"/>
-    </row>
-    <row r="18" spans="1:11" ht="19" thickBot="1">
-      <c r="A18" s="38"/>
+      <c r="K17" s="120"/>
+    </row>
+    <row r="18" spans="1:11" ht="16" thickBot="1">
+      <c r="A18" s="117"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="30" t="s">
-        <v>34</v>
+      <c r="C18" s="114" t="s">
+        <v>88</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>4</v>
@@ -3328,272 +3436,272 @@
         <f>'Research data'!G14</f>
         <v>0</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
       <c r="I18" s="136" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="98"/>
-      <c r="K18" s="29"/>
-    </row>
-    <row r="19" spans="1:11" ht="16" thickBot="1">
+        <v>126</v>
+      </c>
+      <c r="J18" s="119"/>
+      <c r="K18" s="120"/>
+    </row>
+    <row r="19" spans="1:11" ht="19" thickBot="1">
+      <c r="A19" s="117"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="30" t="s">
-        <v>35</v>
+      <c r="C19" s="114" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="115">
         <f>'Research data'!G15</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="119"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="19" thickBot="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="115">
+        <f>'Research data'!G16</f>
         <v>0</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="136" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="29"/>
-    </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
-      <c r="B20" s="34"/>
-      <c r="C20" s="144" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="135">
-        <f>'Research data'!G15</f>
-        <v>0</v>
-      </c>
       <c r="F20" s="30"/>
-      <c r="G20" s="144" t="s">
-        <v>152</v>
-      </c>
+      <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="136" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="J20" s="98"/>
-      <c r="K20" s="117"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11" ht="16" thickBot="1">
       <c r="B21" s="34"/>
       <c r="C21" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="135">
+        <v>4</v>
+      </c>
+      <c r="E21" s="115">
         <f>'Research data'!G17</f>
-        <v>4.9000000000000007E-3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
-        <v>48</v>
-      </c>
+      <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="136" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="J21" s="98"/>
-      <c r="K21" s="117"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11" ht="16" thickBot="1">
-      <c r="A22" s="117"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="114" t="s">
-        <v>90</v>
+      <c r="B22" s="34"/>
+      <c r="C22" s="144" t="s">
+        <v>136</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="115">
-        <f>'Research data'!G18</f>
+        <v>58</v>
+      </c>
+      <c r="E22" s="135">
+        <f>'Research data'!G17</f>
         <v>0</v>
       </c>
-      <c r="F22" s="114"/>
-      <c r="G22" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="114"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="144" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="30"/>
       <c r="I22" s="136" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="119"/>
+        <v>122</v>
+      </c>
+      <c r="J22" s="98"/>
       <c r="K22" s="117"/>
     </row>
     <row r="23" spans="1:11" ht="16" thickBot="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="114" t="s">
-        <v>92</v>
+      <c r="B23" s="34"/>
+      <c r="C23" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="115">
+        <v>58</v>
+      </c>
+      <c r="E23" s="135">
         <f>'Research data'!G19</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="114"/>
-      <c r="G23" s="121" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="114"/>
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="30"/>
       <c r="I23" s="136" t="s">
-        <v>151</v>
-      </c>
-      <c r="J23" s="119"/>
+        <v>106</v>
+      </c>
+      <c r="J23" s="98"/>
       <c r="K23" s="117"/>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1">
       <c r="A24" s="117"/>
       <c r="B24" s="118"/>
       <c r="C24" s="114" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="115">
         <f>'Research data'!G20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="114"/>
       <c r="G24" s="121" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H24" s="114"/>
       <c r="I24" s="136" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J24" s="119"/>
-      <c r="K24" s="29"/>
+      <c r="K24" s="117"/>
     </row>
     <row r="25" spans="1:11" ht="16" thickBot="1">
       <c r="A25" s="117"/>
       <c r="B25" s="118"/>
       <c r="C25" s="114" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="115">
         <f>'Research data'!G21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="114"/>
       <c r="G25" s="121" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H25" s="114"/>
       <c r="I25" s="136" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J25" s="119"/>
-      <c r="K25" s="29"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="34"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="98"/>
+      <c r="K25" s="117"/>
+    </row>
+    <row r="26" spans="1:11" ht="16" thickBot="1">
+      <c r="A26" s="117"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="115">
+        <f>'Research data'!G22</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="114"/>
+      <c r="G26" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="114"/>
+      <c r="I26" s="136" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="119"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" ht="16" thickBot="1">
-      <c r="B27" s="34"/>
-      <c r="C27" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="98"/>
-    </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1">
+      <c r="A27" s="117"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="115">
+        <f>'Research data'!G23</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="114"/>
+      <c r="G27" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="114"/>
+      <c r="I27" s="136" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="119"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="B28" s="34"/>
-      <c r="C28" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="115">
-        <f>'Research data'!G24</f>
-        <v>4135</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="136" t="s">
-        <v>125</v>
-      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="98"/>
     </row>
     <row r="29" spans="1:11" ht="16" thickBot="1">
       <c r="B29" s="34"/>
-      <c r="C29" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="115">
-        <f>'Research data'!G25</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="136" t="s">
-        <v>123</v>
-      </c>
+      <c r="C29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
       <c r="J29" s="98"/>
     </row>
     <row r="30" spans="1:11" ht="16" thickBot="1">
       <c r="B30" s="34"/>
       <c r="C30" s="30" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="115">
         <f>'Research data'!G26</f>
-        <v>600</v>
+        <v>4135</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="136" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="J30" s="98"/>
     </row>
     <row r="31" spans="1:11" ht="16" thickBot="1">
       <c r="B31" s="34"/>
       <c r="C31" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>28</v>
@@ -3603,257 +3711,265 @@
         <v>0</v>
       </c>
       <c r="F31" s="30"/>
-      <c r="G31" s="144" t="s">
-        <v>150</v>
+      <c r="G31" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="136" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J31" s="98"/>
     </row>
     <row r="32" spans="1:11" ht="16" thickBot="1">
       <c r="B32" s="34"/>
       <c r="C32" s="30" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E32" s="115">
         <f>'Research data'!G28</f>
-        <v>252.89256198347107</v>
+        <v>600</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="30" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="136" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="J32" s="98"/>
     </row>
     <row r="33" spans="2:10" ht="16" thickBot="1">
       <c r="B33" s="34"/>
       <c r="C33" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E33" s="115">
         <f>'Research data'!G29</f>
         <v>0</v>
       </c>
       <c r="F33" s="30"/>
-      <c r="G33" s="30" t="s">
-        <v>51</v>
+      <c r="G33" s="144" t="s">
+        <v>148</v>
       </c>
       <c r="H33" s="30"/>
-      <c r="I33" s="145" t="s">
-        <v>127</v>
+      <c r="I33" s="136" t="s">
+        <v>122</v>
       </c>
       <c r="J33" s="98"/>
     </row>
     <row r="34" spans="2:10" ht="16" thickBot="1">
       <c r="B34" s="34"/>
       <c r="C34" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="115">
         <f>'Research data'!G30</f>
-        <v>0</v>
+        <v>252.89256198347107</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H34" s="30"/>
-      <c r="I34" s="145" t="s">
-        <v>123</v>
+      <c r="I34" s="136" t="s">
+        <v>147</v>
       </c>
       <c r="J34" s="98"/>
     </row>
     <row r="35" spans="2:10" ht="16" thickBot="1">
       <c r="B35" s="34"/>
       <c r="C35" s="30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E35" s="115">
         <f>'Research data'!G31</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H35" s="30"/>
-      <c r="I35" s="136" t="s">
-        <v>151</v>
+      <c r="I35" s="145" t="s">
+        <v>126</v>
       </c>
       <c r="J35" s="98"/>
     </row>
     <row r="36" spans="2:10" ht="16" thickBot="1">
       <c r="B36" s="34"/>
       <c r="C36" s="30" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E36" s="115">
         <f>'Research data'!G32</f>
         <v>0</v>
       </c>
       <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="G36" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="H36" s="30"/>
-      <c r="I36" s="136" t="s">
-        <v>11</v>
+      <c r="I36" s="145" t="s">
+        <v>122</v>
       </c>
       <c r="J36" s="98"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" ht="16" thickBot="1">
       <c r="B37" s="34"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="96"/>
+      <c r="C37" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="115">
+        <f>'Research data'!G33</f>
+        <v>0.04</v>
+      </c>
       <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
+      <c r="G37" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="H37" s="30"/>
-      <c r="I37" s="29"/>
+      <c r="I37" s="136" t="s">
+        <v>149</v>
+      </c>
       <c r="J37" s="98"/>
     </row>
     <row r="38" spans="2:10" ht="16" thickBot="1">
       <c r="B38" s="34"/>
-      <c r="C38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="C38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="115">
+        <f>'Research data'!G34</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="136" t="s">
+        <v>11</v>
+      </c>
       <c r="J38" s="98"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10">
       <c r="B39" s="34"/>
-      <c r="C39" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="115">
-        <f>'Research data'!G36</f>
-        <v>0</v>
-      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="96"/>
       <c r="F39" s="30"/>
-      <c r="G39" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="G39" s="30"/>
       <c r="H39" s="30"/>
-      <c r="I39" s="136" t="s">
-        <v>123</v>
-      </c>
+      <c r="I39" s="29"/>
       <c r="J39" s="98"/>
     </row>
     <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B40" s="34"/>
-      <c r="C40" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="115">
-        <f>'Research data'!G37</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="146" t="s">
-        <v>123</v>
-      </c>
+      <c r="C40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="94"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="98"/>
     </row>
     <row r="41" spans="2:10" ht="16" thickBot="1">
       <c r="B41" s="34"/>
       <c r="C41" s="30" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="115">
         <f>'Research data'!G38</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="30" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H41" s="30"/>
       <c r="I41" s="136" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="J41" s="98"/>
     </row>
     <row r="42" spans="2:10" ht="16" thickBot="1">
       <c r="B42" s="34"/>
       <c r="C42" s="30" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" s="115">
         <f>'Research data'!G39</f>
         <v>0</v>
       </c>
       <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="H42" s="30"/>
-      <c r="I42" s="136" t="s">
-        <v>123</v>
+      <c r="I42" s="146" t="s">
+        <v>122</v>
       </c>
       <c r="J42" s="98"/>
     </row>
     <row r="43" spans="2:10" ht="16" thickBot="1">
       <c r="B43" s="34"/>
-      <c r="C43" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="18"/>
+      <c r="C43" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="E43" s="115">
         <f>'Research data'!G40</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
+      <c r="G43" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="H43" s="30"/>
-      <c r="I43" s="149" t="s">
-        <v>167</v>
+      <c r="I43" s="136" t="s">
+        <v>163</v>
       </c>
       <c r="J43" s="98"/>
     </row>
     <row r="44" spans="2:10" ht="16" thickBot="1">
       <c r="B44" s="34"/>
-      <c r="C44" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="18"/>
+      <c r="C44" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="E44" s="115">
         <f>'Research data'!G41</f>
         <v>0</v>
@@ -3861,53 +3977,59 @@
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="149" t="s">
-        <v>167</v>
+      <c r="I44" s="136" t="s">
+        <v>122</v>
       </c>
       <c r="J44" s="98"/>
     </row>
     <row r="45" spans="2:10" ht="16" thickBot="1">
       <c r="B45" s="34"/>
       <c r="C45" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="E45" s="115">
         <f>'Research data'!G42</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="149" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J45" s="98"/>
     </row>
     <row r="46" spans="2:10" ht="16" thickBot="1">
       <c r="B46" s="34"/>
       <c r="C46" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="E46" s="115">
         <f>'Research data'!G43</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="149" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J46" s="98"/>
     </row>
     <row r="47" spans="2:10" ht="16" thickBot="1">
       <c r="B47" s="34"/>
       <c r="C47" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="E47" s="115">
         <f>'Research data'!G44</f>
         <v>11.5</v>
@@ -3916,20 +4038,60 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="149" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J47" s="98"/>
     </row>
     <row r="48" spans="2:10" ht="16" thickBot="1">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="115">
+        <f>'Research data'!G45</f>
+        <v>2</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="149" t="s">
+        <v>164</v>
+      </c>
+      <c r="J48" s="98"/>
+    </row>
+    <row r="49" spans="2:10" ht="16" thickBot="1">
+      <c r="B49" s="34"/>
+      <c r="C49" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="115">
+        <f>'Research data'!G46</f>
+        <v>11.5</v>
+      </c>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="149" t="s">
+        <v>164</v>
+      </c>
+      <c r="J49" s="98"/>
+    </row>
+    <row r="50" spans="2:10" ht="16" thickBot="1">
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3982,10 +4144,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4044,19 +4206,19 @@
       </c>
       <c r="H3" s="101"/>
       <c r="I3" s="61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J3" s="60"/>
       <c r="K3" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L3" s="60"/>
       <c r="M3" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N3" s="60"/>
       <c r="O3" s="60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P3" s="60"/>
       <c r="Q3" s="101" t="s">
@@ -4113,12 +4275,12 @@
       </c>
       <c r="G6" s="137">
         <f>I6</f>
-        <v>0.62222222222222223</v>
+        <v>0.63199000312402376</v>
       </c>
       <c r="H6" s="138"/>
       <c r="I6" s="137">
-        <f>Notes!E39</f>
-        <v>0.62222222222222223</v>
+        <f>Notes!E92</f>
+        <v>0.63199000312402376</v>
       </c>
       <c r="J6" s="72"/>
       <c r="K6" s="72"/>
@@ -4128,7 +4290,7 @@
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
       <c r="Q6" s="128" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="16" thickBot="1">
@@ -4142,13 +4304,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="137">
-        <f t="shared" ref="G7:G19" si="0">I7</f>
-        <v>0.17777777777777778</v>
+        <f t="shared" ref="G7:G21" si="0">I7</f>
+        <v>0.18056857232114965</v>
       </c>
       <c r="H7" s="139"/>
       <c r="I7" s="137">
-        <f>Notes!E40</f>
-        <v>0.17777777777777778</v>
+        <f>Notes!E93</f>
+        <v>0.18056857232114965</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -4158,25 +4320,25 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="128" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="16" thickBot="1">
       <c r="B8" s="69"/>
       <c r="C8" s="127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="16"/>
       <c r="G8" s="137">
         <f>I8</f>
-        <v>0.2</v>
+        <v>0.18744142455482662</v>
       </c>
       <c r="H8" s="139"/>
       <c r="I8" s="137">
-        <f>Notes!E36</f>
-        <v>0.2</v>
+        <f>Notes!E49</f>
+        <v>0.18744142455482662</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -4186,96 +4348,89 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="128" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="16" thickBot="1">
       <c r="B9" s="69"/>
-      <c r="C9" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="C9" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="137">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="128" t="s">
-        <v>160</v>
-      </c>
+        <f>Notes!E97</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="139"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="128"/>
     </row>
     <row r="10" spans="2:17" ht="16" thickBot="1">
       <c r="B10" s="69"/>
-      <c r="C10" s="114" t="s">
-        <v>29</v>
+      <c r="C10" s="155" t="s">
+        <v>171</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="109">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="128" t="s">
-        <v>122</v>
-      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="137">
+        <f>Notes!E98</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="139"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="128"/>
     </row>
     <row r="11" spans="2:17" ht="16" thickBot="1">
       <c r="B11" s="69"/>
-      <c r="C11" s="114" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="18" t="s">
+      <c r="C11" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="109">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="G11" s="158">
+        <f>Notes!E39</f>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="H11" s="138"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
       <c r="Q11" s="128" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="16" thickBot="1">
       <c r="B12" s="69"/>
       <c r="C12" s="114" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
@@ -4284,46 +4439,52 @@
         <v>0</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="J12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
       <c r="Q12" s="128" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="16" thickBot="1">
       <c r="B13" s="69"/>
       <c r="C13" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="109">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="128" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="16" thickBot="1">
       <c r="B14" s="69"/>
-      <c r="C14" s="30" t="s">
-        <v>34</v>
-      </c>
+      <c r="C14" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="18" t="s">
         <v>4</v>
       </c>
@@ -4331,234 +4492,246 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H14" s="11"/>
+      <c r="J14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
       <c r="Q14" s="128" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="16" thickBot="1">
       <c r="B15" s="69"/>
-      <c r="C15" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="C15" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="109">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
       <c r="Q15" s="128" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="16" thickBot="1">
       <c r="B16" s="69"/>
       <c r="C16" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="133">
+        <v>4</v>
+      </c>
+      <c r="G16" s="109">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q16" s="128" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1">
       <c r="B17" s="69"/>
       <c r="C17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="109">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="128" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16" thickBot="1">
+      <c r="B18" s="69"/>
+      <c r="C18" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="133">
-        <f>M17</f>
+      <c r="G18" s="133">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="128" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16" thickBot="1">
+      <c r="B19" s="69"/>
+      <c r="C19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="133">
+        <f>M19</f>
         <v>4.9000000000000007E-3</v>
       </c>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="133">
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="133">
         <f>Notes!E88</f>
         <v>4.9000000000000007E-3</v>
       </c>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="Q17" s="128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="16" thickBot="1">
-      <c r="B18" s="69"/>
-      <c r="C18" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="109">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="128" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16" thickBot="1">
-      <c r="B19" s="69"/>
-      <c r="C19" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="109">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
       <c r="Q19" s="128" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16" thickBot="1">
       <c r="B20" s="69"/>
       <c r="C20" s="114" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="109">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q20" s="128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16" thickBot="1">
       <c r="B21" s="69"/>
       <c r="C21" s="114" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="109">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="128" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16" thickBot="1">
+      <c r="B22" s="69"/>
+      <c r="C22" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="109">
         <v>1</v>
       </c>
-      <c r="Q21" s="128" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="B22" s="69"/>
-      <c r="C22" s="74"/>
-      <c r="F22" s="75"/>
-      <c r="Q22" s="128"/>
+      <c r="Q22" s="128" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1">
       <c r="B23" s="69"/>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="109">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="128" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="B24" s="69"/>
+      <c r="C24" s="74"/>
+      <c r="F24" s="75"/>
+      <c r="Q24" s="128"/>
+    </row>
+    <row r="25" spans="1:17" ht="16" thickBot="1">
+      <c r="B25" s="69"/>
+      <c r="C25" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="Q23" s="128"/>
-    </row>
-    <row r="24" spans="1:17" ht="16" thickBot="1">
-      <c r="A24" s="124"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="109">
-        <f>K24</f>
-        <v>4135</v>
-      </c>
-      <c r="K24" s="112">
-        <f>Notes!E183</f>
-        <v>4135</v>
-      </c>
-      <c r="Q24" s="128" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16" thickBot="1">
-      <c r="A25" s="124"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="109">
-        <f t="shared" ref="G25:G32" si="1">I25</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="128" t="s">
-        <v>123</v>
-      </c>
+      <c r="F25" s="28"/>
+      <c r="Q25" s="128"/>
     </row>
     <row r="26" spans="1:17" ht="16" thickBot="1">
       <c r="A26" s="124"/>
       <c r="B26" s="125"/>
       <c r="C26" s="30" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="109">
         <f>K26</f>
-        <v>600</v>
+        <v>4135</v>
       </c>
       <c r="K26" s="112">
-        <f>Notes!E172</f>
-        <v>600</v>
-      </c>
-      <c r="Q26" s="128"/>
+        <f>Notes!E183</f>
+        <v>4135</v>
+      </c>
+      <c r="Q26" s="128" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="16" thickBot="1">
       <c r="A27" s="124"/>
       <c r="B27" s="125"/>
       <c r="C27" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="109">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G27:G34" si="1">I27</f>
         <v>0</v>
       </c>
       <c r="Q27" s="128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16" thickBot="1">
       <c r="A28" s="124"/>
       <c r="B28" s="125"/>
       <c r="C28" s="30" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G28" s="109">
-        <f>O28</f>
-        <v>252.89256198347107</v>
-      </c>
-      <c r="O28" s="133">
-        <f>Notes!E209</f>
-        <v>252.89256198347107</v>
+        <f>K28</f>
+        <v>600</v>
+      </c>
+      <c r="K28" s="112">
+        <f>Notes!E172</f>
+        <v>600</v>
       </c>
       <c r="Q28" s="128"/>
     </row>
@@ -4566,243 +4739,279 @@
       <c r="A29" s="124"/>
       <c r="B29" s="125"/>
       <c r="C29" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G29" s="109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29" s="128" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" thickBot="1">
       <c r="A30" s="124"/>
       <c r="B30" s="125"/>
       <c r="C30" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G30" s="109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="128" t="s">
-        <v>123</v>
-      </c>
+        <f>O30</f>
+        <v>252.89256198347107</v>
+      </c>
+      <c r="O30" s="133">
+        <f>Notes!E209</f>
+        <v>252.89256198347107</v>
+      </c>
+      <c r="Q30" s="128"/>
     </row>
     <row r="31" spans="1:17" ht="16" thickBot="1">
       <c r="A31" s="124"/>
       <c r="B31" s="125"/>
       <c r="C31" s="30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="140">
-        <v>0.04</v>
+        <v>46</v>
+      </c>
+      <c r="G31" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q31" s="128" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16" thickBot="1">
       <c r="A32" s="124"/>
       <c r="B32" s="125"/>
       <c r="C32" s="30" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G32" s="109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q32" s="128" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="16" thickBot="1">
       <c r="A33" s="124"/>
       <c r="B33" s="125"/>
-      <c r="C33" s="76"/>
-      <c r="Q33" s="128"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="C33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="140">
+        <v>0.04</v>
+      </c>
+      <c r="Q33" s="128" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="16" thickBot="1">
       <c r="A34" s="124"/>
       <c r="B34" s="125"/>
-      <c r="C34" s="28"/>
-      <c r="Q34" s="128"/>
-    </row>
-    <row r="35" spans="1:17" ht="16" thickBot="1">
+      <c r="C34" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="128" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="124"/>
       <c r="B35" s="125"/>
-      <c r="C35" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="C35" s="76"/>
       <c r="Q35" s="128"/>
     </row>
-    <row r="36" spans="1:17" ht="16" thickBot="1">
+    <row r="36" spans="1:17">
       <c r="A36" s="124"/>
       <c r="B36" s="125"/>
-      <c r="C36" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="109">
-        <f t="shared" ref="G36:G41" si="2">I36</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="128" t="s">
-        <v>123</v>
-      </c>
+      <c r="C36" s="28"/>
+      <c r="Q36" s="128"/>
     </row>
     <row r="37" spans="1:17" ht="16" thickBot="1">
       <c r="A37" s="124"/>
       <c r="B37" s="125"/>
-      <c r="C37" s="121" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="109">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="128" t="s">
-        <v>123</v>
-      </c>
+      <c r="C37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="128"/>
     </row>
     <row r="38" spans="1:17" ht="16" thickBot="1">
       <c r="A38" s="124"/>
       <c r="B38" s="125"/>
       <c r="C38" s="121" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" s="109">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="148" t="s">
-        <v>165</v>
+        <f t="shared" ref="G38:G43" si="2">I38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="128" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16" thickBot="1">
       <c r="A39" s="124"/>
       <c r="B39" s="125"/>
       <c r="C39" s="121" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G39" s="109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q39" s="128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16" thickBot="1">
       <c r="A40" s="124"/>
       <c r="B40" s="125"/>
       <c r="C40" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="128" t="s">
-        <v>136</v>
+        <v>44</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="109">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="148" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16" thickBot="1">
       <c r="A41" s="124"/>
       <c r="B41" s="125"/>
       <c r="C41" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="142">
+        <v>30</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q41" s="128" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16" thickBot="1">
       <c r="A42" s="124"/>
       <c r="B42" s="125"/>
       <c r="C42" s="121" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F42" s="18"/>
-      <c r="G42" s="143">
-        <f>4.5+7</f>
-        <v>11.5</v>
+      <c r="G42" s="142">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q42" s="128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16" thickBot="1">
       <c r="A43" s="124"/>
       <c r="B43" s="125"/>
       <c r="C43" s="121" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="142">
-        <f>1.5+0.5</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q43" s="128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16" thickBot="1">
       <c r="A44" s="124"/>
       <c r="B44" s="125"/>
       <c r="C44" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="143">
+        <f>4.5+7</f>
+        <v>11.5</v>
+      </c>
+      <c r="Q44" s="128" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="16" thickBot="1">
+      <c r="A45" s="124"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="142">
+        <f>1.5+0.5</f>
+        <v>2</v>
+      </c>
+      <c r="Q45" s="128" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="16" thickBot="1">
+      <c r="A46" s="124"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="142">
+      <c r="F46" s="18"/>
+      <c r="G46" s="142">
         <f>7+4.5</f>
         <v>11.5</v>
       </c>
-      <c r="Q44" s="128" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="124"/>
-      <c r="B45" s="125"/>
-      <c r="Q45" s="110"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="124"/>
-      <c r="B46" s="125"/>
+      <c r="Q46" s="128" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="124"/>
       <c r="B47" s="125"/>
+      <c r="Q47" s="110"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="124"/>
+      <c r="B48" s="125"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="124"/>
+      <c r="B49" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4898,7 +5107,7 @@
         <v>83</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>84</v>
@@ -4934,35 +5143,35 @@
     <row r="8" spans="2:11">
       <c r="B8" s="46"/>
       <c r="C8" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="H8" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="50" t="s">
+      <c r="J8" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="62" t="s">
         <v>112</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="46"/>
       <c r="C9" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="49"/>
@@ -5000,29 +5209,29 @@
     <row r="12" spans="2:11" ht="13" customHeight="1">
       <c r="B12" s="46"/>
       <c r="C12" s="55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="G12" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="H12" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="57" t="s">
+      <c r="J12" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -5043,25 +5252,25 @@
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" s="57" t="s">
-        <v>155</v>
-      </c>
       <c r="K14" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -5079,29 +5288,29 @@
     <row r="16" spans="2:11">
       <c r="B16" s="46"/>
       <c r="C16" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J16" s="57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K16" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5278,8 +5487,8 @@
   </sheetPr>
   <dimension ref="A2:J295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5480,10 +5689,13 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="107"/>
-      <c r="C24" s="160" t="s">
-        <v>156</v>
+      <c r="C24" s="151" t="s">
+        <v>154</v>
       </c>
       <c r="D24" s="105"/>
+      <c r="G24" s="132" t="s">
+        <v>117</v>
+      </c>
       <c r="I24" s="105"/>
       <c r="J24" s="108"/>
     </row>
@@ -5491,6 +5703,9 @@
       <c r="B25" s="107"/>
       <c r="C25" s="105"/>
       <c r="D25" s="105"/>
+      <c r="G25" s="132" t="s">
+        <v>146</v>
+      </c>
       <c r="I25" s="105"/>
       <c r="J25" s="108"/>
     </row>
@@ -5498,6 +5713,9 @@
       <c r="B26" s="107"/>
       <c r="C26" s="105"/>
       <c r="D26" s="105"/>
+      <c r="G26" s="132" t="s">
+        <v>119</v>
+      </c>
       <c r="I26" s="105"/>
       <c r="J26" s="108"/>
     </row>
@@ -5505,9 +5723,9 @@
       <c r="B27" s="107"/>
       <c r="C27" s="105"/>
       <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
+      <c r="G27" s="132" t="s">
+        <v>118</v>
+      </c>
       <c r="H27" s="105"/>
       <c r="I27" s="105"/>
       <c r="J27" s="108"/>
@@ -5516,9 +5734,7 @@
       <c r="B28" s="107"/>
       <c r="C28" s="105"/>
       <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="113"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="105"/>
       <c r="I28" s="105"/>
       <c r="J28" s="108"/>
@@ -5527,9 +5743,9 @@
       <c r="B29" s="107"/>
       <c r="C29" s="105"/>
       <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
+      <c r="G29" s="132" t="s">
+        <v>120</v>
+      </c>
       <c r="H29" s="105"/>
       <c r="I29" s="105"/>
       <c r="J29" s="108"/>
@@ -5538,10 +5754,8 @@
       <c r="B30" s="107"/>
       <c r="C30" s="105"/>
       <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
       <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
+      <c r="H30" s="113"/>
       <c r="I30" s="105"/>
       <c r="J30" s="108"/>
     </row>
@@ -5549,9 +5763,9 @@
       <c r="B31" s="107"/>
       <c r="C31" s="105"/>
       <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
+      <c r="G31" s="152" t="s">
+        <v>165</v>
+      </c>
       <c r="H31" s="105"/>
       <c r="I31" s="105"/>
       <c r="J31" s="108"/>
@@ -5560,9 +5774,6 @@
       <c r="B32" s="107"/>
       <c r="C32" s="105"/>
       <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
       <c r="H32" s="105"/>
       <c r="I32" s="105"/>
       <c r="J32" s="108"/>
@@ -5571,9 +5782,6 @@
       <c r="B33" s="107"/>
       <c r="C33" s="105"/>
       <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
       <c r="H33" s="105"/>
       <c r="I33" s="105"/>
       <c r="J33" s="108"/>
@@ -5591,7 +5799,6 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="107"/>
-      <c r="C35" s="105"/>
       <c r="D35" s="105"/>
       <c r="E35" s="105"/>
       <c r="F35" s="105"/>
@@ -5602,67 +5809,51 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="107"/>
-      <c r="C36" s="105"/>
       <c r="D36" s="105"/>
-      <c r="E36" s="105">
-        <v>0.2</v>
-      </c>
-      <c r="G36" s="126" t="s">
-        <v>101</v>
-      </c>
       <c r="H36" s="105"/>
       <c r="I36" s="105"/>
       <c r="J36" s="108"/>
     </row>
     <row r="37" spans="2:10" ht="16">
       <c r="B37" s="107"/>
-      <c r="C37" s="105"/>
       <c r="D37"/>
-      <c r="E37" s="105"/>
-      <c r="G37" s="105"/>
+      <c r="E37" s="105">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="152" t="s">
+        <v>166</v>
+      </c>
       <c r="H37" s="105"/>
       <c r="I37" s="105"/>
       <c r="J37" s="108"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="107"/>
-      <c r="C38" s="105"/>
       <c r="D38" s="105"/>
-      <c r="E38" s="105">
-        <v>4.5</v>
-      </c>
-      <c r="G38" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="132"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="105"/>
       <c r="J38" s="108"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="107"/>
-      <c r="C39" s="105"/>
       <c r="D39" s="105"/>
       <c r="E39" s="105">
-        <f>(1-E36)*(1-1/E38)</f>
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="G39" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="105"/>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="F39" s="105"/>
+      <c r="G39" s="159" t="s">
+        <v>169</v>
+      </c>
       <c r="I39" s="105"/>
       <c r="J39" s="108"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="107"/>
-      <c r="C40" s="105"/>
       <c r="D40" s="105"/>
-      <c r="E40" s="105">
-        <f>(1-E36)/E38</f>
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="G40" s="126" t="s">
-        <v>87</v>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="159" t="s">
+        <v>172</v>
       </c>
       <c r="H40" s="105"/>
       <c r="I40" s="105"/>
@@ -5670,7 +5861,6 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="107"/>
-      <c r="C41" s="105"/>
       <c r="D41" s="105"/>
       <c r="E41" s="105"/>
       <c r="F41" s="105"/>
@@ -5681,11 +5871,12 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="107"/>
-      <c r="C42" s="105"/>
       <c r="D42" s="105"/>
       <c r="E42" s="105"/>
       <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
+      <c r="G42" s="132" t="s">
+        <v>156</v>
+      </c>
       <c r="H42" s="105"/>
       <c r="I42" s="105"/>
       <c r="J42" s="108"/>
@@ -5696,7 +5887,9 @@
       <c r="D43" s="105"/>
       <c r="E43" s="105"/>
       <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
+      <c r="G43" s="132" t="s">
+        <v>157</v>
+      </c>
       <c r="H43" s="105"/>
       <c r="I43" s="105"/>
       <c r="J43" s="108"/>
@@ -5707,10 +5900,7 @@
       <c r="D44" s="105"/>
       <c r="E44" s="105"/>
       <c r="F44" s="105"/>
-      <c r="G44" s="132" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" s="105"/>
+      <c r="G44" s="105"/>
       <c r="I44" s="105"/>
       <c r="J44" s="108"/>
     </row>
@@ -5718,12 +5908,9 @@
       <c r="B45" s="107"/>
       <c r="C45" s="105"/>
       <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="132" t="s">
-        <v>148</v>
-      </c>
-      <c r="H45" s="105"/>
+      <c r="G45" s="153" t="s">
+        <v>167</v>
+      </c>
       <c r="I45" s="105"/>
       <c r="J45" s="108"/>
     </row>
@@ -5733,10 +5920,9 @@
       <c r="D46" s="105"/>
       <c r="E46" s="105"/>
       <c r="F46" s="126"/>
-      <c r="G46" s="132" t="s">
-        <v>120</v>
-      </c>
-      <c r="H46" s="105"/>
+      <c r="G46" s="153" t="s">
+        <v>168</v>
+      </c>
       <c r="I46" s="105"/>
       <c r="J46" s="108"/>
     </row>
@@ -5744,12 +5930,6 @@
       <c r="B47" s="107"/>
       <c r="C47" s="105"/>
       <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="H47" s="105"/>
       <c r="I47" s="105"/>
       <c r="J47" s="108"/>
     </row>
@@ -5759,8 +5939,6 @@
       <c r="D48" s="105"/>
       <c r="E48" s="105"/>
       <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
       <c r="I48" s="105"/>
       <c r="J48" s="108"/>
     </row>
@@ -5768,12 +5946,14 @@
       <c r="B49" s="107"/>
       <c r="C49" s="105"/>
       <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
+      <c r="E49" s="105">
+        <f>E37/E39</f>
+        <v>0.18744142455482662</v>
+      </c>
       <c r="F49" s="105"/>
-      <c r="G49" s="132" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" s="105"/>
+      <c r="G49" s="152" t="s">
+        <v>100</v>
+      </c>
       <c r="I49" s="105"/>
       <c r="J49" s="108"/>
     </row>
@@ -5783,8 +5963,6 @@
       <c r="D50" s="105"/>
       <c r="E50" s="105"/>
       <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
       <c r="I50" s="105"/>
       <c r="J50" s="108"/>
     </row>
@@ -5794,10 +5972,6 @@
       <c r="D51" s="105"/>
       <c r="E51" s="105"/>
       <c r="F51" s="105"/>
-      <c r="G51" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="H51" s="105"/>
       <c r="I51" s="105"/>
       <c r="J51" s="108"/>
     </row>
@@ -5827,9 +6001,6 @@
       <c r="B54" s="107"/>
       <c r="C54" s="105"/>
       <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
       <c r="H54" s="105"/>
       <c r="I54" s="105"/>
       <c r="J54" s="108"/>
@@ -5838,9 +6009,6 @@
       <c r="B55" s="107"/>
       <c r="C55" s="105"/>
       <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
       <c r="H55" s="105"/>
       <c r="I55" s="105"/>
       <c r="J55" s="108"/>
@@ -5849,9 +6017,6 @@
       <c r="B56" s="107"/>
       <c r="C56" s="105"/>
       <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
       <c r="H56" s="105"/>
       <c r="I56" s="105"/>
       <c r="J56" s="108"/>
@@ -5887,12 +6052,7 @@
       <c r="B60" s="107"/>
       <c r="C60" s="105"/>
       <c r="D60" s="105"/>
-      <c r="E60" s="102">
-        <v>0.2</v>
-      </c>
-      <c r="G60" s="150" t="s">
-        <v>101</v>
-      </c>
+      <c r="G60" s="150"/>
       <c r="H60" s="105"/>
       <c r="I60" s="105"/>
       <c r="J60" s="108"/>
@@ -5950,14 +6110,6 @@
       <c r="B66" s="107"/>
       <c r="C66" s="105"/>
       <c r="D66" s="105"/>
-      <c r="E66" s="105">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="F66" s="105"/>
-      <c r="G66" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="H66" s="105"/>
       <c r="I66" s="105"/>
       <c r="J66" s="108"/>
     </row>
@@ -5965,12 +6117,6 @@
       <c r="B67" s="107"/>
       <c r="C67" s="111"/>
       <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="132" t="s">
-        <v>158</v>
-      </c>
-      <c r="H67" s="105"/>
       <c r="I67" s="105"/>
       <c r="J67" s="108"/>
     </row>
@@ -5978,10 +6124,6 @@
       <c r="B68" s="107"/>
       <c r="C68" s="105"/>
       <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
       <c r="I68" s="105"/>
       <c r="J68" s="108"/>
     </row>
@@ -5989,12 +6131,6 @@
       <c r="B69" s="107"/>
       <c r="C69" s="105"/>
       <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="132" t="s">
-        <v>159</v>
-      </c>
-      <c r="H69" s="113"/>
       <c r="I69" s="105"/>
       <c r="J69" s="108"/>
     </row>
@@ -6002,12 +6138,6 @@
       <c r="B70" s="107"/>
       <c r="C70" s="105"/>
       <c r="D70" s="105"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="132" t="s">
-        <v>160</v>
-      </c>
-      <c r="H70" s="105"/>
       <c r="I70" s="105"/>
       <c r="J70" s="108"/>
     </row>
@@ -6146,7 +6276,7 @@
     <row r="83" spans="2:10">
       <c r="B83" s="107"/>
       <c r="C83" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D83" s="105"/>
       <c r="E83" s="105"/>
@@ -6197,7 +6327,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F87" s="132" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G87" s="130" t="s">
         <v>36</v>
@@ -6218,7 +6348,7 @@
         <v>58</v>
       </c>
       <c r="G88" s="132" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H88" s="105"/>
       <c r="I88" s="105"/>
@@ -6250,9 +6380,12 @@
       <c r="B91" s="107"/>
       <c r="C91" s="105"/>
       <c r="D91" s="105"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="105"/>
+      <c r="E91" s="105">
+        <v>4.5</v>
+      </c>
+      <c r="G91" s="126" t="s">
+        <v>99</v>
+      </c>
       <c r="H91" s="105"/>
       <c r="I91" s="105"/>
       <c r="J91" s="108"/>
@@ -6261,9 +6394,13 @@
       <c r="B92" s="107"/>
       <c r="C92" s="105"/>
       <c r="D92" s="105"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="105"/>
+      <c r="E92" s="105">
+        <f>(1-E49)*(1-1/E91)</f>
+        <v>0.63199000312402376</v>
+      </c>
+      <c r="G92" s="126" t="s">
+        <v>86</v>
+      </c>
       <c r="H92" s="105"/>
       <c r="I92" s="105"/>
       <c r="J92" s="108"/>
@@ -6272,9 +6409,13 @@
       <c r="B93" s="107"/>
       <c r="C93" s="105"/>
       <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
+      <c r="E93" s="105">
+        <f>(1-E49)/E91</f>
+        <v>0.18056857232114965</v>
+      </c>
+      <c r="G93" s="126" t="s">
+        <v>87</v>
+      </c>
       <c r="H93" s="105"/>
       <c r="I93" s="105"/>
       <c r="J93" s="108"/>
@@ -6316,9 +6457,13 @@
       <c r="B97" s="107"/>
       <c r="C97" s="105"/>
       <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
+      <c r="E97" s="157">
+        <v>1</v>
+      </c>
       <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
+      <c r="G97" s="156" t="s">
+        <v>170</v>
+      </c>
       <c r="H97" s="105"/>
       <c r="I97" s="105"/>
       <c r="J97" s="108"/>
@@ -6327,9 +6472,13 @@
       <c r="B98" s="107"/>
       <c r="C98" s="105"/>
       <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
+      <c r="E98" s="157">
+        <v>1</v>
+      </c>
       <c r="F98"/>
-      <c r="G98" s="105"/>
+      <c r="G98" s="156" t="s">
+        <v>171</v>
+      </c>
       <c r="H98" s="105"/>
       <c r="I98" s="105"/>
       <c r="J98" s="108"/>
@@ -6351,7 +6500,9 @@
       <c r="D100" s="105"/>
       <c r="E100" s="105"/>
       <c r="F100" s="105"/>
-      <c r="G100" s="105"/>
+      <c r="G100" s="159" t="s">
+        <v>173</v>
+      </c>
       <c r="H100" s="105"/>
       <c r="I100" s="105"/>
       <c r="J100" s="108"/>
@@ -6850,7 +7001,7 @@
       <c r="A161" s="124"/>
       <c r="B161" s="125"/>
       <c r="C161" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6891,14 +7042,14 @@
         <v>28</v>
       </c>
       <c r="G169" s="129" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="124"/>
       <c r="B170" s="125"/>
       <c r="G170" s="129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6915,7 +7066,7 @@
         <v>28</v>
       </c>
       <c r="G172" s="129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6948,17 +7099,17 @@
         <v>28</v>
       </c>
       <c r="G178" s="129" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I178" s="130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="124"/>
       <c r="B179" s="125"/>
       <c r="G179" s="129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6984,7 +7135,7 @@
         <v>28</v>
       </c>
       <c r="G183" s="129" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7007,7 +7158,7 @@
       <c r="A188" s="124"/>
       <c r="B188" s="125"/>
       <c r="C188" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E188" s="105"/>
     </row>
@@ -7046,17 +7197,17 @@
         <v>117</v>
       </c>
       <c r="F196" s="130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G196" s="130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="124"/>
       <c r="B197" s="125"/>
       <c r="G197" s="130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -7067,17 +7218,17 @@
         <v>96.694214876033058</v>
       </c>
       <c r="F198" s="130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G198" s="130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="124"/>
       <c r="B199" s="125"/>
       <c r="G199" s="130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -7091,17 +7242,17 @@
         <v>189</v>
       </c>
       <c r="F201" s="130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G201" s="130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="124"/>
       <c r="B202" s="125"/>
       <c r="G202" s="130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -7116,17 +7267,17 @@
         <v>156.19834710743802</v>
       </c>
       <c r="F204" s="130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G204" s="130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="124"/>
       <c r="B205" s="125"/>
       <c r="G205" s="130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -7150,17 +7301,17 @@
         <v>252.89256198347107</v>
       </c>
       <c r="F209" s="130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G209" s="130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="124"/>
       <c r="B210" s="125"/>
       <c r="G210" s="130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="211" spans="1:7">

--- a/nodes_source_analyses/households/households_space_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="8580" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -856,6 +853,10 @@
   <si>
     <t>Use electric part of HHP maximally for space heating</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -868,7 +869,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1042,11 +1043,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1812,22 +1808,22 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1854,7 +1850,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1870,7 +1866,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1895,8 +1891,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1916,7 +1912,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1927,17 +1923,17 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1945,13 +1941,13 @@
     <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2013,7 +2009,7 @@
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2023,85 +2019,85 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,41 +2105,41 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2538,83 +2534,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3598,7 +3518,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3607,7 +3527,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3740,14 +3660,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3773,7 +3693,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="229" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="C2" s="230"/>
       <c r="D2" s="230"/>
@@ -3789,7 +3709,7 @@
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="235"/>
       <c r="C4" s="236"/>
       <c r="D4" s="236"/>
@@ -3846,7 +3766,7 @@
     <row r="9" spans="1:11" s="36" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
@@ -3859,7 +3779,7 @@
     <row r="10" spans="1:11" s="36" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="145"/>
       <c r="C10" s="98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>4</v>
@@ -3881,7 +3801,7 @@
       <c r="A11" s="36"/>
       <c r="B11" s="145"/>
       <c r="C11" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>4</v>
@@ -3904,7 +3824,7 @@
       <c r="A12" s="36"/>
       <c r="B12" s="145"/>
       <c r="C12" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>4</v>
@@ -3927,7 +3847,7 @@
       <c r="A13" s="36"/>
       <c r="B13" s="145"/>
       <c r="C13" s="146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>4</v>
@@ -3950,7 +3870,7 @@
       <c r="A14" s="36"/>
       <c r="B14" s="145"/>
       <c r="C14" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>4</v>
@@ -3973,7 +3893,7 @@
       <c r="A15" s="36"/>
       <c r="B15" s="145"/>
       <c r="C15" s="123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>4</v>
@@ -3996,7 +3916,7 @@
       <c r="A16" s="36"/>
       <c r="B16" s="145"/>
       <c r="C16" s="123" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>4</v>
@@ -4019,7 +3939,7 @@
       <c r="A17" s="36"/>
       <c r="B17" s="145"/>
       <c r="C17" s="146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>4</v>
@@ -4042,7 +3962,7 @@
       <c r="A18" s="36"/>
       <c r="B18" s="145"/>
       <c r="C18" s="146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>4</v>
@@ -4065,7 +3985,7 @@
       <c r="A19" s="36"/>
       <c r="B19" s="145"/>
       <c r="C19" s="146" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>4</v>
@@ -4088,7 +4008,7 @@
       <c r="A20" s="36"/>
       <c r="B20" s="145"/>
       <c r="C20" s="146" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>4</v>
@@ -4111,7 +4031,7 @@
       <c r="A21" s="36"/>
       <c r="B21" s="145"/>
       <c r="C21" s="146" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>4</v>
@@ -4134,10 +4054,10 @@
       <c r="A22" s="36"/>
       <c r="B22" s="145"/>
       <c r="C22" s="146" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="E22" s="113">
         <f>'Research data'!E18</f>
@@ -4203,10 +4123,10 @@
       <c r="A25" s="100"/>
       <c r="B25" s="145"/>
       <c r="C25" s="123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E25" s="99">
         <f>'Research data'!E21</f>
@@ -4293,7 +4213,7 @@
     <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="145"/>
       <c r="C29" s="112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>58</v>
@@ -4304,7 +4224,7 @@
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="111" t="str">
@@ -4342,7 +4262,7 @@
       <c r="A31" s="100"/>
       <c r="B31" s="145"/>
       <c r="C31" s="98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>4</v>
@@ -4353,7 +4273,7 @@
       </c>
       <c r="F31" s="98"/>
       <c r="G31" s="147" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" s="98"/>
       <c r="I31" s="111" t="str">
@@ -4367,7 +4287,7 @@
       <c r="A32" s="100"/>
       <c r="B32" s="145"/>
       <c r="C32" s="98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>4</v>
@@ -4378,7 +4298,7 @@
       </c>
       <c r="F32" s="98"/>
       <c r="G32" s="147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="98"/>
       <c r="I32" s="111" t="str">
@@ -4392,7 +4312,7 @@
       <c r="A33" s="100"/>
       <c r="B33" s="145"/>
       <c r="C33" s="98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>4</v>
@@ -4403,7 +4323,7 @@
       </c>
       <c r="F33" s="98"/>
       <c r="G33" s="147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H33" s="98"/>
       <c r="I33" s="111" t="str">
@@ -4417,7 +4337,7 @@
       <c r="A34" s="100"/>
       <c r="B34" s="145"/>
       <c r="C34" s="98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>4</v>
@@ -4428,7 +4348,7 @@
       </c>
       <c r="F34" s="98"/>
       <c r="G34" s="147" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="98"/>
       <c r="I34" s="111" t="str">
@@ -4452,7 +4372,7 @@
     <row r="36" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="145"/>
       <c r="C36" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="81"/>
       <c r="E36" s="82"/>
@@ -4545,7 +4465,7 @@
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="111" t="str">
@@ -4670,10 +4590,10 @@
     <row r="46" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="148"/>
       <c r="C46" s="123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E46" s="143">
         <f>'Research data'!E42</f>
@@ -4927,38 +4847,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -5019,7 +4907,7 @@
     <row r="3" spans="2:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
       <c r="C3" s="88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="88" t="s">
         <v>12</v>
@@ -5074,7 +4962,7 @@
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="150" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
@@ -5100,7 +4988,7 @@
     <row r="5" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="59"/>
       <c r="C5" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="9"/>
@@ -5150,7 +5038,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="160"/>
       <c r="S6" s="151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5184,7 +5072,7 @@
       <c r="Q7" s="160"/>
       <c r="R7" s="162"/>
       <c r="S7" s="151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5218,7 +5106,7 @@
       <c r="Q8" s="160"/>
       <c r="R8" s="162"/>
       <c r="S8" s="151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5251,7 +5139,7 @@
       <c r="Q9" s="162"/>
       <c r="R9" s="162"/>
       <c r="S9" s="151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5349,7 +5237,7 @@
       <c r="Q12" s="166"/>
       <c r="R12" s="166"/>
       <c r="S12" s="151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5583,7 +5471,7 @@
       <c r="Q19" s="166"/>
       <c r="R19" s="166"/>
       <c r="S19" s="151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5616,7 +5504,7 @@
       <c r="Q20" s="162"/>
       <c r="R20" s="162"/>
       <c r="S20" s="151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5649,7 +5537,7 @@
       <c r="Q21" s="160"/>
       <c r="R21" s="160"/>
       <c r="S21" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5715,7 +5603,7 @@
       <c r="Q23" s="168"/>
       <c r="R23" s="168"/>
       <c r="S23" s="151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5748,7 +5636,7 @@
       <c r="Q24" s="168"/>
       <c r="R24" s="168"/>
       <c r="S24" s="151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5780,7 +5668,7 @@
       <c r="Q25" s="168"/>
       <c r="R25" s="168"/>
       <c r="S25" s="151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5814,7 +5702,7 @@
       <c r="Q26" s="175"/>
       <c r="R26" s="168"/>
       <c r="S26" s="151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5848,7 +5736,7 @@
       <c r="Q27" s="168"/>
       <c r="R27" s="168"/>
       <c r="S27" s="151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5882,7 +5770,7 @@
       <c r="Q28" s="168"/>
       <c r="R28" s="168"/>
       <c r="S28" s="151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5915,7 +5803,7 @@
       <c r="Q29" s="168"/>
       <c r="R29" s="168"/>
       <c r="S29" s="151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5948,7 +5836,7 @@
       <c r="Q30" s="168"/>
       <c r="R30" s="168"/>
       <c r="S30" s="151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
@@ -5974,7 +5862,7 @@
     <row r="32" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
       <c r="C32" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="63"/>
@@ -6025,7 +5913,7 @@
       <c r="Q33" s="168"/>
       <c r="R33" s="168"/>
       <c r="S33" s="151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6060,7 +5948,7 @@
       <c r="Q34" s="168"/>
       <c r="R34" s="168"/>
       <c r="S34" s="151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6131,7 +6019,7 @@
       <c r="Q36" s="168"/>
       <c r="R36" s="168"/>
       <c r="S36" s="151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6202,7 +6090,7 @@
       <c r="Q38" s="168"/>
       <c r="R38" s="168"/>
       <c r="S38" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6237,7 +6125,7 @@
       <c r="Q39" s="168"/>
       <c r="R39" s="168"/>
       <c r="S39" s="151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6271,7 +6159,7 @@
       <c r="Q40" s="168"/>
       <c r="R40" s="168"/>
       <c r="S40" s="151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6306,7 +6194,7 @@
       <c r="Q41" s="168"/>
       <c r="R41" s="168"/>
       <c r="S41" s="151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6421,7 +6309,7 @@
       <c r="Q45" s="168"/>
       <c r="R45" s="168"/>
       <c r="S45" s="151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6456,7 +6344,7 @@
       <c r="Q46" s="168"/>
       <c r="R46" s="168"/>
       <c r="S46" s="151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6491,7 +6379,7 @@
       <c r="Q47" s="168"/>
       <c r="R47" s="168"/>
       <c r="S47" s="181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6526,7 +6414,7 @@
       <c r="Q48" s="168"/>
       <c r="R48" s="168"/>
       <c r="S48" s="151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6561,7 +6449,7 @@
       <c r="Q49" s="168"/>
       <c r="R49" s="168"/>
       <c r="S49" s="151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6596,7 +6484,7 @@
       <c r="Q50" s="168"/>
       <c r="R50" s="168"/>
       <c r="S50" s="151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6631,7 +6519,7 @@
       <c r="Q51" s="168"/>
       <c r="R51" s="168"/>
       <c r="S51" s="151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6666,7 +6554,7 @@
       <c r="Q52" s="168"/>
       <c r="R52" s="168"/>
       <c r="S52" s="151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6701,7 +6589,7 @@
       <c r="Q53" s="168"/>
       <c r="R53" s="168"/>
       <c r="S53" s="151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -6870,13 +6758,13 @@
         <v>26</v>
       </c>
       <c r="H5" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="51" t="s">
         <v>83</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>84</v>
       </c>
       <c r="K5" s="192" t="s">
         <v>14</v>
@@ -6909,35 +6797,35 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="44"/>
       <c r="C8" s="199" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="200"/>
       <c r="E8" s="201" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="201" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="202" t="s">
+      <c r="H8" s="202" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="202" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="202" t="s">
+      <c r="J8" s="202" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="151" t="s">
         <v>111</v>
-      </c>
-      <c r="J8" s="202" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="151" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="44"/>
       <c r="C9" s="203" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="204"/>
       <c r="E9" s="201"/>
@@ -6975,29 +6863,29 @@
     <row r="12" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="44"/>
       <c r="C12" s="199" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="207"/>
       <c r="E12" s="200" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="206" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="206" t="s">
+      <c r="G12" s="208" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="208" t="s">
+      <c r="H12" s="208" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="208" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="208" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="208" t="s">
+      <c r="J12" s="208" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="205" t="s">
         <v>141</v>
-      </c>
-      <c r="J12" s="208" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="205" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -7019,25 +6907,25 @@
       </c>
       <c r="D14" s="207"/>
       <c r="E14" s="200" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="206" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="208" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="206" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="208" t="s">
+      <c r="H14" s="208" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="208" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="208" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="208" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="208" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14" s="208" t="s">
-        <v>151</v>
-      </c>
       <c r="K14" s="205" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
@@ -7055,42 +6943,42 @@
     <row r="16" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="44"/>
       <c r="C16" s="199" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="207"/>
       <c r="E16" s="200" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="206" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="208" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="208" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="208" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="208" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="206" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="208" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="208" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" s="208" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="208" t="s">
-        <v>153</v>
-      </c>
       <c r="K16" s="205" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="187"/>
       <c r="C17" s="210" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="209"/>
       <c r="E17" s="209" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="209">
         <v>2015</v>
@@ -7102,14 +6990,14 @@
         <v>42948</v>
       </c>
       <c r="J17" s="210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K17" s="212"/>
     </row>
     <row r="18" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="187"/>
       <c r="C18" s="210" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="209"/>
       <c r="E18" s="209"/>
@@ -7135,26 +7023,26 @@
     <row r="20" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="187"/>
       <c r="C20" s="210" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="209"/>
       <c r="E20" s="209" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F20" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="209">
         <v>2010</v>
       </c>
       <c r="H20" s="209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I20" s="211">
         <v>42948</v>
       </c>
       <c r="J20" s="214" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K20" s="212"/>
     </row>
@@ -7177,10 +7065,10 @@
       </c>
       <c r="D22" s="209"/>
       <c r="E22" s="209" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F22" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="209"/>
       <c r="H22" s="209"/>
@@ -7188,16 +7076,16 @@
         <v>42948</v>
       </c>
       <c r="J22" s="210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K22" s="212" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="187"/>
       <c r="C23" s="210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="209"/>
       <c r="E23" s="209"/>
@@ -7267,7 +7155,7 @@
     <row r="28" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="187"/>
       <c r="C28" s="215" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" s="209"/>
       <c r="E28" s="209"/>
@@ -7313,22 +7201,22 @@
       </c>
       <c r="D31" s="209"/>
       <c r="E31" s="209" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H31" s="209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I31" s="209">
         <v>42979</v>
       </c>
       <c r="J31" s="210" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K31" s="212"/>
     </row>
@@ -7354,22 +7242,22 @@
       </c>
       <c r="D33" s="209"/>
       <c r="E33" s="209" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F33" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" s="209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H33" s="209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I33" s="209">
         <v>42979</v>
       </c>
       <c r="J33" s="210" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K33" s="212"/>
     </row>
@@ -7389,26 +7277,26 @@
     <row r="35" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="187"/>
       <c r="C35" s="210" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" s="209"/>
       <c r="E35" s="209" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F35" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" s="209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H35" s="209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I35" s="211">
         <v>42948</v>
       </c>
       <c r="J35" s="214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K35" s="212"/>
     </row>
@@ -7426,25 +7314,25 @@
     <row r="37" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="187"/>
       <c r="C37" s="209" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="209"/>
       <c r="E37" s="209" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="209"/>
       <c r="G37" s="209"/>
       <c r="H37" s="209"/>
       <c r="I37" s="209"/>
       <c r="J37" s="216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K37" s="212"/>
     </row>
     <row r="38" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="187"/>
       <c r="C38" s="209" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="209"/>
       <c r="E38" s="209"/>
@@ -7458,7 +7346,7 @@
     <row r="39" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="187"/>
       <c r="C39" s="209" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="209"/>
       <c r="E39" s="209"/>
@@ -7472,7 +7360,7 @@
     <row r="40" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="187"/>
       <c r="C40" s="209" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="209"/>
       <c r="E40" s="209"/>
@@ -7515,7 +7403,7 @@
     <row r="43" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="187"/>
       <c r="C43" s="209" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="209"/>
       <c r="E43" s="209"/>
@@ -7571,7 +7459,7 @@
     <row r="47" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="187"/>
       <c r="C47" s="209" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" s="209"/>
       <c r="E47" s="209"/>
@@ -7585,7 +7473,7 @@
     <row r="48" spans="1:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="187"/>
       <c r="C48" s="209" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="209"/>
       <c r="E48" s="209"/>
@@ -7599,7 +7487,7 @@
     <row r="49" spans="2:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="187"/>
       <c r="C49" s="209" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49" s="209"/>
       <c r="E49" s="209"/>
@@ -7613,7 +7501,7 @@
     <row r="50" spans="2:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="187"/>
       <c r="C50" s="209" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="209"/>
       <c r="E50" s="209"/>
@@ -7627,7 +7515,7 @@
     <row r="51" spans="2:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="187"/>
       <c r="C51" s="209" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D51" s="209"/>
       <c r="E51" s="209"/>
@@ -7641,7 +7529,7 @@
     <row r="52" spans="2:11" s="186" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="187"/>
       <c r="C52" s="209" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D52" s="209"/>
       <c r="E52" s="209"/>
@@ -7915,7 +7803,7 @@
   </sheetPr>
   <dimension ref="A2:J311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+    <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="A217" sqref="A217:XFD221"/>
     </sheetView>
   </sheetViews>
@@ -7951,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -8119,11 +8007,11 @@
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="94"/>
       <c r="C24" s="115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="92"/>
       <c r="G24" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I24" s="92"/>
       <c r="J24" s="95"/>
@@ -8133,7 +8021,7 @@
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>
       <c r="G25" s="109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I25" s="92"/>
       <c r="J25" s="95"/>
@@ -8143,7 +8031,7 @@
       <c r="C26" s="92"/>
       <c r="D26" s="92"/>
       <c r="G26" s="109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I26" s="92"/>
       <c r="J26" s="95"/>
@@ -8153,7 +8041,7 @@
       <c r="C27" s="92"/>
       <c r="D27" s="92"/>
       <c r="G27" s="109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" s="92"/>
       <c r="I27" s="92"/>
@@ -8173,7 +8061,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="92"/>
       <c r="G29" s="109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H29" s="92"/>
       <c r="I29" s="92"/>
@@ -8193,7 +8081,7 @@
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
       <c r="G31" s="116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H31" s="92"/>
       <c r="I31" s="92"/>
@@ -8250,7 +8138,7 @@
         <v>0.2</v>
       </c>
       <c r="G37" s="116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H37" s="92"/>
       <c r="I37" s="92"/>
@@ -8271,7 +8159,7 @@
       </c>
       <c r="F39" s="92"/>
       <c r="G39" s="121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I39" s="92"/>
       <c r="J39" s="95"/>
@@ -8282,7 +8170,7 @@
       <c r="E40" s="92"/>
       <c r="F40" s="92"/>
       <c r="G40" s="121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H40" s="92"/>
       <c r="I40" s="92"/>
@@ -8304,7 +8192,7 @@
       <c r="E42" s="92"/>
       <c r="F42" s="92"/>
       <c r="G42" s="109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="92"/>
       <c r="I42" s="92"/>
@@ -8317,7 +8205,7 @@
       <c r="E43" s="92"/>
       <c r="F43" s="92"/>
       <c r="G43" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H43" s="92"/>
       <c r="I43" s="92"/>
@@ -8338,7 +8226,7 @@
       <c r="C45" s="92"/>
       <c r="D45" s="92"/>
       <c r="G45" s="117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I45" s="92"/>
       <c r="J45" s="95"/>
@@ -8350,7 +8238,7 @@
       <c r="E46" s="92"/>
       <c r="F46" s="105"/>
       <c r="G46" s="117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I46" s="92"/>
       <c r="J46" s="95"/>
@@ -8381,7 +8269,7 @@
       </c>
       <c r="F49" s="92"/>
       <c r="G49" s="116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I49" s="92"/>
       <c r="J49" s="95"/>
@@ -8705,7 +8593,7 @@
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="94"/>
       <c r="C83" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D83" s="92"/>
       <c r="E83" s="92"/>
@@ -8756,7 +8644,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F87" s="109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G87" s="107" t="s">
         <v>36</v>
@@ -8777,7 +8665,7 @@
         <v>58</v>
       </c>
       <c r="G88" s="109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H88" s="92"/>
       <c r="I88" s="92"/>
@@ -8813,7 +8701,7 @@
         <v>4.5</v>
       </c>
       <c r="G91" s="105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H91" s="92"/>
       <c r="I91" s="92"/>
@@ -8828,7 +8716,7 @@
         <v>0.63199000312402376</v>
       </c>
       <c r="G92" s="105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H92" s="92"/>
       <c r="I92" s="92"/>
@@ -8843,7 +8731,7 @@
         <v>0.18056857232114965</v>
       </c>
       <c r="G93" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H93" s="92"/>
       <c r="I93" s="92"/>
@@ -8891,7 +8779,7 @@
       </c>
       <c r="F97" s="92"/>
       <c r="G97" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H97" s="92"/>
       <c r="I97" s="92"/>
@@ -8906,7 +8794,7 @@
       </c>
       <c r="F98"/>
       <c r="G98" s="119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H98" s="92"/>
       <c r="I98" s="92"/>
@@ -8930,7 +8818,7 @@
       <c r="E100" s="92"/>
       <c r="F100" s="92"/>
       <c r="G100" s="121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H100" s="92"/>
       <c r="I100" s="92"/>
@@ -9430,7 +9318,7 @@
       <c r="A161" s="103"/>
       <c r="B161" s="104"/>
       <c r="C161" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -9471,14 +9359,14 @@
         <v>28</v>
       </c>
       <c r="G169" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="103"/>
       <c r="B170" s="104"/>
       <c r="G170" s="106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -9495,7 +9383,7 @@
         <v>28</v>
       </c>
       <c r="G172" s="106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -9528,17 +9416,17 @@
         <v>28</v>
       </c>
       <c r="G178" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I178" s="107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="103"/>
       <c r="B179" s="104"/>
       <c r="G179" s="106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -9564,7 +9452,7 @@
         <v>28</v>
       </c>
       <c r="G183" s="106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -9586,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="F186" s="127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G186" s="125" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -9600,7 +9488,7 @@
       <c r="A188" s="103"/>
       <c r="B188" s="104"/>
       <c r="C188" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E188" s="92"/>
     </row>
@@ -9639,17 +9527,17 @@
         <v>117</v>
       </c>
       <c r="F196" s="107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G196" s="107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="103"/>
       <c r="B197" s="104"/>
       <c r="G197" s="107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -9660,17 +9548,17 @@
         <v>96.694214876033058</v>
       </c>
       <c r="F198" s="107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G198" s="107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="103"/>
       <c r="B199" s="104"/>
       <c r="G199" s="107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -9684,17 +9572,17 @@
         <v>189</v>
       </c>
       <c r="F201" s="107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G201" s="107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="103"/>
       <c r="B202" s="104"/>
       <c r="G202" s="107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -9709,17 +9597,17 @@
         <v>156.19834710743802</v>
       </c>
       <c r="F204" s="107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G204" s="107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="103"/>
       <c r="B205" s="104"/>
       <c r="G205" s="107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -9743,17 +9631,17 @@
         <v>252.89256198347107</v>
       </c>
       <c r="F209" s="107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G209" s="107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="103"/>
       <c r="B210" s="104"/>
       <c r="G210" s="107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
@@ -9778,7 +9666,7 @@
     <row r="214" spans="1:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="126"/>
       <c r="C214" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D214" s="127"/>
       <c r="E214" s="12" t="str">
@@ -9790,7 +9678,7 @@
       </c>
       <c r="G214" s="127"/>
       <c r="H214" s="127" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I214" s="127"/>
       <c r="J214" s="128"/>
@@ -9818,7 +9706,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H216" s="127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I216" s="127"/>
       <c r="J216" s="128"/>
@@ -9845,7 +9733,7 @@
         <v>Ecofys</v>
       </c>
       <c r="D219" s="127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E219" s="127">
         <v>65</v>
@@ -9907,7 +9795,7 @@
       <c r="B225" s="126"/>
       <c r="C225" s="127"/>
       <c r="D225" s="125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I225" s="127"/>
       <c r="J225" s="128"/>
@@ -9915,13 +9803,13 @@
     <row r="226" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="126"/>
       <c r="D226" s="131" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E226" s="125">
         <v>3.25</v>
       </c>
       <c r="F226" s="125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I226" s="127"/>
       <c r="J226" s="128"/>
@@ -9929,13 +9817,13 @@
     <row r="227" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="126"/>
       <c r="D227" s="131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E227" s="125">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="F227" s="125" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I227" s="127"/>
       <c r="J227" s="128"/>
@@ -9982,10 +9870,10 @@
     <row r="234" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="126"/>
       <c r="C234" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D234" s="125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G234" s="127"/>
       <c r="I234" s="127"/>
@@ -9995,10 +9883,10 @@
       <c r="B235" s="126"/>
       <c r="C235" s="12"/>
       <c r="D235" s="125" t="s">
+        <v>190</v>
+      </c>
+      <c r="E235" s="125" t="s">
         <v>191</v>
-      </c>
-      <c r="E235" s="125" t="s">
-        <v>192</v>
       </c>
       <c r="G235" s="127"/>
       <c r="I235" s="127"/>
@@ -10092,7 +9980,7 @@
         <v>5</v>
       </c>
       <c r="I241" s="127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J241" s="128"/>
     </row>
@@ -10100,22 +9988,22 @@
       <c r="B242" s="126"/>
       <c r="C242" s="127"/>
       <c r="D242" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F242" s="127"/>
       <c r="H242" s="127"/>
       <c r="I242" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J242" s="128" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="243" spans="1:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="126"/>
       <c r="C243" s="127"/>
       <c r="D243" s="125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G243" s="127"/>
       <c r="H243" s="127"/>
@@ -10125,13 +10013,13 @@
     <row r="244" spans="1:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="126"/>
       <c r="D244" s="132" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E244" s="125">
         <v>3.25</v>
       </c>
       <c r="F244" s="125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G244" s="127"/>
       <c r="H244" s="127"/>
@@ -10141,13 +10029,13 @@
     <row r="245" spans="1:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="126"/>
       <c r="D245" s="132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E245" s="125">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="F245" s="125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H245" s="127"/>
       <c r="I245" s="127"/>
@@ -10165,13 +10053,13 @@
     <row r="247" spans="1:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="126"/>
       <c r="D247" s="125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E247" s="127">
         <v>7</v>
       </c>
       <c r="F247" s="127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H247" s="127"/>
       <c r="I247" s="127"/>
@@ -10211,10 +10099,10 @@
         <v>0</v>
       </c>
       <c r="F250" s="127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G250" s="125" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
@@ -10253,7 +10141,7 @@
       </c>
       <c r="D258" s="133"/>
       <c r="G258" s="125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I258" s="127"/>
       <c r="J258" s="128"/>
@@ -10262,13 +10150,13 @@
       <c r="B259" s="126"/>
       <c r="C259" s="12"/>
       <c r="D259" s="125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E259" s="134">
         <v>10</v>
       </c>
       <c r="F259" s="134" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I259" s="127"/>
       <c r="J259" s="128"/>
@@ -10277,13 +10165,13 @@
       <c r="B260" s="126"/>
       <c r="C260" s="12"/>
       <c r="D260" s="125" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E260" s="134">
         <v>10</v>
       </c>
       <c r="F260" s="134" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I260" s="127"/>
       <c r="J260" s="128"/>
@@ -10292,13 +10180,13 @@
       <c r="B261" s="126"/>
       <c r="C261" s="12"/>
       <c r="D261" s="125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E261" s="134">
         <v>4.18</v>
       </c>
       <c r="F261" s="134" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I261" s="127"/>
       <c r="J261" s="128"/>
@@ -10307,16 +10195,16 @@
       <c r="B262" s="126"/>
       <c r="C262" s="12"/>
       <c r="D262" s="125" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E262" s="134">
         <v>10</v>
       </c>
       <c r="F262" s="134" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G262" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I262" s="127"/>
       <c r="J262" s="128"/>
@@ -10325,14 +10213,14 @@
       <c r="B263" s="126"/>
       <c r="C263" s="12"/>
       <c r="D263" s="125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E263" s="142">
         <f>E259*60*E260/E261/E262</f>
         <v>143.54066985645935</v>
       </c>
       <c r="F263" s="134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I263" s="127"/>
       <c r="J263" s="128"/>
@@ -10341,13 +10229,13 @@
       <c r="B264" s="126"/>
       <c r="C264" s="12"/>
       <c r="D264" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E264" s="218">
         <v>3600000</v>
       </c>
       <c r="F264" s="134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I264" s="127"/>
       <c r="J264" s="128"/>
@@ -10364,7 +10252,7 @@
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="F265" s="134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H265"/>
       <c r="I265" s="127"/>
@@ -10379,16 +10267,16 @@
     <row r="267" spans="1:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B267" s="126"/>
       <c r="C267" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D267" s="125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E267" s="134">
         <v>20</v>
       </c>
       <c r="F267" s="134" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I267" s="127"/>
       <c r="J267" s="128"/>
@@ -10397,13 +10285,13 @@
       <c r="B268" s="126"/>
       <c r="C268" s="12"/>
       <c r="D268" s="125" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E268" s="134">
         <v>10</v>
       </c>
       <c r="F268" s="134" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I268" s="127"/>
       <c r="J268" s="128"/>
@@ -10412,13 +10300,13 @@
       <c r="B269" s="126"/>
       <c r="C269" s="12"/>
       <c r="D269" s="125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E269" s="134">
         <v>4.18</v>
       </c>
       <c r="F269" s="134" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I269" s="127"/>
       <c r="J269" s="128"/>
@@ -10427,16 +10315,16 @@
       <c r="B270" s="126"/>
       <c r="C270" s="12"/>
       <c r="D270" s="125" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E270" s="134">
         <v>10</v>
       </c>
       <c r="F270" s="134" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G270" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I270" s="127"/>
       <c r="J270" s="128"/>
@@ -10445,14 +10333,14 @@
       <c r="B271" s="126"/>
       <c r="C271" s="12"/>
       <c r="D271" s="125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E271" s="142">
         <f>E267*60*E268/E269/E270</f>
         <v>287.08133971291869</v>
       </c>
       <c r="F271" s="134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I271" s="127"/>
       <c r="J271" s="128"/>
@@ -10461,13 +10349,13 @@
       <c r="B272" s="126"/>
       <c r="C272" s="12"/>
       <c r="D272" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E272" s="218">
         <v>3600000</v>
       </c>
       <c r="F272" s="134" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I272" s="127"/>
       <c r="J272" s="128"/>
@@ -10484,7 +10372,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="F273" s="134" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I273" s="127"/>
       <c r="J273" s="128"/>
@@ -10543,7 +10431,7 @@
     <row r="285" spans="1:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="126"/>
       <c r="C285" s="219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D285" s="219"/>
       <c r="E285" s="127"/>
@@ -10557,13 +10445,13 @@
       <c r="B286" s="126"/>
       <c r="C286" s="127"/>
       <c r="D286" s="127" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E286">
         <v>4.18</v>
       </c>
       <c r="F286" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G286" s="127"/>
       <c r="H286" s="127"/>
@@ -10574,13 +10462,13 @@
       <c r="B287" s="126"/>
       <c r="C287" s="127"/>
       <c r="D287" s="127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E287">
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G287" s="127"/>
       <c r="H287" s="127"/>
@@ -10596,7 +10484,7 @@
         <v>41.8</v>
       </c>
       <c r="F288" s="127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G288" s="127"/>
       <c r="H288" s="127"/>
@@ -10611,7 +10499,7 @@
         <v>3600000</v>
       </c>
       <c r="F289" s="127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G289" s="127"/>
       <c r="H289" s="127"/>
@@ -10627,7 +10515,7 @@
         <v>1.161111111111111E-5</v>
       </c>
       <c r="F290" s="127" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G290" s="127"/>
       <c r="H290" s="127"/>
@@ -10642,7 +10530,7 @@
         <v>500</v>
       </c>
       <c r="F291" s="125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G291" s="127"/>
       <c r="H291" s="127"/>
@@ -10653,7 +10541,7 @@
       <c r="B292" s="126"/>
       <c r="C292" s="127"/>
       <c r="D292" s="127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E292" s="127">
         <v>1159</v>
@@ -10670,7 +10558,7 @@
       <c r="B293" s="126"/>
       <c r="C293" s="127"/>
       <c r="D293" s="127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E293" s="141">
         <f>E292/1.21</f>
@@ -10688,14 +10576,14 @@
       <c r="B294" s="126"/>
       <c r="C294" s="127"/>
       <c r="D294" s="127" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E294" s="221">
         <f>E293/E291</f>
         <v>1.9157024793388431</v>
       </c>
       <c r="F294" s="125" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G294" s="127"/>
       <c r="H294" s="127"/>
@@ -10722,7 +10610,7 @@
         <v>164988.7302779865</v>
       </c>
       <c r="F296" s="127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G296" s="127"/>
       <c r="H296" s="127"/>
@@ -10765,14 +10653,14 @@
     <row r="300" spans="2:10" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="126"/>
       <c r="C300" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D300" s="127"/>
       <c r="E300" s="125">
         <v>300</v>
       </c>
       <c r="F300" s="125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G300" s="127"/>
       <c r="H300" s="127"/>
@@ -10783,7 +10671,7 @@
       <c r="B301" s="126"/>
       <c r="C301" s="127"/>
       <c r="D301" s="127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E301" s="141">
         <v>539</v>
@@ -10800,14 +10688,14 @@
       <c r="B302" s="126"/>
       <c r="C302" s="127"/>
       <c r="D302" s="127" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E302" s="221">
         <f>E301/E300</f>
         <v>1.7966666666666666</v>
       </c>
       <c r="F302" s="125" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G302" s="127"/>
       <c r="H302" s="127"/>
@@ -10834,7 +10722,7 @@
         <v>154736.84210526317</v>
       </c>
       <c r="F304" s="127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G304" s="127"/>
       <c r="H304" s="127"/>

--- a/nodes_source_analyses/households/households_space_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ED67CB-6852-8642-A17D-52CC3A7A9EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E917D1EF-81A3-D945-A8DB-FF912D3BA5F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="253">
   <si>
     <t>Source</t>
   </si>
@@ -469,9 +469,6 @@
     <t>fixed operational costs excl. taxes</t>
   </si>
   <si>
-    <t>Sum of values for households_space_heater_combined_network_gas and households_space_heater_heatpump_air_water_electricity</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -691,12 +688,6 @@
     <t>page</t>
   </si>
   <si>
-    <t>Linear fit through COP_avg:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fever.base_cop</t>
-  </si>
-  <si>
     <t>COP/degree C</t>
   </si>
   <si>
@@ -724,15 +715,6 @@
     <t>oC</t>
   </si>
   <si>
-    <t>COP/oC</t>
-  </si>
-  <si>
-    <t>For space heating</t>
-  </si>
-  <si>
-    <t>Page 65</t>
-  </si>
-  <si>
     <t>output capacity</t>
   </si>
   <si>
@@ -845,9 +827,6 @@
   </si>
   <si>
     <t xml:space="preserve">HHP's don’t need a buffer for storage as the compressor regulates itself. </t>
-  </si>
-  <si>
-    <t>Use electric part of HHP maximally for space heating</t>
   </si>
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
@@ -879,6 +858,96 @@
   </si>
   <si>
     <t>dit is inclusief de cost_of_installing, dus die gaat naar nul</t>
+  </si>
+  <si>
+    <t>base_cop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cop_per_degree </t>
+  </si>
+  <si>
+    <t>output temperatuur (graden Celsius)</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>linear fit Ecofys curve</t>
+  </si>
+  <si>
+    <t>The input share in the node for the start year should be adjusted soon, will be done together with dataset update!</t>
+  </si>
+  <si>
+    <t>Update Marlieke Verweij 20200401:</t>
+  </si>
+  <si>
+    <t>This cut-off COP is the cost-optimal threshold COP calculated based on these gas and electricity prices</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>euro/kWh</t>
+  </si>
+  <si>
+    <t>euro/m3</t>
+  </si>
+  <si>
+    <t>euro/MJ warmte</t>
+  </si>
+  <si>
+    <t>voor COP1</t>
+  </si>
+  <si>
+    <t>threshold COP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Output temperature is assumed to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">45 degrees </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and the COP curve is based on the Ecofys COP curves for 35 and 50 degrees Celsius. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>With this output temperature and the cost-optimal threshold COP of 2.6, the HHP electricity share (heat output) for houses with energylabel B is 64</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%.</t>
+    </r>
+  </si>
+  <si>
+    <t>These values don't match with the shares on ETSource. They should match the new COP curve and will be updated if all datasets will be updated!</t>
   </si>
 </sst>
 </file>
@@ -892,12 +961,33 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1219,7 +1309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1424,776 +1514,801 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2838,16 +2953,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>898766</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>296005</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>245205</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2870,52 +2985,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12633566" y="1066799"/>
+          <a:off x="18704166" y="46393099"/>
           <a:ext cx="6966439" cy="3517900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>312489</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>1002</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7543030" y="50915455"/>
-          <a:ext cx="5020469" cy="2669284"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2928,13 +2999,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>886125</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>19538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>260033</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>105449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2972,13 +3043,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>937845</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>97691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>795558</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>172397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3016,13 +3087,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>887307</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>64347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>551180</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>1193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3060,13 +3131,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3104,13 +3175,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>111760</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>607060</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3148,13 +3219,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>86946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3180,6 +3251,138 @@
         <a:xfrm>
           <a:off x="8623300" y="62738000"/>
           <a:ext cx="10058400" cy="3604846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>732028</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD7F4A7-E765-1341-9C82-E8FD820501E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19304000" y="50076100"/>
+          <a:ext cx="5900928" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>68592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396640</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C394BE8-1E59-1D4A-B21C-22E9324B7FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11290300" y="43362892"/>
+          <a:ext cx="5959240" cy="4020808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD09DAC6-497D-FA4C-82A7-1560147FE14C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11569700" y="48310800"/>
+          <a:ext cx="5575300" cy="3505200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3633,12 +3836,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="52.6640625" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="15"/>
+    <col min="1" max="1" width="3.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="21" customFormat="1">
@@ -3813,22 +4016,22 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="D118" sqref="D118:D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="29" customWidth="1"/>
     <col min="3" max="3" width="46" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="29" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="29" customWidth="1"/>
     <col min="7" max="7" width="45" style="29" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="44.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="44.7109375" style="29" customWidth="1"/>
     <col min="10" max="10" width="3" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="29"/>
+    <col min="11" max="16384" width="10.7109375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3838,28 +4041,28 @@
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="231" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="233"/>
+      <c r="B2" s="241" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="243"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="236"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="246"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="39" customHeight="1">
-      <c r="B4" s="237"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="239"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
     </row>
@@ -3993,7 +4196,7 @@
       <c r="A13" s="36"/>
       <c r="B13" s="144"/>
       <c r="C13" s="145" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>4</v>
@@ -4016,7 +4219,7 @@
       <c r="A14" s="36"/>
       <c r="B14" s="144"/>
       <c r="C14" s="122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>4</v>
@@ -4039,7 +4242,7 @@
       <c r="A15" s="36"/>
       <c r="B15" s="144"/>
       <c r="C15" s="122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>4</v>
@@ -4062,7 +4265,7 @@
       <c r="A16" s="36"/>
       <c r="B16" s="144"/>
       <c r="C16" s="122" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>4</v>
@@ -4085,14 +4288,14 @@
       <c r="A17" s="36"/>
       <c r="B17" s="144"/>
       <c r="C17" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="112">
         <f>'Research data'!E13</f>
-        <v>3.25</v>
+        <v>2.3233333333333333</v>
       </c>
       <c r="F17" s="97"/>
       <c r="G17" s="97"/>
@@ -4108,14 +4311,14 @@
       <c r="A18" s="36"/>
       <c r="B18" s="144"/>
       <c r="C18" s="145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="112">
         <f>'Research data'!E14</f>
-        <v>1.2944983818770229E-3</v>
+        <v>1.8327326043130307E-3</v>
       </c>
       <c r="F18" s="97"/>
       <c r="G18" s="97"/>
@@ -4131,7 +4334,7 @@
       <c r="A19" s="36"/>
       <c r="B19" s="144"/>
       <c r="C19" s="145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>4</v>
@@ -4154,14 +4357,14 @@
       <c r="A20" s="36"/>
       <c r="B20" s="144"/>
       <c r="C20" s="145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="112">
         <f>'Research data'!E16</f>
-        <v>1</v>
+        <v>2.6002380221130221</v>
       </c>
       <c r="F20" s="97"/>
       <c r="G20" s="97"/>
@@ -4177,14 +4380,14 @@
       <c r="A21" s="36"/>
       <c r="B21" s="144"/>
       <c r="C21" s="145" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="112">
         <f>'Research data'!E17</f>
-        <v>8.7499999999999994E-2</v>
+        <v>5.7833333333333327E-2</v>
       </c>
       <c r="F21" s="97"/>
       <c r="G21" s="97"/>
@@ -4200,10 +4403,10 @@
       <c r="A22" s="36"/>
       <c r="B22" s="144"/>
       <c r="C22" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="E22" s="112">
         <f>'Research data'!E18</f>
@@ -4272,7 +4475,7 @@
         <v>87</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="98">
         <f>'Research data'!E21</f>
@@ -4359,7 +4562,7 @@
     <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="B29" s="144"/>
       <c r="C29" s="111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>58</v>
@@ -4370,7 +4573,7 @@
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="110" t="str">
@@ -4437,7 +4640,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="98">
-        <f>'Research data'!E33</f>
+        <f>'Research data'!E29</f>
         <v>3819</v>
       </c>
       <c r="F33" s="28"/>
@@ -4446,7 +4649,7 @@
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="110" t="str">
-        <f>LOOKUP(E33,'Research data'!G33:S33,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E33,'Research data'!G29:S29,'Research data'!G$3:S$3)</f>
         <v>Vesta</v>
       </c>
       <c r="J33" s="84"/>
@@ -4460,7 +4663,7 @@
         <v>28</v>
       </c>
       <c r="E34" s="98">
-        <f>'Research data'!E34</f>
+        <f>'Research data'!E30</f>
         <v>0</v>
       </c>
       <c r="F34" s="28"/>
@@ -4469,7 +4672,7 @@
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="110" t="str">
-        <f>LOOKUP(E34,'Research data'!G34:S34,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E34,'Research data'!G30:S30,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J34" s="84"/>
@@ -4483,7 +4686,7 @@
         <v>28</v>
       </c>
       <c r="E35" s="142">
-        <f>'Research data'!E35</f>
+        <f>'Research data'!E31</f>
         <v>0</v>
       </c>
       <c r="F35" s="28"/>
@@ -4492,7 +4695,7 @@
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="110" t="e">
-        <f>LOOKUP(E35,'Research data'!G35:S35,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E35,'Research data'!G31:S31,'Research data'!G$3:S$3)</f>
         <v>#N/A</v>
       </c>
       <c r="J35" s="84"/>
@@ -4506,16 +4709,16 @@
         <v>28</v>
       </c>
       <c r="E36" s="98">
-        <f>'Research data'!E36</f>
+        <f>'Research data'!E32</f>
         <v>0</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="110" t="str">
-        <f>LOOKUP(E36,'Research data'!G36:S36,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E36,'Research data'!G32:S32,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J36" s="84"/>
@@ -4529,7 +4732,7 @@
         <v>47</v>
       </c>
       <c r="E37" s="142">
-        <f>'Research data'!E37</f>
+        <f>'Research data'!E33</f>
         <v>200</v>
       </c>
       <c r="F37" s="28"/>
@@ -4552,7 +4755,7 @@
         <v>46</v>
       </c>
       <c r="E38" s="98">
-        <f>'Research data'!E38</f>
+        <f>'Research data'!E34</f>
         <v>0</v>
       </c>
       <c r="F38" s="28"/>
@@ -4561,7 +4764,7 @@
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="110" t="str">
-        <f>LOOKUP(E38,'Research data'!G38:S38,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E38,'Research data'!G34:S34,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J38" s="84"/>
@@ -4575,7 +4778,7 @@
         <v>46</v>
       </c>
       <c r="E39" s="98">
-        <f>'Research data'!E39</f>
+        <f>'Research data'!E35</f>
         <v>0</v>
       </c>
       <c r="F39" s="28"/>
@@ -4584,7 +4787,7 @@
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="110" t="str">
-        <f>LOOKUP(E39,'Research data'!G39:S39,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E39,'Research data'!G35:S35,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J39" s="84"/>
@@ -4605,8 +4808,8 @@
         <v>21</v>
       </c>
       <c r="H40" s="28"/>
-      <c r="I40" s="227" t="s">
-        <v>233</v>
+      <c r="I40" s="224" t="s">
+        <v>226</v>
       </c>
       <c r="J40" s="84"/>
     </row>
@@ -4619,14 +4822,14 @@
         <v>9</v>
       </c>
       <c r="E41" s="98">
-        <f>'Research data'!E41</f>
+        <f>'Research data'!E37</f>
         <v>0</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="110" t="str">
-        <f>LOOKUP(E41,'Research data'!G41:S41,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E41,'Research data'!G37:S37,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J41" s="84"/>
@@ -4634,13 +4837,13 @@
     <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="146"/>
       <c r="C42" s="122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E42" s="142">
-        <f>'Research data'!E42</f>
+        <f>'Research data'!E38</f>
         <v>154736.84210526317</v>
       </c>
       <c r="F42" s="28"/>
@@ -4685,7 +4888,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="98">
-        <f>'Research data'!E45</f>
+        <f>'Research data'!E41</f>
         <v>0</v>
       </c>
       <c r="F45" s="28"/>
@@ -4694,7 +4897,7 @@
       </c>
       <c r="H45" s="28"/>
       <c r="I45" s="110" t="str">
-        <f>LOOKUP(E45,'Research data'!G45:S45,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E45,'Research data'!G41:S41,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J45" s="84"/>
@@ -4708,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="98">
-        <f>'Research data'!E46</f>
+        <f>'Research data'!E42</f>
         <v>0</v>
       </c>
       <c r="F46" s="28"/>
@@ -4717,7 +4920,7 @@
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="110" t="str">
-        <f>LOOKUP(E46,'Research data'!G46:S46,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E46,'Research data'!G42:S42,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J46" s="84"/>
@@ -4731,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="98">
-        <f>'Research data'!E47</f>
+        <f>'Research data'!E43</f>
         <v>15</v>
       </c>
       <c r="F47" s="28"/>
@@ -4740,7 +4943,7 @@
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="110" t="str">
-        <f>LOOKUP(E47,'Research data'!G47:S47,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E47,'Research data'!G43:S43,'Research data'!G$3:S$3)</f>
         <v>DHPA</v>
       </c>
       <c r="J47" s="84"/>
@@ -4754,14 +4957,14 @@
         <v>4</v>
       </c>
       <c r="E48" s="98">
-        <f>'Research data'!E48</f>
+        <f>'Research data'!E44</f>
         <v>0</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="110" t="str">
-        <f>LOOKUP(E48,'Research data'!G48:S48,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E48,'Research data'!G44:S44,'Research data'!G$3:S$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J48" s="84"/>
@@ -4794,33 +4997,33 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="53" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="53" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="53" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="54" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="54" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="54" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="54" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="54" customWidth="1"/>
-    <col min="20" max="20" width="97.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.6640625" style="53"/>
+    <col min="11" max="11" width="7.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="54" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="54" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" style="54" customWidth="1"/>
+    <col min="20" max="20" width="97.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="17" thickBot="1"/>
@@ -4902,7 +5105,7 @@
         <v>Nefit</v>
       </c>
       <c r="R3" s="51" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="148" t="s">
@@ -4955,20 +5158,20 @@
     </row>
     <row r="6" spans="2:20" ht="17" thickBot="1">
       <c r="B6" s="58"/>
-      <c r="C6" s="97" t="str">
+      <c r="C6" s="238" t="str">
         <f>Dashboard!C10</f>
         <v>input.ambient_heat</v>
       </c>
-      <c r="D6" s="97" t="str">
+      <c r="D6" s="238" t="str">
         <f>Dashboard!D10</f>
         <v>-</v>
       </c>
-      <c r="E6" s="156">
+      <c r="E6" s="239">
         <f>G6</f>
         <v>0.63239875389408096</v>
       </c>
-      <c r="F6" s="157"/>
-      <c r="G6" s="156">
+      <c r="F6" s="240"/>
+      <c r="G6" s="239">
         <f>Notes!E92</f>
         <v>0.63239875389408096</v>
       </c>
@@ -4984,26 +5187,26 @@
       <c r="Q6" s="158"/>
       <c r="R6" s="158"/>
       <c r="S6" s="158"/>
-      <c r="T6" s="149" t="s">
-        <v>151</v>
+      <c r="T6" s="237" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="17" thickBot="1">
       <c r="B7" s="58"/>
-      <c r="C7" s="97" t="str">
+      <c r="C7" s="238" t="str">
         <f>Dashboard!C11</f>
         <v>input.electricity</v>
       </c>
-      <c r="D7" s="97" t="str">
+      <c r="D7" s="238" t="str">
         <f>Dashboard!D11</f>
         <v>-</v>
       </c>
-      <c r="E7" s="156">
+      <c r="E7" s="239">
         <f t="shared" ref="E7" si="0">G7</f>
         <v>0.18068535825545171</v>
       </c>
       <c r="F7" s="159"/>
-      <c r="G7" s="156">
+      <c r="G7" s="239">
         <f>Notes!E93</f>
         <v>0.18068535825545171</v>
       </c>
@@ -5019,26 +5222,26 @@
       <c r="Q7" s="158"/>
       <c r="R7" s="158"/>
       <c r="S7" s="160"/>
-      <c r="T7" s="149" t="s">
-        <v>151</v>
+      <c r="T7" s="237" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="17" thickBot="1">
       <c r="B8" s="58"/>
-      <c r="C8" s="97" t="str">
+      <c r="C8" s="238" t="str">
         <f>Dashboard!C12</f>
         <v>input.network_gas</v>
       </c>
-      <c r="D8" s="97" t="str">
+      <c r="D8" s="238" t="str">
         <f>Dashboard!D12</f>
         <v>-</v>
       </c>
-      <c r="E8" s="156">
+      <c r="E8" s="239">
         <f>G8</f>
         <v>0.18691588785046728</v>
       </c>
       <c r="F8" s="159"/>
-      <c r="G8" s="156">
+      <c r="G8" s="239">
         <f>Notes!E49</f>
         <v>0.18691588785046728</v>
       </c>
@@ -5054,8 +5257,8 @@
       <c r="Q8" s="158"/>
       <c r="R8" s="158"/>
       <c r="S8" s="160"/>
-      <c r="T8" s="149" t="s">
-        <v>151</v>
+      <c r="T8" s="237" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="17" thickBot="1">
@@ -5089,7 +5292,7 @@
       <c r="R9" s="160"/>
       <c r="S9" s="160"/>
       <c r="T9" s="149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="17" thickBot="1">
@@ -5190,7 +5393,7 @@
       <c r="R12" s="164"/>
       <c r="S12" s="164"/>
       <c r="T12" s="149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="17" thickBot="1">
@@ -5205,7 +5408,7 @@
       </c>
       <c r="E13" s="163">
         <f>L13</f>
-        <v>3.25</v>
+        <v>2.3233333333333333</v>
       </c>
       <c r="F13" s="157"/>
       <c r="G13" s="166"/>
@@ -5214,8 +5417,8 @@
       <c r="J13" s="164"/>
       <c r="K13" s="164"/>
       <c r="L13" s="167">
-        <f>Notes!E226</f>
-        <v>3.25</v>
+        <f>Notes!E249</f>
+        <v>2.3233333333333333</v>
       </c>
       <c r="M13" s="164"/>
       <c r="N13" s="164"/>
@@ -5238,7 +5441,7 @@
       </c>
       <c r="E14" s="163">
         <f>L14</f>
-        <v>1.2944983818770229E-3</v>
+        <v>1.8327326043130307E-3</v>
       </c>
       <c r="F14" s="157"/>
       <c r="G14" s="166"/>
@@ -5247,8 +5450,8 @@
       <c r="J14" s="164"/>
       <c r="K14" s="164"/>
       <c r="L14" s="168">
-        <f>Notes!E248</f>
-        <v>1.2944983818770229E-3</v>
+        <f>Notes!E267</f>
+        <v>1.8327326043130307E-3</v>
       </c>
       <c r="M14" s="164"/>
       <c r="N14" s="164"/>
@@ -5275,7 +5478,7 @@
       </c>
       <c r="F15" s="157"/>
       <c r="G15" s="165">
-        <f>Notes!F216</f>
+        <f>Notes!F236</f>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H15" s="169"/>
@@ -5304,12 +5507,12 @@
       </c>
       <c r="E16" s="163">
         <f>G16</f>
-        <v>1</v>
+        <v>2.6002380221130221</v>
       </c>
       <c r="F16" s="157"/>
       <c r="G16" s="165">
         <f>Notes!F214</f>
-        <v>1</v>
+        <v>2.6002380221130221</v>
       </c>
       <c r="H16" s="169"/>
       <c r="I16" s="164"/>
@@ -5325,7 +5528,7 @@
       <c r="S16" s="164"/>
       <c r="T16" s="149"/>
     </row>
-    <row r="17" spans="2:20" ht="17" thickBot="1">
+    <row r="17" spans="1:20" ht="17" thickBot="1">
       <c r="B17" s="58"/>
       <c r="C17" s="97" t="str">
         <f>Dashboard!C21</f>
@@ -5337,7 +5540,7 @@
       </c>
       <c r="E17" s="163">
         <f>L17</f>
-        <v>8.7499999999999994E-2</v>
+        <v>5.7833333333333327E-2</v>
       </c>
       <c r="F17" s="157"/>
       <c r="G17" s="164"/>
@@ -5346,8 +5549,8 @@
       <c r="J17" s="164"/>
       <c r="K17" s="164"/>
       <c r="L17" s="165">
-        <f>Notes!E227</f>
-        <v>8.7499999999999994E-2</v>
+        <f>Notes!E250</f>
+        <v>5.7833333333333327E-2</v>
       </c>
       <c r="M17" s="164"/>
       <c r="N17" s="164"/>
@@ -5358,7 +5561,7 @@
       <c r="S17" s="164"/>
       <c r="T17" s="149"/>
     </row>
-    <row r="18" spans="2:20" ht="17" thickBot="1">
+    <row r="18" spans="1:20" ht="17" thickBot="1">
       <c r="B18" s="58"/>
       <c r="C18" s="97" t="str">
         <f>Dashboard!C22</f>
@@ -5383,15 +5586,15 @@
       <c r="K18" s="164"/>
       <c r="L18" s="164"/>
       <c r="M18" s="168">
-        <f>Notes!E265</f>
+        <f>Notes!E284</f>
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="N18" s="161">
-        <f>Notes!E250</f>
+        <f>Notes!E269</f>
         <v>0</v>
       </c>
       <c r="O18" s="168">
-        <f>Notes!E273</f>
+        <f>Notes!E292</f>
         <v>3.3E-3</v>
       </c>
       <c r="P18" s="164"/>
@@ -5400,7 +5603,7 @@
       <c r="S18" s="164"/>
       <c r="T18" s="149"/>
     </row>
-    <row r="19" spans="2:20" ht="17" thickBot="1">
+    <row r="19" spans="1:20" ht="17" thickBot="1">
       <c r="B19" s="58"/>
       <c r="C19" s="97" t="str">
         <f>Dashboard!C23</f>
@@ -5434,7 +5637,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="17" thickBot="1">
+    <row r="20" spans="1:20" ht="17" thickBot="1">
       <c r="B20" s="58"/>
       <c r="C20" s="97" t="str">
         <f>Dashboard!C24</f>
@@ -5468,7 +5671,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="17" thickBot="1">
+    <row r="21" spans="1:20" ht="17" thickBot="1">
       <c r="B21" s="58"/>
       <c r="C21" s="97" t="str">
         <f>Dashboard!C25</f>
@@ -5502,7 +5705,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="17" thickBot="1">
+    <row r="22" spans="1:20" ht="17" thickBot="1">
       <c r="B22" s="58"/>
       <c r="C22" s="97" t="str">
         <f>Dashboard!C26</f>
@@ -5536,7 +5739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="17" thickBot="1">
+    <row r="23" spans="1:20" ht="17" thickBot="1">
       <c r="B23" s="58"/>
       <c r="C23" s="97" t="str">
         <f>Dashboard!C27</f>
@@ -5570,7 +5773,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="17" thickBot="1">
+    <row r="24" spans="1:20" ht="17" thickBot="1">
       <c r="B24" s="58"/>
       <c r="C24" s="97" t="str">
         <f>Dashboard!C28</f>
@@ -5604,7 +5807,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="17" thickBot="1">
+    <row r="25" spans="1:20" ht="17" thickBot="1">
       <c r="B25" s="58"/>
       <c r="C25" s="97" t="str">
         <f>Dashboard!C29</f>
@@ -5637,7 +5840,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="17" thickBot="1">
+    <row r="26" spans="1:20" ht="17" thickBot="1">
       <c r="B26" s="58"/>
       <c r="C26" s="97" t="str">
         <f>Dashboard!C30</f>
@@ -5669,99 +5872,75 @@
       <c r="R26" s="173"/>
       <c r="S26" s="166"/>
       <c r="T26" s="149" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" ht="17" thickBot="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="B27" s="58"/>
-      <c r="C27" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="174">
-        <f>G27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="170"/>
-      <c r="G27" s="161">
-        <f>I27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="164"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="166"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="166"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="149" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" ht="17" thickBot="1">
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="149"/>
+    </row>
+    <row r="28" spans="1:20" ht="17" thickBot="1">
       <c r="B28" s="58"/>
-      <c r="C28" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="174">
-        <f>G28</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="170"/>
-      <c r="G28" s="161">
-        <f>I28</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="164"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="166"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="149" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" ht="17" thickBot="1">
-      <c r="B29" s="58"/>
-      <c r="C29" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E29" s="174">
-        <f>G29</f>
-        <v>1</v>
+      <c r="C28" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="149"/>
+    </row>
+    <row r="29" spans="1:20" ht="17" thickBot="1">
+      <c r="A29" s="102"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="97" t="str">
+        <f>Dashboard!C33</f>
+        <v>initial_investment</v>
+      </c>
+      <c r="D29" s="97" t="str">
+        <f>Dashboard!D33</f>
+        <v>euro</v>
+      </c>
+      <c r="E29" s="161">
+        <f>R29</f>
+        <v>3819</v>
       </c>
       <c r="F29" s="170"/>
-      <c r="G29" s="161">
-        <v>1</v>
-      </c>
-      <c r="H29" s="164"/>
-      <c r="I29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="174">
+        <f>Notes!E183</f>
+        <v>4135</v>
+      </c>
       <c r="J29" s="166"/>
       <c r="K29" s="166"/>
       <c r="L29" s="166"/>
@@ -5770,29 +5949,34 @@
       <c r="O29" s="166"/>
       <c r="P29" s="166"/>
       <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
+      <c r="R29" s="174">
+        <f>Notes!E331</f>
+        <v>3819</v>
+      </c>
       <c r="S29" s="166"/>
       <c r="T29" s="149" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" ht="17" thickBot="1">
-      <c r="B30" s="58"/>
-      <c r="C30" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E30" s="174">
-        <f>G30</f>
-        <v>1</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="17" thickBot="1">
+      <c r="A30" s="102"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="97" t="str">
+        <f>Dashboard!C34</f>
+        <v>ccs_investment</v>
+      </c>
+      <c r="D30" s="97" t="str">
+        <f>Dashboard!D34</f>
+        <v>euro</v>
+      </c>
+      <c r="E30" s="161">
+        <f t="shared" ref="E30:E37" si="2">G30</f>
+        <v>0</v>
       </c>
       <c r="F30" s="170"/>
       <c r="G30" s="161">
-        <v>1</v>
+        <f>I30</f>
+        <v>0</v>
       </c>
       <c r="H30" s="164"/>
       <c r="I30" s="166"/>
@@ -5807,105 +5991,135 @@
       <c r="R30" s="166"/>
       <c r="S30" s="166"/>
       <c r="T30" s="149" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="B31" s="58"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="150"/>
-      <c r="P31" s="150"/>
-      <c r="Q31" s="150"/>
-      <c r="R31" s="150"/>
-      <c r="S31" s="150"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="17" thickBot="1">
+      <c r="A31" s="102"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="97" t="str">
+        <f>Dashboard!C35</f>
+        <v>cost_of_installing</v>
+      </c>
+      <c r="D31" s="97" t="str">
+        <f>Dashboard!D35</f>
+        <v>euro</v>
+      </c>
+      <c r="E31" s="175">
+        <f>R31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="170"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="174">
+        <f>Notes!E172</f>
+        <v>600</v>
+      </c>
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="176">
+        <f>Notes!E261</f>
+        <v>1000</v>
+      </c>
+      <c r="O31" s="177"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="174">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="166"/>
       <c r="T31" s="149"/>
     </row>
-    <row r="32" spans="2:20" ht="17" thickBot="1">
-      <c r="B32" s="58"/>
-      <c r="C32" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="150"/>
-      <c r="P32" s="150"/>
-      <c r="Q32" s="150"/>
-      <c r="R32" s="150"/>
-      <c r="S32" s="150"/>
-      <c r="T32" s="149"/>
+    <row r="32" spans="1:20" ht="17" thickBot="1">
+      <c r="A32" s="102"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="97" t="str">
+        <f>Dashboard!C36</f>
+        <v>decommissioning_costs</v>
+      </c>
+      <c r="D32" s="97" t="str">
+        <f>Dashboard!D36</f>
+        <v>euro</v>
+      </c>
+      <c r="E32" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="170"/>
+      <c r="G32" s="161">
+        <f>I32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="164"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="166"/>
+      <c r="R32" s="166"/>
+      <c r="S32" s="166"/>
+      <c r="T32" s="149" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="33" spans="1:20" ht="17" thickBot="1">
       <c r="A33" s="102"/>
       <c r="B33" s="103"/>
       <c r="C33" s="97" t="str">
-        <f>Dashboard!C33</f>
-        <v>initial_investment</v>
+        <f>Dashboard!C37</f>
+        <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
       <c r="D33" s="97" t="str">
-        <f>Dashboard!D33</f>
-        <v>euro</v>
-      </c>
-      <c r="E33" s="161">
-        <f>R33</f>
-        <v>3819</v>
+        <f>Dashboard!D37</f>
+        <v>euro/year</v>
+      </c>
+      <c r="E33" s="175">
+        <f>N33</f>
+        <v>200</v>
       </c>
       <c r="F33" s="170"/>
       <c r="G33" s="166"/>
       <c r="H33" s="166"/>
-      <c r="I33" s="175">
-        <f>Notes!E183</f>
-        <v>4135</v>
-      </c>
+      <c r="I33" s="166"/>
       <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="175">
-        <f>Notes!E312</f>
-        <v>3819</v>
-      </c>
+      <c r="K33" s="168">
+        <f>Notes!E209</f>
+        <v>252.89256198347107</v>
+      </c>
+      <c r="L33" s="173"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="175">
+        <f>Notes!E262</f>
+        <v>200</v>
+      </c>
+      <c r="O33" s="179"/>
+      <c r="P33" s="173"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="173"/>
       <c r="S33" s="166"/>
-      <c r="T33" s="149" t="s">
-        <v>119</v>
-      </c>
+      <c r="T33" s="149"/>
     </row>
     <row r="34" spans="1:20" ht="17" thickBot="1">
       <c r="A34" s="102"/>
       <c r="B34" s="103"/>
       <c r="C34" s="97" t="str">
-        <f>Dashboard!C34</f>
-        <v>ccs_investment</v>
+        <f>Dashboard!C38</f>
+        <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
       </c>
       <c r="D34" s="97" t="str">
-        <f>Dashboard!D34</f>
-        <v>euro</v>
-      </c>
-      <c r="E34" s="161">
-        <f t="shared" ref="E34:E41" si="2">G34</f>
+        <f>Dashboard!D38</f>
+        <v>euro/FLH</v>
+      </c>
+      <c r="E34" s="165">
+        <f>G34</f>
         <v>0</v>
       </c>
       <c r="F34" s="170"/>
@@ -5926,143 +6140,134 @@
       <c r="R34" s="166"/>
       <c r="S34" s="166"/>
       <c r="T34" s="149" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="17" thickBot="1">
       <c r="A35" s="102"/>
       <c r="B35" s="103"/>
       <c r="C35" s="97" t="str">
-        <f>Dashboard!C35</f>
-        <v>cost_of_installing</v>
+        <f>Dashboard!C39</f>
+        <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
       </c>
       <c r="D35" s="97" t="str">
-        <f>Dashboard!D35</f>
-        <v>euro</v>
-      </c>
-      <c r="E35" s="176">
-        <f>R35</f>
+        <f>Dashboard!D39</f>
+        <v>euro/FLH</v>
+      </c>
+      <c r="E35" s="165">
+        <f>G35</f>
         <v>0</v>
       </c>
       <c r="F35" s="170"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="175">
-        <f>Notes!E172</f>
-        <v>600</v>
-      </c>
+      <c r="G35" s="161">
+        <f>I35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="164"/>
+      <c r="I35" s="166"/>
       <c r="J35" s="166"/>
       <c r="K35" s="166"/>
       <c r="L35" s="166"/>
       <c r="M35" s="166"/>
-      <c r="N35" s="177">
-        <f>Notes!E238</f>
-        <v>1000</v>
-      </c>
-      <c r="O35" s="178"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="166"/>
       <c r="P35" s="166"/>
       <c r="Q35" s="166"/>
-      <c r="R35" s="175">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="R35" s="166"/>
       <c r="S35" s="166"/>
-      <c r="T35" s="149"/>
+      <c r="T35" s="149" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="17" thickBot="1">
       <c r="A36" s="102"/>
       <c r="B36" s="103"/>
       <c r="C36" s="97" t="str">
-        <f>Dashboard!C36</f>
-        <v>decommissioning_costs</v>
+        <f>Dashboard!C40</f>
+        <v>wacc</v>
       </c>
       <c r="D36" s="97" t="str">
-        <f>Dashboard!D36</f>
-        <v>euro</v>
-      </c>
-      <c r="E36" s="161">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>Dashboard!D40</f>
+        <v>%</v>
+      </c>
+      <c r="E36" s="165">
+        <f>G36</f>
+        <v>0.04</v>
       </c>
       <c r="F36" s="170"/>
-      <c r="G36" s="161">
-        <f>I36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="164"/>
+      <c r="G36" s="165">
+        <v>0.04</v>
+      </c>
+      <c r="H36" s="169"/>
       <c r="I36" s="166"/>
       <c r="J36" s="166"/>
       <c r="K36" s="166"/>
       <c r="L36" s="166"/>
       <c r="M36" s="166"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="178"/>
+      <c r="N36" s="166"/>
+      <c r="O36" s="166"/>
       <c r="P36" s="166"/>
       <c r="Q36" s="166"/>
       <c r="R36" s="166"/>
       <c r="S36" s="166"/>
       <c r="T36" s="149" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="17" thickBot="1">
       <c r="A37" s="102"/>
       <c r="B37" s="103"/>
       <c r="C37" s="97" t="str">
-        <f>Dashboard!C37</f>
-        <v>fixed_operation_and_maintenance_costs_per_year</v>
+        <f>Dashboard!C41</f>
+        <v>takes_part_in_ets</v>
       </c>
       <c r="D37" s="97" t="str">
-        <f>Dashboard!D37</f>
-        <v>euro/year</v>
-      </c>
-      <c r="E37" s="176">
-        <f>N37</f>
-        <v>200</v>
+        <f>Dashboard!D41</f>
+        <v>yes=1, no=0</v>
+      </c>
+      <c r="E37" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F37" s="170"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
+      <c r="G37" s="161">
+        <f>I37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="164"/>
       <c r="I37" s="166"/>
       <c r="J37" s="166"/>
-      <c r="K37" s="168">
-        <f>Notes!E209</f>
-        <v>252.89256198347107</v>
-      </c>
-      <c r="L37" s="173"/>
-      <c r="M37" s="173"/>
-      <c r="N37" s="176">
-        <f>Notes!E239</f>
-        <v>200</v>
-      </c>
-      <c r="O37" s="180"/>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="173"/>
-      <c r="R37" s="173"/>
+      <c r="K37" s="166"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="166"/>
+      <c r="O37" s="166"/>
+      <c r="P37" s="166"/>
+      <c r="Q37" s="166"/>
+      <c r="R37" s="166"/>
       <c r="S37" s="166"/>
-      <c r="T37" s="149"/>
+      <c r="T37" s="149" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="17" thickBot="1">
       <c r="A38" s="102"/>
       <c r="B38" s="103"/>
       <c r="C38" s="97" t="str">
-        <f>Dashboard!C38</f>
-        <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
+        <f>Dashboard!C42</f>
+        <v>storage.cost_per_mwh</v>
       </c>
       <c r="D38" s="97" t="str">
-        <f>Dashboard!D38</f>
-        <v>euro/FLH</v>
-      </c>
-      <c r="E38" s="165">
-        <f>G38</f>
-        <v>0</v>
+        <f>Dashboard!D42</f>
+        <v>euro/MWh</v>
+      </c>
+      <c r="E38" s="161">
+        <f>Q38</f>
+        <v>154736.84210526317</v>
       </c>
       <c r="F38" s="170"/>
-      <c r="G38" s="161">
-        <f>I38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="164"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
       <c r="I38" s="166"/>
       <c r="J38" s="166"/>
       <c r="K38" s="166"/>
@@ -6070,98 +6275,77 @@
       <c r="M38" s="166"/>
       <c r="N38" s="166"/>
       <c r="O38" s="166"/>
-      <c r="P38" s="166"/>
-      <c r="Q38" s="166"/>
-      <c r="R38" s="166"/>
+      <c r="P38" s="223">
+        <f>Notes!E315</f>
+        <v>164988.7302779865</v>
+      </c>
+      <c r="Q38" s="223">
+        <f>Notes!E323</f>
+        <v>154736.84210526317</v>
+      </c>
+      <c r="R38" s="225"/>
       <c r="S38" s="166"/>
-      <c r="T38" s="149" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="17" thickBot="1">
+      <c r="T38" s="149"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="102"/>
       <c r="B39" s="103"/>
-      <c r="C39" s="97" t="str">
-        <f>Dashboard!C39</f>
-        <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
-      </c>
-      <c r="D39" s="97" t="str">
-        <f>Dashboard!D39</f>
-        <v>euro/FLH</v>
-      </c>
-      <c r="E39" s="165">
-        <f>G39</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="170"/>
-      <c r="G39" s="161">
-        <f>I39</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="164"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="166"/>
-      <c r="K39" s="166"/>
-      <c r="L39" s="166"/>
-      <c r="M39" s="166"/>
-      <c r="N39" s="166"/>
-      <c r="O39" s="166"/>
-      <c r="P39" s="166"/>
-      <c r="Q39" s="166"/>
-      <c r="R39" s="166"/>
-      <c r="S39" s="166"/>
-      <c r="T39" s="149" t="s">
-        <v>117</v>
-      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="150"/>
+      <c r="R39" s="150"/>
+      <c r="S39" s="150"/>
+      <c r="T39" s="149"/>
     </row>
     <row r="40" spans="1:20" ht="17" thickBot="1">
       <c r="A40" s="102"/>
       <c r="B40" s="103"/>
-      <c r="C40" s="97" t="str">
-        <f>Dashboard!C40</f>
-        <v>wacc</v>
-      </c>
-      <c r="D40" s="97" t="str">
-        <f>Dashboard!D40</f>
-        <v>%</v>
-      </c>
-      <c r="E40" s="165">
-        <f>G40</f>
-        <v>0.04</v>
-      </c>
-      <c r="F40" s="170"/>
-      <c r="G40" s="165">
-        <v>0.04</v>
-      </c>
-      <c r="H40" s="169"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="166"/>
-      <c r="N40" s="166"/>
-      <c r="O40" s="166"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="166"/>
-      <c r="R40" s="166"/>
-      <c r="S40" s="166"/>
-      <c r="T40" s="149" t="s">
-        <v>116</v>
-      </c>
+      <c r="C40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
+      <c r="N40" s="150"/>
+      <c r="O40" s="150"/>
+      <c r="P40" s="150"/>
+      <c r="Q40" s="150"/>
+      <c r="R40" s="150"/>
+      <c r="S40" s="150"/>
+      <c r="T40" s="149"/>
     </row>
     <row r="41" spans="1:20" ht="17" thickBot="1">
       <c r="A41" s="102"/>
       <c r="B41" s="103"/>
       <c r="C41" s="97" t="str">
-        <f>Dashboard!C41</f>
-        <v>takes_part_in_ets</v>
+        <f>Dashboard!C45</f>
+        <v>land_use_per_unit</v>
       </c>
       <c r="D41" s="97" t="str">
-        <f>Dashboard!D41</f>
-        <v>yes=1, no=0</v>
+        <f>Dashboard!D45</f>
+        <v>km2</v>
       </c>
       <c r="E41" s="161">
-        <f t="shared" si="2"/>
+        <f>G41</f>
         <v>0</v>
       </c>
       <c r="F41" s="170"/>
@@ -6189,20 +6373,23 @@
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
       <c r="C42" s="97" t="str">
-        <f>Dashboard!C42</f>
-        <v>storage.cost_per_mwh</v>
+        <f>Dashboard!C46</f>
+        <v>construction_time</v>
       </c>
       <c r="D42" s="97" t="str">
-        <f>Dashboard!D42</f>
-        <v>euro/MWh</v>
+        <f>Dashboard!D46</f>
+        <v>years</v>
       </c>
       <c r="E42" s="161">
-        <f>Q42</f>
-        <v>154736.84210526317</v>
+        <f>G42</f>
+        <v>0</v>
       </c>
       <c r="F42" s="170"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="166"/>
+      <c r="G42" s="161">
+        <f>I42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="164"/>
       <c r="I42" s="166"/>
       <c r="J42" s="166"/>
       <c r="K42" s="166"/>
@@ -6210,471 +6397,169 @@
       <c r="M42" s="166"/>
       <c r="N42" s="166"/>
       <c r="O42" s="166"/>
-      <c r="P42" s="226">
-        <f>Notes!E296</f>
-        <v>164988.7302779865</v>
-      </c>
-      <c r="Q42" s="226">
-        <f>Notes!E304</f>
-        <v>154736.84210526317</v>
-      </c>
-      <c r="R42" s="228"/>
+      <c r="P42" s="166"/>
+      <c r="Q42" s="166"/>
+      <c r="R42" s="166"/>
       <c r="S42" s="166"/>
-      <c r="T42" s="149"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="T42" s="149" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="17" thickBot="1">
       <c r="A43" s="102"/>
       <c r="B43" s="103"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
-      <c r="N43" s="150"/>
-      <c r="O43" s="150"/>
-      <c r="P43" s="150"/>
-      <c r="Q43" s="150"/>
-      <c r="R43" s="150"/>
-      <c r="S43" s="150"/>
-      <c r="T43" s="149"/>
+      <c r="C43" s="97" t="str">
+        <f>Dashboard!C47</f>
+        <v>technical_lifetime</v>
+      </c>
+      <c r="D43" s="97" t="str">
+        <f>Dashboard!D47</f>
+        <v>years</v>
+      </c>
+      <c r="E43" s="161">
+        <f>N43</f>
+        <v>15</v>
+      </c>
+      <c r="F43" s="170"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
+      <c r="M43" s="166"/>
+      <c r="N43" s="171">
+        <f>Notes!E260</f>
+        <v>15</v>
+      </c>
+      <c r="O43" s="166"/>
+      <c r="P43" s="166"/>
+      <c r="Q43" s="166"/>
+      <c r="R43" s="166"/>
+      <c r="S43" s="166"/>
+      <c r="T43" s="178" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="17" thickBot="1">
       <c r="A44" s="102"/>
       <c r="B44" s="103"/>
-      <c r="C44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="150"/>
-      <c r="N44" s="150"/>
-      <c r="O44" s="150"/>
-      <c r="P44" s="150"/>
-      <c r="Q44" s="150"/>
-      <c r="R44" s="150"/>
-      <c r="S44" s="150"/>
-      <c r="T44" s="149"/>
-    </row>
-    <row r="45" spans="1:20" ht="17" thickBot="1">
-      <c r="A45" s="102"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="97" t="str">
-        <f>Dashboard!C45</f>
-        <v>land_use_per_unit</v>
-      </c>
-      <c r="D45" s="97" t="str">
-        <f>Dashboard!D45</f>
-        <v>km2</v>
-      </c>
-      <c r="E45" s="161">
-        <f>G45</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="170"/>
-      <c r="G45" s="161">
-        <f>I45</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="164"/>
-      <c r="I45" s="166"/>
-      <c r="J45" s="166"/>
-      <c r="K45" s="166"/>
-      <c r="L45" s="166"/>
-      <c r="M45" s="166"/>
-      <c r="N45" s="166"/>
-      <c r="O45" s="166"/>
-      <c r="P45" s="166"/>
-      <c r="Q45" s="166"/>
-      <c r="R45" s="166"/>
-      <c r="S45" s="166"/>
-      <c r="T45" s="149" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="17" thickBot="1">
-      <c r="A46" s="102"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="97" t="str">
-        <f>Dashboard!C46</f>
-        <v>construction_time</v>
-      </c>
-      <c r="D46" s="97" t="str">
-        <f>Dashboard!D46</f>
-        <v>years</v>
-      </c>
-      <c r="E46" s="161">
-        <f>G46</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="170"/>
-      <c r="G46" s="161">
-        <f>I46</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="164"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="166"/>
-      <c r="P46" s="166"/>
-      <c r="Q46" s="166"/>
-      <c r="R46" s="166"/>
-      <c r="S46" s="166"/>
-      <c r="T46" s="149" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="17" thickBot="1">
-      <c r="A47" s="102"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="97" t="str">
-        <f>Dashboard!C47</f>
-        <v>technical_lifetime</v>
-      </c>
-      <c r="D47" s="97" t="str">
-        <f>Dashboard!D47</f>
-        <v>years</v>
-      </c>
-      <c r="E47" s="161">
-        <f>N47</f>
-        <v>15</v>
-      </c>
-      <c r="F47" s="170"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="166"/>
-      <c r="L47" s="166"/>
-      <c r="M47" s="166"/>
-      <c r="N47" s="171">
-        <f>Notes!E237</f>
-        <v>15</v>
-      </c>
-      <c r="O47" s="166"/>
-      <c r="P47" s="166"/>
-      <c r="Q47" s="166"/>
-      <c r="R47" s="166"/>
-      <c r="S47" s="166"/>
-      <c r="T47" s="179" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="17" thickBot="1">
-      <c r="A48" s="102"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="97" t="str">
+      <c r="C44" s="97" t="str">
         <f>Dashboard!C48</f>
         <v>free_co2_factor</v>
       </c>
-      <c r="D48" s="97" t="str">
+      <c r="D44" s="97" t="str">
         <f>Dashboard!D48</f>
         <v>-</v>
       </c>
-      <c r="E48" s="161">
-        <f t="shared" ref="E48:E53" si="3">G48</f>
+      <c r="E44" s="161">
+        <f t="shared" ref="E44" si="3">G44</f>
         <v>0</v>
       </c>
-      <c r="F48" s="170"/>
-      <c r="G48" s="161">
-        <f>I48</f>
+      <c r="F44" s="170"/>
+      <c r="G44" s="161">
+        <f>I44</f>
         <v>0</v>
       </c>
-      <c r="H48" s="164"/>
-      <c r="I48" s="166"/>
-      <c r="J48" s="166"/>
-      <c r="K48" s="166"/>
-      <c r="L48" s="166"/>
-      <c r="M48" s="166"/>
-      <c r="N48" s="166"/>
-      <c r="O48" s="166"/>
-      <c r="P48" s="166"/>
-      <c r="Q48" s="166"/>
-      <c r="R48" s="166"/>
-      <c r="S48" s="166"/>
-      <c r="T48" s="149" t="s">
+      <c r="H44" s="164"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
+      <c r="N44" s="166"/>
+      <c r="O44" s="166"/>
+      <c r="P44" s="166"/>
+      <c r="Q44" s="166"/>
+      <c r="R44" s="166"/>
+      <c r="S44" s="166"/>
+      <c r="T44" s="149" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="17" thickBot="1">
-      <c r="A49" s="102"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D49" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E49" s="161">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="170"/>
-      <c r="G49" s="176">
-        <f>I49</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="180"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="166"/>
-      <c r="L49" s="166"/>
-      <c r="M49" s="166"/>
-      <c r="N49" s="166"/>
-      <c r="O49" s="166"/>
-      <c r="P49" s="166"/>
-      <c r="Q49" s="166"/>
-      <c r="R49" s="166"/>
-      <c r="S49" s="166"/>
-      <c r="T49" s="149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="17" thickBot="1">
-      <c r="A50" s="102"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D50" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E50" s="161">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="170"/>
-      <c r="G50" s="176">
-        <f>I50</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="180"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="166"/>
-      <c r="K50" s="166"/>
-      <c r="L50" s="166"/>
-      <c r="M50" s="166"/>
-      <c r="N50" s="166"/>
-      <c r="O50" s="166"/>
-      <c r="P50" s="166"/>
-      <c r="Q50" s="166"/>
-      <c r="R50" s="166"/>
-      <c r="S50" s="166"/>
-      <c r="T50" s="149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="17" thickBot="1">
-      <c r="A51" s="102"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D51" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E51" s="176">
-        <f t="shared" si="3"/>
-        <v>11.5</v>
-      </c>
-      <c r="F51" s="170"/>
-      <c r="G51" s="181">
-        <f>4.5+7</f>
-        <v>11.5</v>
-      </c>
-      <c r="H51" s="182"/>
-      <c r="I51" s="166"/>
-      <c r="J51" s="166"/>
-      <c r="K51" s="166"/>
-      <c r="L51" s="166"/>
-      <c r="M51" s="166"/>
-      <c r="N51" s="166"/>
-      <c r="O51" s="166"/>
-      <c r="P51" s="166"/>
-      <c r="Q51" s="166"/>
-      <c r="R51" s="166"/>
-      <c r="S51" s="166"/>
-      <c r="T51" s="149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="17" thickBot="1">
-      <c r="A52" s="102"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D52" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E52" s="176">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F52" s="170"/>
-      <c r="G52" s="176">
-        <f>1.5+0.5</f>
-        <v>2</v>
-      </c>
-      <c r="H52" s="180"/>
-      <c r="I52" s="166"/>
-      <c r="J52" s="166"/>
-      <c r="K52" s="166"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="166"/>
-      <c r="N52" s="166"/>
-      <c r="O52" s="166"/>
-      <c r="P52" s="166"/>
-      <c r="Q52" s="166"/>
-      <c r="R52" s="166"/>
-      <c r="S52" s="166"/>
-      <c r="T52" s="149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="17" thickBot="1">
-      <c r="A53" s="102"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D53" s="97" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E53" s="176">
-        <f t="shared" si="3"/>
-        <v>11.5</v>
-      </c>
-      <c r="F53" s="170"/>
-      <c r="G53" s="176">
-        <f>7+4.5</f>
-        <v>11.5</v>
-      </c>
-      <c r="H53" s="180"/>
-      <c r="I53" s="166"/>
-      <c r="J53" s="166"/>
-      <c r="K53" s="166"/>
-      <c r="L53" s="166"/>
-      <c r="M53" s="166"/>
-      <c r="N53" s="166"/>
-      <c r="O53" s="166"/>
-      <c r="P53" s="166"/>
-      <c r="Q53" s="166"/>
-      <c r="R53" s="166"/>
-      <c r="S53" s="166"/>
-      <c r="T53" s="149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="B54" s="58"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="150"/>
-      <c r="L54" s="150"/>
-      <c r="M54" s="150"/>
-      <c r="N54" s="150"/>
-      <c r="O54" s="150"/>
-      <c r="P54" s="150"/>
-      <c r="Q54" s="150"/>
-      <c r="R54" s="150"/>
-      <c r="S54" s="150"/>
-      <c r="T54" s="151"/>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="B55" s="58"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="150"/>
-      <c r="K55" s="150"/>
-      <c r="L55" s="150"/>
-      <c r="M55" s="150"/>
-      <c r="N55" s="150"/>
-      <c r="O55" s="150"/>
-      <c r="P55" s="150"/>
-      <c r="Q55" s="150"/>
-      <c r="R55" s="150"/>
-      <c r="S55" s="150"/>
-      <c r="T55" s="151"/>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="B56" s="58"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="150"/>
-      <c r="N56" s="150"/>
-      <c r="O56" s="150"/>
-      <c r="P56" s="150"/>
-      <c r="Q56" s="150"/>
-      <c r="R56" s="150"/>
-      <c r="S56" s="150"/>
-      <c r="T56" s="151"/>
-    </row>
-    <row r="57" spans="1:20" ht="17" thickBot="1">
-      <c r="B57" s="152"/>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="154"/>
-      <c r="H57" s="154"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="154"/>
-      <c r="K57" s="154"/>
-      <c r="L57" s="154"/>
-      <c r="M57" s="154"/>
-      <c r="N57" s="154"/>
-      <c r="O57" s="154"/>
-      <c r="P57" s="154"/>
-      <c r="Q57" s="154"/>
-      <c r="R57" s="154"/>
-      <c r="S57" s="154"/>
-      <c r="T57" s="155"/>
+    <row r="45" spans="1:20">
+      <c r="B45" s="58"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="150"/>
+      <c r="K45" s="150"/>
+      <c r="L45" s="150"/>
+      <c r="M45" s="150"/>
+      <c r="N45" s="150"/>
+      <c r="O45" s="150"/>
+      <c r="P45" s="150"/>
+      <c r="Q45" s="150"/>
+      <c r="R45" s="150"/>
+      <c r="S45" s="150"/>
+      <c r="T45" s="151"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="B46" s="58"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="150"/>
+      <c r="K46" s="150"/>
+      <c r="L46" s="150"/>
+      <c r="M46" s="150"/>
+      <c r="N46" s="150"/>
+      <c r="O46" s="150"/>
+      <c r="P46" s="150"/>
+      <c r="Q46" s="150"/>
+      <c r="R46" s="150"/>
+      <c r="S46" s="150"/>
+      <c r="T46" s="151"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="B47" s="58"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="150"/>
+      <c r="K47" s="150"/>
+      <c r="L47" s="150"/>
+      <c r="M47" s="150"/>
+      <c r="N47" s="150"/>
+      <c r="O47" s="150"/>
+      <c r="P47" s="150"/>
+      <c r="Q47" s="150"/>
+      <c r="R47" s="150"/>
+      <c r="S47" s="150"/>
+      <c r="T47" s="151"/>
+    </row>
+    <row r="48" spans="1:20" ht="17" thickBot="1">
+      <c r="B48" s="152"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
+      <c r="K48" s="154"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
+      <c r="O48" s="154"/>
+      <c r="P48" s="154"/>
+      <c r="Q48" s="154"/>
+      <c r="R48" s="154"/>
+      <c r="S48" s="154"/>
+      <c r="T48" s="155"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6690,21 +6575,21 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="38" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="38" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" style="39" customWidth="1"/>
     <col min="11" max="11" width="96" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="38"/>
+    <col min="12" max="16384" width="33.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -6718,7 +6603,7 @@
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="189"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="43"/>
@@ -6732,7 +6617,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="45"/>
-      <c r="K3" s="183"/>
+      <c r="K3" s="180"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="43"/>
@@ -6744,7 +6629,7 @@
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
       <c r="J4" s="47"/>
-      <c r="K4" s="183"/>
+      <c r="K4" s="180"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="48"/>
@@ -6770,7 +6655,7 @@
       <c r="J5" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="190" t="s">
+      <c r="K5" s="187" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6784,11 +6669,11 @@
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
-      <c r="K6" s="191"/>
+      <c r="K6" s="188"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="43"/>
-      <c r="C7" s="196"/>
+      <c r="C7" s="193"/>
       <c r="D7" s="44"/>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
@@ -6796,31 +6681,31 @@
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="191"/>
+      <c r="K7" s="188"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="43"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="199" t="s">
+      <c r="D8" s="195"/>
+      <c r="E8" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="199" t="s">
+      <c r="F8" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="200" t="s">
+      <c r="G8" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="200" t="s">
+      <c r="H8" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="200" t="s">
+      <c r="I8" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="200" t="s">
-        <v>139</v>
+      <c r="J8" s="197" t="s">
+        <v>138</v>
       </c>
       <c r="K8" s="149" t="s">
         <v>107</v>
@@ -6828,990 +6713,991 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="43"/>
-      <c r="C9" s="201" t="s">
+      <c r="C9" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="202"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="203"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="200"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="43"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="203"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="200"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="43"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="203"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="200"/>
     </row>
     <row r="12" spans="2:11" ht="13" customHeight="1">
       <c r="B12" s="43"/>
-      <c r="C12" s="197" t="s">
+      <c r="C12" s="194" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="202"/>
+      <c r="E12" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="205"/>
-      <c r="E12" s="198" t="s">
+      <c r="F12" s="201" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="204" t="s">
+      <c r="G12" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="206" t="s">
+      <c r="H12" s="203" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="203" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="206" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="206" t="s">
+      <c r="J12" s="203" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="200" t="s">
         <v>136</v>
-      </c>
-      <c r="J12" s="206" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="203" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="43"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="206"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="206"/>
-      <c r="J13" s="206"/>
-      <c r="K13" s="203"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="200"/>
     </row>
     <row r="14" spans="2:11" ht="34">
       <c r="B14" s="43"/>
-      <c r="C14" s="201" t="s">
+      <c r="C14" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="205"/>
-      <c r="E14" s="198" t="s">
+      <c r="D14" s="202"/>
+      <c r="E14" s="195" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="201" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="203" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="204" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="206" t="s">
+      <c r="H14" s="203" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="203" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="203" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="206" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="206" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" s="206" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" s="203" t="s">
+      <c r="K14" s="200" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="43"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="203"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="200"/>
     </row>
     <row r="16" spans="2:11" ht="34">
       <c r="B16" s="43"/>
-      <c r="C16" s="197" t="s">
+      <c r="C16" s="194" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="205"/>
-      <c r="E16" s="198" t="s">
+      <c r="D16" s="202"/>
+      <c r="E16" s="195" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="201" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="203" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="203" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="203" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="236" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="204" t="s">
+      <c r="K16" s="200" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="181" customFormat="1">
+      <c r="B17" s="182"/>
+      <c r="C17" s="205" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="204" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="206" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="206" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" s="206" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="206" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="203" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="184" customFormat="1">
-      <c r="B17" s="185"/>
-      <c r="C17" s="208" t="s">
+      <c r="G17" s="204">
+        <v>2015</v>
+      </c>
+      <c r="H17" s="204">
+        <v>2015</v>
+      </c>
+      <c r="I17" s="206">
+        <v>42948</v>
+      </c>
+      <c r="J17" s="205" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="207"/>
+    </row>
+    <row r="18" spans="1:11" s="181" customFormat="1">
+      <c r="B18" s="182"/>
+      <c r="C18" s="205" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="207"/>
+    </row>
+    <row r="19" spans="1:11" s="181" customFormat="1">
+      <c r="B19" s="182"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="207"/>
+    </row>
+    <row r="20" spans="1:11" s="181" customFormat="1">
+      <c r="B20" s="182"/>
+      <c r="C20" s="205" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="204">
+        <v>2010</v>
+      </c>
+      <c r="H20" s="204" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="206">
+        <v>42948</v>
+      </c>
+      <c r="J20" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="207"/>
+    </row>
+    <row r="21" spans="1:11" s="181" customFormat="1">
+      <c r="B21" s="182"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="209"/>
+      <c r="K21" s="207"/>
+    </row>
+    <row r="22" spans="1:11" s="181" customFormat="1">
+      <c r="B22" s="182"/>
+      <c r="C22" s="208" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="206">
+        <v>42948</v>
+      </c>
+      <c r="J22" s="205" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="207" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="181" customFormat="1">
+      <c r="B23" s="182"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="206">
+        <v>43831</v>
+      </c>
+      <c r="J23" s="205" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" s="207"/>
+    </row>
+    <row r="24" spans="1:11" s="181" customFormat="1">
+      <c r="B24" s="182"/>
+      <c r="C24" s="205" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="207" t="s">
+      <c r="D24" s="204"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="204"/>
+      <c r="I24" s="204"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="207"/>
+    </row>
+    <row r="25" spans="1:11" s="181" customFormat="1">
+      <c r="B25" s="182"/>
+      <c r="C25" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="207"/>
+    </row>
+    <row r="26" spans="1:11" s="181" customFormat="1">
+      <c r="B26" s="182"/>
+      <c r="C26" s="208" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="207"/>
+    </row>
+    <row r="27" spans="1:11" s="181" customFormat="1">
+      <c r="B27" s="182"/>
+      <c r="C27" s="208" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="204"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="204"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="207"/>
+    </row>
+    <row r="28" spans="1:11" s="181" customFormat="1">
+      <c r="B28" s="182"/>
+      <c r="C28" s="210" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="205"/>
+      <c r="K28" s="207"/>
+    </row>
+    <row r="29" spans="1:11" s="181" customFormat="1">
+      <c r="B29" s="182"/>
+      <c r="C29" s="210" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="205"/>
+      <c r="K29" s="207"/>
+    </row>
+    <row r="30" spans="1:11" s="181" customFormat="1">
+      <c r="A30" s="204"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="205"/>
+      <c r="K30" s="207"/>
+    </row>
+    <row r="31" spans="1:11" s="181" customFormat="1">
+      <c r="A31" s="204"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="207"/>
+    </row>
+    <row r="32" spans="1:11" s="181" customFormat="1">
+      <c r="A32" s="204"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="205" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="204"/>
+      <c r="E32" s="204" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="204" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="207">
-        <v>2015</v>
-      </c>
-      <c r="H17" s="207">
-        <v>2015</v>
-      </c>
-      <c r="I17" s="209">
+      <c r="G32" s="204" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="204" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" s="204">
+        <v>42979</v>
+      </c>
+      <c r="J32" s="205" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="207"/>
+    </row>
+    <row r="33" spans="1:11" s="181" customFormat="1">
+      <c r="A33" s="204"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="204"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="205"/>
+      <c r="K33" s="207"/>
+    </row>
+    <row r="34" spans="1:11" s="181" customFormat="1">
+      <c r="A34" s="204"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="205" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="204" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="204" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="204">
+        <v>42979</v>
+      </c>
+      <c r="J34" s="205" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" s="207"/>
+    </row>
+    <row r="35" spans="1:11" s="181" customFormat="1">
+      <c r="A35" s="204"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="207"/>
+    </row>
+    <row r="36" spans="1:11" s="181" customFormat="1">
+      <c r="B36" s="182"/>
+      <c r="C36" s="205" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="204" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="204" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" s="206">
         <v>42948</v>
       </c>
-      <c r="J17" s="208" t="s">
-        <v>206</v>
-      </c>
-      <c r="K17" s="210"/>
-    </row>
-    <row r="18" spans="1:11" s="184" customFormat="1">
-      <c r="B18" s="185"/>
-      <c r="C18" s="208" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="207"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="210"/>
-    </row>
-    <row r="19" spans="1:11" s="184" customFormat="1">
-      <c r="B19" s="185"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="208"/>
-      <c r="K19" s="210"/>
-    </row>
-    <row r="20" spans="1:11" s="184" customFormat="1">
-      <c r="B20" s="185"/>
-      <c r="C20" s="208" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="207" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="207">
-        <v>2010</v>
-      </c>
-      <c r="H20" s="207" t="s">
-        <v>207</v>
-      </c>
-      <c r="I20" s="209">
-        <v>42948</v>
-      </c>
-      <c r="J20" s="212" t="s">
+      <c r="J36" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="207"/>
+    </row>
+    <row r="37" spans="1:11" s="181" customFormat="1">
+      <c r="B37" s="182"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="207"/>
+    </row>
+    <row r="38" spans="1:11" s="181" customFormat="1">
+      <c r="B38" s="182"/>
+      <c r="C38" s="204" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="204"/>
+      <c r="E38" s="204" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="211" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="210"/>
-    </row>
-    <row r="21" spans="1:11" s="184" customFormat="1">
-      <c r="B21" s="185"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="212"/>
-      <c r="K21" s="210"/>
-    </row>
-    <row r="22" spans="1:11" s="184" customFormat="1">
-      <c r="B22" s="185"/>
-      <c r="C22" s="211" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="207" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="209">
-        <v>42948</v>
-      </c>
-      <c r="J22" s="208" t="s">
-        <v>209</v>
-      </c>
-      <c r="K22" s="210" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="184" customFormat="1">
-      <c r="B23" s="185"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="207" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="209">
-        <v>43831</v>
-      </c>
-      <c r="J23" s="208" t="s">
-        <v>240</v>
-      </c>
-      <c r="K23" s="210"/>
-    </row>
-    <row r="24" spans="1:11" s="184" customFormat="1">
-      <c r="B24" s="185"/>
-      <c r="C24" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="210"/>
-    </row>
-    <row r="25" spans="1:11" s="184" customFormat="1">
-      <c r="B25" s="185"/>
-      <c r="C25" s="211" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="207"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="210"/>
-    </row>
-    <row r="26" spans="1:11" s="184" customFormat="1">
-      <c r="B26" s="185"/>
-      <c r="C26" s="211" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="208"/>
-      <c r="K26" s="210"/>
-    </row>
-    <row r="27" spans="1:11" s="184" customFormat="1">
-      <c r="B27" s="185"/>
-      <c r="C27" s="211" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="207"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
-      <c r="K27" s="210"/>
-    </row>
-    <row r="28" spans="1:11" s="184" customFormat="1">
-      <c r="B28" s="185"/>
-      <c r="C28" s="213" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
-      <c r="K28" s="210"/>
-    </row>
-    <row r="29" spans="1:11" s="184" customFormat="1">
-      <c r="B29" s="185"/>
-      <c r="C29" s="213" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="207"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="208"/>
-      <c r="K29" s="210"/>
-    </row>
-    <row r="30" spans="1:11" s="184" customFormat="1">
-      <c r="A30" s="207"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="210"/>
-    </row>
-    <row r="31" spans="1:11" s="184" customFormat="1">
-      <c r="A31" s="207"/>
-      <c r="B31" s="185"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="210"/>
-    </row>
-    <row r="32" spans="1:11" s="184" customFormat="1">
-      <c r="A32" s="207"/>
-      <c r="B32" s="185"/>
-      <c r="C32" s="208" t="s">
+      <c r="K38" s="207"/>
+    </row>
+    <row r="39" spans="1:11" s="181" customFormat="1">
+      <c r="B39" s="182"/>
+      <c r="C39" s="204" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="204"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="207"/>
+    </row>
+    <row r="40" spans="1:11" s="181" customFormat="1">
+      <c r="B40" s="182"/>
+      <c r="C40" s="204" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="207"/>
-      <c r="E32" s="207" t="s">
-        <v>217</v>
-      </c>
-      <c r="F32" s="207" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="207" t="s">
-        <v>207</v>
-      </c>
-      <c r="H32" s="207" t="s">
-        <v>207</v>
-      </c>
-      <c r="I32" s="207">
-        <v>42979</v>
-      </c>
-      <c r="J32" s="208" t="s">
-        <v>228</v>
-      </c>
-      <c r="K32" s="210"/>
-    </row>
-    <row r="33" spans="1:11" s="184" customFormat="1">
-      <c r="A33" s="207"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="208"/>
-      <c r="D33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="210"/>
-    </row>
-    <row r="34" spans="1:11" s="184" customFormat="1">
-      <c r="A34" s="207"/>
-      <c r="B34" s="185"/>
-      <c r="C34" s="208" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" s="207" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="207" t="s">
-        <v>207</v>
-      </c>
-      <c r="H34" s="207" t="s">
-        <v>207</v>
-      </c>
-      <c r="I34" s="207">
-        <v>42979</v>
-      </c>
-      <c r="J34" s="208" t="s">
-        <v>229</v>
-      </c>
-      <c r="K34" s="210"/>
-    </row>
-    <row r="35" spans="1:11" s="184" customFormat="1">
-      <c r="A35" s="207"/>
-      <c r="B35" s="185"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="207"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="208"/>
-      <c r="K35" s="210"/>
-    </row>
-    <row r="36" spans="1:11" s="184" customFormat="1">
-      <c r="B36" s="185"/>
-      <c r="C36" s="208" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" s="207" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="207" t="s">
-        <v>207</v>
-      </c>
-      <c r="H36" s="207" t="s">
-        <v>207</v>
-      </c>
-      <c r="I36" s="209">
-        <v>42948</v>
-      </c>
-      <c r="J36" s="212" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="210"/>
-    </row>
-    <row r="37" spans="1:11" s="184" customFormat="1">
-      <c r="B37" s="185"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="210"/>
-    </row>
-    <row r="38" spans="1:11" s="184" customFormat="1">
-      <c r="B38" s="185"/>
-      <c r="C38" s="207" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="207"/>
-      <c r="E38" s="207" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="214" t="s">
-        <v>214</v>
-      </c>
-      <c r="K38" s="210"/>
-    </row>
-    <row r="39" spans="1:11" s="184" customFormat="1">
-      <c r="B39" s="185"/>
-      <c r="C39" s="207" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="207"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="207"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="208"/>
-      <c r="K39" s="210"/>
-    </row>
-    <row r="40" spans="1:11" s="184" customFormat="1">
-      <c r="B40" s="185"/>
-      <c r="C40" s="207" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="207"/>
-      <c r="E40" s="207"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="207"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="210"/>
-    </row>
-    <row r="41" spans="1:11" s="184" customFormat="1">
-      <c r="B41" s="185"/>
-      <c r="C41" s="207" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" s="207"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="210"/>
-    </row>
-    <row r="42" spans="1:11" s="184" customFormat="1">
-      <c r="B42" s="185"/>
-      <c r="C42" s="208" t="e">
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
+      <c r="J40" s="205"/>
+      <c r="K40" s="207"/>
+    </row>
+    <row r="41" spans="1:11" s="181" customFormat="1">
+      <c r="B41" s="182"/>
+      <c r="C41" s="204" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="205"/>
+      <c r="K41" s="207"/>
+    </row>
+    <row r="42" spans="1:11" s="181" customFormat="1">
+      <c r="B42" s="182"/>
+      <c r="C42" s="205" t="e">
         <f>Dashboard!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D42" s="207"/>
-      <c r="E42" s="207"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="207"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="208"/>
-      <c r="K42" s="210"/>
-    </row>
-    <row r="43" spans="1:11" s="184" customFormat="1">
-      <c r="B43" s="185"/>
-      <c r="C43" s="207" t="s">
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
+      <c r="J42" s="205"/>
+      <c r="K42" s="207"/>
+    </row>
+    <row r="43" spans="1:11" s="181" customFormat="1">
+      <c r="B43" s="182"/>
+      <c r="C43" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="207"/>
-      <c r="E43" s="207"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="207"/>
-      <c r="H43" s="207"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="208"/>
-      <c r="K43" s="210"/>
-    </row>
-    <row r="44" spans="1:11" s="184" customFormat="1">
-      <c r="B44" s="185"/>
-      <c r="C44" s="207" t="s">
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="204"/>
+      <c r="H43" s="204"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="205"/>
+      <c r="K43" s="207"/>
+    </row>
+    <row r="44" spans="1:11" s="181" customFormat="1">
+      <c r="B44" s="182"/>
+      <c r="C44" s="204" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="207"/>
-      <c r="E44" s="207"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="207"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="208"/>
-      <c r="K44" s="210"/>
-    </row>
-    <row r="45" spans="1:11" s="184" customFormat="1">
-      <c r="B45" s="185"/>
-      <c r="C45" s="207" t="s">
+      <c r="D44" s="204"/>
+      <c r="E44" s="204"/>
+      <c r="F44" s="204"/>
+      <c r="G44" s="204"/>
+      <c r="H44" s="204"/>
+      <c r="I44" s="204"/>
+      <c r="J44" s="205"/>
+      <c r="K44" s="207"/>
+    </row>
+    <row r="45" spans="1:11" s="181" customFormat="1">
+      <c r="B45" s="182"/>
+      <c r="C45" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="207"/>
-      <c r="E45" s="207"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="207"/>
-      <c r="H45" s="207"/>
-      <c r="I45" s="207"/>
-      <c r="J45" s="208"/>
-      <c r="K45" s="210"/>
-    </row>
-    <row r="46" spans="1:11" s="184" customFormat="1">
-      <c r="B46" s="185"/>
-      <c r="C46" s="207" t="s">
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="205"/>
+      <c r="K45" s="207"/>
+    </row>
+    <row r="46" spans="1:11" s="181" customFormat="1">
+      <c r="B46" s="182"/>
+      <c r="C46" s="204" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="207"/>
-      <c r="E46" s="207"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="207"/>
-      <c r="H46" s="207"/>
-      <c r="I46" s="207"/>
-      <c r="J46" s="208"/>
-      <c r="K46" s="210"/>
-    </row>
-    <row r="47" spans="1:11" s="184" customFormat="1">
-      <c r="B47" s="185"/>
-      <c r="C47" s="207" t="s">
+      <c r="D46" s="204"/>
+      <c r="E46" s="204"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="205"/>
+      <c r="K46" s="207"/>
+    </row>
+    <row r="47" spans="1:11" s="181" customFormat="1">
+      <c r="B47" s="182"/>
+      <c r="C47" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="207"/>
-      <c r="E47" s="207"/>
-      <c r="F47" s="207"/>
-      <c r="G47" s="207"/>
-      <c r="H47" s="207"/>
-      <c r="I47" s="207"/>
-      <c r="J47" s="208"/>
-      <c r="K47" s="210"/>
-    </row>
-    <row r="48" spans="1:11" s="184" customFormat="1">
-      <c r="B48" s="185"/>
-      <c r="C48" s="207" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="207"/>
-      <c r="E48" s="207"/>
-      <c r="F48" s="207"/>
-      <c r="G48" s="207"/>
-      <c r="H48" s="207"/>
-      <c r="I48" s="207"/>
-      <c r="J48" s="208"/>
-      <c r="K48" s="210"/>
-    </row>
-    <row r="49" spans="2:11" s="184" customFormat="1">
-      <c r="B49" s="185"/>
-      <c r="C49" s="207" t="s">
+      <c r="D47" s="204"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="204"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="204"/>
+      <c r="I47" s="204"/>
+      <c r="J47" s="205"/>
+      <c r="K47" s="207"/>
+    </row>
+    <row r="48" spans="1:11" s="181" customFormat="1">
+      <c r="B48" s="182"/>
+      <c r="C48" s="204" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="205"/>
+      <c r="K48" s="207"/>
+    </row>
+    <row r="49" spans="2:11" s="181" customFormat="1">
+      <c r="B49" s="182"/>
+      <c r="C49" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="208"/>
-      <c r="K49" s="210"/>
-    </row>
-    <row r="50" spans="2:11" s="184" customFormat="1">
-      <c r="B50" s="185"/>
-      <c r="C50" s="207" t="s">
+      <c r="D49" s="204"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="204"/>
+      <c r="G49" s="204"/>
+      <c r="H49" s="204"/>
+      <c r="I49" s="204"/>
+      <c r="J49" s="205"/>
+      <c r="K49" s="207"/>
+    </row>
+    <row r="50" spans="2:11" s="181" customFormat="1">
+      <c r="B50" s="182"/>
+      <c r="C50" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="207"/>
-      <c r="E50" s="207"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="207"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="208"/>
-      <c r="K50" s="210"/>
-    </row>
-    <row r="51" spans="2:11" s="184" customFormat="1">
-      <c r="B51" s="185"/>
-      <c r="C51" s="207" t="s">
+      <c r="D50" s="204"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="204"/>
+      <c r="G50" s="204"/>
+      <c r="H50" s="204"/>
+      <c r="I50" s="204"/>
+      <c r="J50" s="205"/>
+      <c r="K50" s="207"/>
+    </row>
+    <row r="51" spans="2:11" s="181" customFormat="1">
+      <c r="B51" s="182"/>
+      <c r="C51" s="204" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="207"/>
-      <c r="E51" s="207"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="207"/>
-      <c r="H51" s="207"/>
-      <c r="I51" s="207"/>
-      <c r="J51" s="208"/>
-      <c r="K51" s="210"/>
-    </row>
-    <row r="52" spans="2:11" s="184" customFormat="1">
-      <c r="B52" s="185"/>
-      <c r="C52" s="207" t="s">
+      <c r="D51" s="204"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="204"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="204"/>
+      <c r="I51" s="204"/>
+      <c r="J51" s="205"/>
+      <c r="K51" s="207"/>
+    </row>
+    <row r="52" spans="2:11" s="181" customFormat="1">
+      <c r="B52" s="182"/>
+      <c r="C52" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="207"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="207"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="208"/>
-      <c r="K52" s="210"/>
-    </row>
-    <row r="53" spans="2:11" s="184" customFormat="1">
-      <c r="B53" s="185"/>
-      <c r="C53" s="207" t="s">
-        <v>213</v>
-      </c>
-      <c r="D53" s="207"/>
-      <c r="E53" s="207"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="207"/>
-      <c r="H53" s="207"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="208"/>
-      <c r="K53" s="210"/>
-    </row>
-    <row r="54" spans="2:11" s="184" customFormat="1">
-      <c r="B54" s="185"/>
-      <c r="C54" s="207" t="s">
+      <c r="D52" s="204"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="205"/>
+      <c r="K52" s="207"/>
+    </row>
+    <row r="53" spans="2:11" s="181" customFormat="1">
+      <c r="B53" s="182"/>
+      <c r="C53" s="204" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="204"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="204"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="205"/>
+      <c r="K53" s="207"/>
+    </row>
+    <row r="54" spans="2:11" s="181" customFormat="1">
+      <c r="B54" s="182"/>
+      <c r="C54" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="207"/>
-      <c r="E54" s="207"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="207"/>
-      <c r="H54" s="207"/>
-      <c r="I54" s="207"/>
-      <c r="J54" s="208"/>
-      <c r="K54" s="210"/>
-    </row>
-    <row r="55" spans="2:11" s="184" customFormat="1">
-      <c r="B55" s="185"/>
-      <c r="C55" s="207" t="s">
+      <c r="D54" s="204"/>
+      <c r="E54" s="204"/>
+      <c r="F54" s="204"/>
+      <c r="G54" s="204"/>
+      <c r="H54" s="204"/>
+      <c r="I54" s="204"/>
+      <c r="J54" s="205"/>
+      <c r="K54" s="207"/>
+    </row>
+    <row r="55" spans="2:11" s="181" customFormat="1">
+      <c r="B55" s="182"/>
+      <c r="C55" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="207"/>
-      <c r="E55" s="207"/>
-      <c r="F55" s="207"/>
-      <c r="G55" s="207"/>
-      <c r="H55" s="207"/>
-      <c r="I55" s="207"/>
-      <c r="J55" s="208"/>
-      <c r="K55" s="210"/>
-    </row>
-    <row r="56" spans="2:11" s="184" customFormat="1">
-      <c r="B56" s="185"/>
-      <c r="C56" s="207" t="s">
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="204"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="205"/>
+      <c r="K55" s="207"/>
+    </row>
+    <row r="56" spans="2:11" s="181" customFormat="1">
+      <c r="B56" s="182"/>
+      <c r="C56" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="207"/>
-      <c r="E56" s="207"/>
-      <c r="F56" s="207"/>
-      <c r="G56" s="207"/>
-      <c r="H56" s="207"/>
-      <c r="I56" s="207"/>
-      <c r="J56" s="208"/>
-      <c r="K56" s="210"/>
-    </row>
-    <row r="57" spans="2:11" s="184" customFormat="1">
-      <c r="B57" s="185"/>
-      <c r="C57" s="207" t="s">
+      <c r="D56" s="204"/>
+      <c r="E56" s="204"/>
+      <c r="F56" s="204"/>
+      <c r="G56" s="204"/>
+      <c r="H56" s="204"/>
+      <c r="I56" s="204"/>
+      <c r="J56" s="205"/>
+      <c r="K56" s="207"/>
+    </row>
+    <row r="57" spans="2:11" s="181" customFormat="1">
+      <c r="B57" s="182"/>
+      <c r="C57" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="207"/>
-      <c r="E57" s="207"/>
-      <c r="F57" s="207"/>
-      <c r="G57" s="207"/>
-      <c r="H57" s="207"/>
-      <c r="I57" s="207"/>
-      <c r="J57" s="208"/>
-      <c r="K57" s="210"/>
-    </row>
-    <row r="58" spans="2:11" s="184" customFormat="1">
-      <c r="B58" s="185"/>
-      <c r="C58" s="207" t="s">
+      <c r="D57" s="204"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="204"/>
+      <c r="G57" s="204"/>
+      <c r="H57" s="204"/>
+      <c r="I57" s="204"/>
+      <c r="J57" s="205"/>
+      <c r="K57" s="207"/>
+    </row>
+    <row r="58" spans="2:11" s="181" customFormat="1">
+      <c r="B58" s="182"/>
+      <c r="C58" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="207"/>
-      <c r="E58" s="207"/>
-      <c r="F58" s="207"/>
-      <c r="G58" s="207"/>
-      <c r="H58" s="207"/>
-      <c r="I58" s="207"/>
-      <c r="J58" s="208"/>
-      <c r="K58" s="210"/>
-    </row>
-    <row r="59" spans="2:11" s="184" customFormat="1">
-      <c r="B59" s="185"/>
-      <c r="C59" s="207" t="s">
+      <c r="D58" s="204"/>
+      <c r="E58" s="204"/>
+      <c r="F58" s="204"/>
+      <c r="G58" s="204"/>
+      <c r="H58" s="204"/>
+      <c r="I58" s="204"/>
+      <c r="J58" s="205"/>
+      <c r="K58" s="207"/>
+    </row>
+    <row r="59" spans="2:11" s="181" customFormat="1">
+      <c r="B59" s="182"/>
+      <c r="C59" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="207"/>
-      <c r="E59" s="207"/>
-      <c r="F59" s="207"/>
-      <c r="G59" s="207"/>
-      <c r="H59" s="207"/>
-      <c r="I59" s="207"/>
-      <c r="J59" s="208"/>
-      <c r="K59" s="210"/>
-    </row>
-    <row r="60" spans="2:11" s="184" customFormat="1">
-      <c r="B60" s="185"/>
-      <c r="C60" s="207" t="s">
+      <c r="D59" s="204"/>
+      <c r="E59" s="204"/>
+      <c r="F59" s="204"/>
+      <c r="G59" s="204"/>
+      <c r="H59" s="204"/>
+      <c r="I59" s="204"/>
+      <c r="J59" s="205"/>
+      <c r="K59" s="207"/>
+    </row>
+    <row r="60" spans="2:11" s="181" customFormat="1">
+      <c r="B60" s="182"/>
+      <c r="C60" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="207"/>
-      <c r="E60" s="207"/>
-      <c r="F60" s="207"/>
-      <c r="G60" s="207"/>
-      <c r="H60" s="207"/>
-      <c r="I60" s="207"/>
-      <c r="J60" s="208"/>
-      <c r="K60" s="210"/>
-    </row>
-    <row r="61" spans="2:11" s="184" customFormat="1">
-      <c r="B61" s="185"/>
-      <c r="C61" s="207" t="s">
+      <c r="D60" s="204"/>
+      <c r="E60" s="204"/>
+      <c r="F60" s="204"/>
+      <c r="G60" s="204"/>
+      <c r="H60" s="204"/>
+      <c r="I60" s="204"/>
+      <c r="J60" s="205"/>
+      <c r="K60" s="207"/>
+    </row>
+    <row r="61" spans="2:11" s="181" customFormat="1">
+      <c r="B61" s="182"/>
+      <c r="C61" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="207"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="207"/>
-      <c r="G61" s="207"/>
-      <c r="H61" s="207"/>
-      <c r="I61" s="207"/>
-      <c r="J61" s="208"/>
-      <c r="K61" s="210"/>
-    </row>
-    <row r="62" spans="2:11" s="184" customFormat="1">
-      <c r="B62" s="185"/>
-      <c r="C62" s="207" t="s">
+      <c r="D61" s="204"/>
+      <c r="E61" s="204"/>
+      <c r="F61" s="204"/>
+      <c r="G61" s="204"/>
+      <c r="H61" s="204"/>
+      <c r="I61" s="204"/>
+      <c r="J61" s="205"/>
+      <c r="K61" s="207"/>
+    </row>
+    <row r="62" spans="2:11" s="181" customFormat="1">
+      <c r="B62" s="182"/>
+      <c r="C62" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="207"/>
-      <c r="E62" s="207"/>
-      <c r="F62" s="207"/>
-      <c r="G62" s="207"/>
-      <c r="H62" s="207"/>
-      <c r="I62" s="207"/>
-      <c r="J62" s="208"/>
-      <c r="K62" s="210"/>
-    </row>
-    <row r="63" spans="2:11" s="184" customFormat="1">
-      <c r="B63" s="185"/>
-      <c r="C63" s="207" t="s">
+      <c r="D62" s="204"/>
+      <c r="E62" s="204"/>
+      <c r="F62" s="204"/>
+      <c r="G62" s="204"/>
+      <c r="H62" s="204"/>
+      <c r="I62" s="204"/>
+      <c r="J62" s="205"/>
+      <c r="K62" s="207"/>
+    </row>
+    <row r="63" spans="2:11" s="181" customFormat="1">
+      <c r="B63" s="182"/>
+      <c r="C63" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="207"/>
-      <c r="E63" s="207"/>
-      <c r="F63" s="207"/>
-      <c r="G63" s="207"/>
-      <c r="H63" s="207"/>
-      <c r="I63" s="207"/>
-      <c r="J63" s="208"/>
-      <c r="K63" s="210"/>
-    </row>
-    <row r="64" spans="2:11" s="184" customFormat="1">
-      <c r="B64" s="185"/>
-      <c r="C64" s="207" t="s">
+      <c r="D63" s="204"/>
+      <c r="E63" s="204"/>
+      <c r="F63" s="204"/>
+      <c r="G63" s="204"/>
+      <c r="H63" s="204"/>
+      <c r="I63" s="204"/>
+      <c r="J63" s="205"/>
+      <c r="K63" s="207"/>
+    </row>
+    <row r="64" spans="2:11" s="181" customFormat="1">
+      <c r="B64" s="182"/>
+      <c r="C64" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="207"/>
-      <c r="E64" s="207"/>
-      <c r="F64" s="207"/>
-      <c r="G64" s="207"/>
-      <c r="H64" s="207"/>
-      <c r="I64" s="207"/>
-      <c r="J64" s="208"/>
-      <c r="K64" s="210"/>
-    </row>
-    <row r="65" spans="1:11" s="184" customFormat="1">
-      <c r="B65" s="185"/>
-      <c r="C65" s="207" t="s">
+      <c r="D64" s="204"/>
+      <c r="E64" s="204"/>
+      <c r="F64" s="204"/>
+      <c r="G64" s="204"/>
+      <c r="H64" s="204"/>
+      <c r="I64" s="204"/>
+      <c r="J64" s="205"/>
+      <c r="K64" s="207"/>
+    </row>
+    <row r="65" spans="1:11" s="181" customFormat="1">
+      <c r="B65" s="182"/>
+      <c r="C65" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="207"/>
-      <c r="E65" s="207"/>
-      <c r="F65" s="207"/>
-      <c r="G65" s="207"/>
-      <c r="H65" s="207"/>
-      <c r="I65" s="207"/>
-      <c r="J65" s="208"/>
-      <c r="K65" s="210"/>
-    </row>
-    <row r="66" spans="1:11" s="184" customFormat="1">
-      <c r="B66" s="185"/>
-      <c r="C66" s="207" t="s">
+      <c r="D65" s="204"/>
+      <c r="E65" s="204"/>
+      <c r="F65" s="204"/>
+      <c r="G65" s="204"/>
+      <c r="H65" s="204"/>
+      <c r="I65" s="204"/>
+      <c r="J65" s="205"/>
+      <c r="K65" s="207"/>
+    </row>
+    <row r="66" spans="1:11" s="181" customFormat="1">
+      <c r="B66" s="182"/>
+      <c r="C66" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="207"/>
-      <c r="E66" s="207"/>
-      <c r="F66" s="207"/>
-      <c r="G66" s="207"/>
-      <c r="H66" s="207"/>
-      <c r="I66" s="207"/>
-      <c r="J66" s="208"/>
-      <c r="K66" s="210"/>
-    </row>
-    <row r="67" spans="1:11" s="184" customFormat="1">
-      <c r="B67" s="185"/>
-      <c r="C67" s="207" t="s">
+      <c r="D66" s="204"/>
+      <c r="E66" s="204"/>
+      <c r="F66" s="204"/>
+      <c r="G66" s="204"/>
+      <c r="H66" s="204"/>
+      <c r="I66" s="204"/>
+      <c r="J66" s="205"/>
+      <c r="K66" s="207"/>
+    </row>
+    <row r="67" spans="1:11" s="181" customFormat="1">
+      <c r="B67" s="182"/>
+      <c r="C67" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="207"/>
-      <c r="E67" s="207"/>
-      <c r="F67" s="207"/>
-      <c r="G67" s="207"/>
-      <c r="H67" s="207"/>
-      <c r="I67" s="207"/>
-      <c r="J67" s="208"/>
-      <c r="K67" s="210"/>
-    </row>
-    <row r="68" spans="1:11" s="184" customFormat="1">
-      <c r="B68" s="185"/>
-      <c r="C68" s="187"/>
-      <c r="D68" s="187"/>
-      <c r="E68" s="187"/>
-      <c r="F68" s="187"/>
-      <c r="G68" s="187"/>
-      <c r="H68" s="187"/>
-      <c r="I68" s="187"/>
-      <c r="J68" s="186"/>
-      <c r="K68" s="188"/>
-    </row>
-    <row r="69" spans="1:11" s="184" customFormat="1">
-      <c r="B69" s="185"/>
-      <c r="C69" s="187"/>
-      <c r="D69" s="187"/>
-      <c r="E69" s="187"/>
-      <c r="F69" s="187"/>
-      <c r="G69" s="187"/>
-      <c r="H69" s="187"/>
-      <c r="I69" s="187"/>
-      <c r="J69" s="186"/>
-      <c r="K69" s="188"/>
-    </row>
-    <row r="70" spans="1:11" s="184" customFormat="1">
-      <c r="B70" s="185"/>
-      <c r="C70" s="187"/>
-      <c r="D70" s="187"/>
-      <c r="E70" s="187"/>
-      <c r="F70" s="187"/>
-      <c r="G70" s="187"/>
-      <c r="H70" s="187"/>
-      <c r="I70" s="187"/>
-      <c r="J70" s="186"/>
-      <c r="K70" s="188"/>
-    </row>
-    <row r="71" spans="1:11" s="184" customFormat="1" ht="17" thickBot="1">
-      <c r="B71" s="192"/>
-      <c r="C71" s="193"/>
-      <c r="D71" s="193"/>
-      <c r="E71" s="193"/>
-      <c r="F71" s="193"/>
-      <c r="G71" s="193"/>
-      <c r="H71" s="193"/>
-      <c r="I71" s="193"/>
-      <c r="J71" s="194"/>
-      <c r="K71" s="195"/>
+      <c r="D67" s="204"/>
+      <c r="E67" s="204"/>
+      <c r="F67" s="204"/>
+      <c r="G67" s="204"/>
+      <c r="H67" s="204"/>
+      <c r="I67" s="204"/>
+      <c r="J67" s="205"/>
+      <c r="K67" s="207"/>
+    </row>
+    <row r="68" spans="1:11" s="181" customFormat="1">
+      <c r="B68" s="182"/>
+      <c r="C68" s="184"/>
+      <c r="D68" s="184"/>
+      <c r="E68" s="184"/>
+      <c r="F68" s="184"/>
+      <c r="G68" s="184"/>
+      <c r="H68" s="184"/>
+      <c r="I68" s="184"/>
+      <c r="J68" s="183"/>
+      <c r="K68" s="185"/>
+    </row>
+    <row r="69" spans="1:11" s="181" customFormat="1">
+      <c r="B69" s="182"/>
+      <c r="C69" s="184"/>
+      <c r="D69" s="184"/>
+      <c r="E69" s="184"/>
+      <c r="F69" s="184"/>
+      <c r="G69" s="184"/>
+      <c r="H69" s="184"/>
+      <c r="I69" s="184"/>
+      <c r="J69" s="183"/>
+      <c r="K69" s="185"/>
+    </row>
+    <row r="70" spans="1:11" s="181" customFormat="1">
+      <c r="B70" s="182"/>
+      <c r="C70" s="184"/>
+      <c r="D70" s="184"/>
+      <c r="E70" s="184"/>
+      <c r="F70" s="184"/>
+      <c r="G70" s="184"/>
+      <c r="H70" s="184"/>
+      <c r="I70" s="184"/>
+      <c r="J70" s="183"/>
+      <c r="K70" s="185"/>
+    </row>
+    <row r="71" spans="1:11" s="181" customFormat="1" ht="17" thickBot="1">
+      <c r="B71" s="189"/>
+      <c r="C71" s="190"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="190"/>
+      <c r="F71" s="190"/>
+      <c r="G71" s="190"/>
+      <c r="H71" s="190"/>
+      <c r="I71" s="190"/>
+      <c r="J71" s="191"/>
+      <c r="K71" s="192"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="184"/>
+      <c r="A72" s="181"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J32" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J16" r:id="rId2" xr:uid="{B1725388-6FDF-3E48-8DF3-9EFD177BEB31}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7823,24 +7709,24 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A2:J329"/>
+  <dimension ref="A2:J348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="88" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="88" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="88" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="88" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="88" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="88" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="88" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="88"/>
+    <col min="1" max="1" width="3.42578125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="88" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="88" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="88" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="88" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="88"/>
     <col min="10" max="10" width="53" style="88" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="88"/>
+    <col min="11" max="16384" width="10.7109375" style="88"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="17" thickBot="1"/>
@@ -8029,7 +7915,7 @@
     <row r="24" spans="2:10">
       <c r="B24" s="93"/>
       <c r="C24" s="114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="91"/>
       <c r="G24" s="108" t="s">
@@ -8043,7 +7929,7 @@
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
       <c r="G25" s="108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I25" s="91"/>
       <c r="J25" s="94"/>
@@ -8103,7 +7989,7 @@
       <c r="C31" s="91"/>
       <c r="D31" s="91"/>
       <c r="G31" s="115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H31" s="91"/>
       <c r="I31" s="91"/>
@@ -8160,7 +8046,7 @@
         <v>0.2</v>
       </c>
       <c r="G37" s="115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H37" s="91"/>
       <c r="I37" s="91"/>
@@ -8181,7 +8067,7 @@
       </c>
       <c r="F39" s="91"/>
       <c r="G39" s="120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I39" s="91"/>
       <c r="J39" s="94"/>
@@ -8192,7 +8078,7 @@
       <c r="E40" s="91"/>
       <c r="F40" s="91"/>
       <c r="G40" s="120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H40" s="91"/>
       <c r="I40" s="91"/>
@@ -8214,7 +8100,7 @@
       <c r="E42" s="91"/>
       <c r="F42" s="91"/>
       <c r="G42" s="108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H42" s="91"/>
       <c r="I42" s="91"/>
@@ -8227,7 +8113,7 @@
       <c r="E43" s="91"/>
       <c r="F43" s="91"/>
       <c r="G43" s="108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H43" s="91"/>
       <c r="I43" s="91"/>
@@ -8248,7 +8134,7 @@
       <c r="C45" s="91"/>
       <c r="D45" s="91"/>
       <c r="G45" s="116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I45" s="91"/>
       <c r="J45" s="94"/>
@@ -8260,7 +8146,7 @@
       <c r="E46" s="91"/>
       <c r="F46" s="104"/>
       <c r="G46" s="116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I46" s="91"/>
       <c r="J46" s="94"/>
@@ -8615,7 +8501,7 @@
     <row r="83" spans="2:10">
       <c r="B83" s="93"/>
       <c r="C83" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D83" s="91"/>
       <c r="E83" s="91"/>
@@ -8801,7 +8687,7 @@
       </c>
       <c r="F97" s="91"/>
       <c r="G97" s="118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H97" s="91"/>
       <c r="I97" s="91"/>
@@ -8816,7 +8702,7 @@
       </c>
       <c r="F98"/>
       <c r="G98" s="118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H98" s="91"/>
       <c r="I98" s="91"/>
@@ -8840,7 +8726,7 @@
       <c r="E100" s="91"/>
       <c r="F100" s="91"/>
       <c r="G100" s="120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H100" s="91"/>
       <c r="I100" s="91"/>
@@ -9496,10 +9382,10 @@
         <v>0</v>
       </c>
       <c r="F186" s="126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G186" s="124" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9510,7 +9396,7 @@
       <c r="A188" s="102"/>
       <c r="B188" s="103"/>
       <c r="C188" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E188" s="91"/>
     </row>
@@ -9688,7 +9574,7 @@
     <row r="214" spans="1:10" s="124" customFormat="1">
       <c r="B214" s="125"/>
       <c r="C214" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D214" s="126"/>
       <c r="E214" s="12" t="str">
@@ -9696,1056 +9582,1043 @@
         <v>fever.cop_cutoff</v>
       </c>
       <c r="F214" s="126">
-        <v>1</v>
+        <f>F223</f>
+        <v>2.6002380221130221</v>
       </c>
       <c r="G214" s="126"/>
-      <c r="H214" s="126" t="s">
-        <v>231</v>
-      </c>
       <c r="I214" s="126"/>
       <c r="J214" s="127"/>
     </row>
     <row r="215" spans="1:10" s="124" customFormat="1">
       <c r="B215" s="125"/>
-      <c r="C215" s="126"/>
+      <c r="C215" s="12"/>
       <c r="D215" s="126"/>
-      <c r="E215" s="126"/>
+      <c r="E215" s="12"/>
       <c r="F215" s="126"/>
       <c r="G215" s="126"/>
-      <c r="H215" s="126"/>
+      <c r="H215" s="228"/>
       <c r="I215" s="126"/>
       <c r="J215" s="127"/>
     </row>
     <row r="216" spans="1:10" s="124" customFormat="1">
       <c r="B216" s="125"/>
-      <c r="C216" s="126"/>
+      <c r="C216" s="12"/>
       <c r="D216" s="126"/>
-      <c r="E216" s="12" t="str">
+      <c r="E216" s="232" t="s">
+        <v>242</v>
+      </c>
+      <c r="F216" s="126"/>
+      <c r="G216" s="126"/>
+      <c r="H216" s="228"/>
+      <c r="I216" s="126"/>
+      <c r="J216" s="127"/>
+    </row>
+    <row r="217" spans="1:10" s="124" customFormat="1">
+      <c r="B217" s="125"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="126"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="126"/>
+      <c r="G217" s="126"/>
+      <c r="H217" s="228"/>
+      <c r="I217" s="126"/>
+      <c r="J217" s="127"/>
+    </row>
+    <row r="218" spans="1:10" s="124" customFormat="1">
+      <c r="B218" s="125"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="126"/>
+      <c r="E218" s="232" t="s">
+        <v>243</v>
+      </c>
+      <c r="F218" s="126">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G218" s="232" t="s">
+        <v>246</v>
+      </c>
+      <c r="H218" s="228"/>
+      <c r="I218" s="126"/>
+      <c r="J218" s="127"/>
+    </row>
+    <row r="219" spans="1:10" s="124" customFormat="1">
+      <c r="B219" s="125"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="126"/>
+      <c r="E219" s="232"/>
+      <c r="F219" s="126">
+        <f>(F218/31.65)/1.07</f>
+        <v>2.4036261091671465</v>
+      </c>
+      <c r="G219" s="232" t="s">
+        <v>247</v>
+      </c>
+      <c r="H219" s="228"/>
+      <c r="I219" s="126"/>
+      <c r="J219" s="127"/>
+    </row>
+    <row r="220" spans="1:10" s="124" customFormat="1">
+      <c r="B220" s="125"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="126"/>
+      <c r="E220" s="232" t="s">
+        <v>244</v>
+      </c>
+      <c r="F220" s="126">
+        <v>22.5</v>
+      </c>
+      <c r="G220" s="232" t="s">
+        <v>245</v>
+      </c>
+      <c r="H220" s="228"/>
+      <c r="I220" s="126"/>
+      <c r="J220" s="127"/>
+    </row>
+    <row r="221" spans="1:10" s="124" customFormat="1">
+      <c r="B221" s="125"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="126"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="126">
+        <f>F220/3.6</f>
+        <v>6.25</v>
+      </c>
+      <c r="G221" s="232" t="s">
+        <v>247</v>
+      </c>
+      <c r="H221" s="232" t="s">
+        <v>248</v>
+      </c>
+      <c r="I221" s="126"/>
+      <c r="J221" s="127"/>
+    </row>
+    <row r="222" spans="1:10" s="124" customFormat="1">
+      <c r="B222" s="125"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="126"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="126"/>
+      <c r="G222" s="126"/>
+      <c r="H222" s="228"/>
+      <c r="I222" s="126"/>
+      <c r="J222" s="127"/>
+    </row>
+    <row r="223" spans="1:10" s="124" customFormat="1">
+      <c r="B223" s="125"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="126"/>
+      <c r="E223" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F223" s="12">
+        <f>F221/F219</f>
+        <v>2.6002380221130221</v>
+      </c>
+      <c r="G223" s="126"/>
+      <c r="H223" s="228"/>
+      <c r="I223" s="126"/>
+      <c r="J223" s="127"/>
+    </row>
+    <row r="224" spans="1:10" s="124" customFormat="1">
+      <c r="B224" s="125"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="126"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="126"/>
+      <c r="G224" s="126"/>
+      <c r="H224" s="228"/>
+      <c r="I224" s="126"/>
+      <c r="J224" s="127"/>
+    </row>
+    <row r="225" spans="1:10" s="124" customFormat="1">
+      <c r="B225" s="125"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="126"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="126"/>
+      <c r="G225" s="126"/>
+      <c r="H225" s="228"/>
+      <c r="I225" s="126"/>
+      <c r="J225" s="127"/>
+    </row>
+    <row r="226" spans="1:10" s="124" customFormat="1">
+      <c r="B226" s="125"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="126"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="126"/>
+      <c r="G226" s="126"/>
+      <c r="H226" s="228"/>
+      <c r="I226" s="126"/>
+      <c r="J226" s="127"/>
+    </row>
+    <row r="227" spans="1:10" s="124" customFormat="1">
+      <c r="B227" s="125"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="126"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="126"/>
+      <c r="G227" s="126"/>
+      <c r="H227" s="228"/>
+      <c r="I227" s="126"/>
+      <c r="J227" s="127"/>
+    </row>
+    <row r="228" spans="1:10" s="124" customFormat="1">
+      <c r="B228" s="125"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="126"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="126"/>
+      <c r="G228" s="126"/>
+      <c r="H228" s="228"/>
+      <c r="I228" s="126"/>
+      <c r="J228" s="127"/>
+    </row>
+    <row r="229" spans="1:10" s="124" customFormat="1">
+      <c r="B229" s="125"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="126"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="126"/>
+      <c r="G229" s="126"/>
+      <c r="H229" s="228"/>
+      <c r="I229" s="126"/>
+      <c r="J229" s="127"/>
+    </row>
+    <row r="230" spans="1:10" s="124" customFormat="1">
+      <c r="B230" s="125"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="126"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="126"/>
+      <c r="G230" s="126"/>
+      <c r="H230" s="228"/>
+      <c r="I230" s="126"/>
+      <c r="J230" s="127"/>
+    </row>
+    <row r="231" spans="1:10" s="124" customFormat="1">
+      <c r="B231" s="125"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="126"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="126"/>
+      <c r="G231" s="126"/>
+      <c r="H231" s="228"/>
+      <c r="I231" s="126"/>
+      <c r="J231" s="127"/>
+    </row>
+    <row r="232" spans="1:10" s="124" customFormat="1">
+      <c r="B232" s="125"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="126"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="126"/>
+      <c r="G232" s="126"/>
+      <c r="H232" s="228"/>
+      <c r="I232" s="126"/>
+      <c r="J232" s="127"/>
+    </row>
+    <row r="233" spans="1:10" s="124" customFormat="1">
+      <c r="B233" s="125"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="126"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="126"/>
+      <c r="G233" s="126"/>
+      <c r="H233" s="228"/>
+      <c r="I233" s="126"/>
+      <c r="J233" s="127"/>
+    </row>
+    <row r="234" spans="1:10" s="124" customFormat="1">
+      <c r="B234" s="125"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="126"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="126"/>
+      <c r="G234" s="126"/>
+      <c r="H234" s="228"/>
+      <c r="I234" s="126"/>
+      <c r="J234" s="127"/>
+    </row>
+    <row r="235" spans="1:10" s="124" customFormat="1">
+      <c r="B235" s="125"/>
+      <c r="C235" s="126"/>
+      <c r="D235" s="126"/>
+      <c r="E235" s="126"/>
+      <c r="F235" s="126"/>
+      <c r="G235" s="126"/>
+      <c r="H235" s="126"/>
+      <c r="I235" s="126"/>
+      <c r="J235" s="127"/>
+    </row>
+    <row r="236" spans="1:10" s="124" customFormat="1">
+      <c r="B236" s="125"/>
+      <c r="C236" s="126"/>
+      <c r="D236" s="126"/>
+      <c r="E236" s="12" t="str">
         <f>'Research data'!C15</f>
         <v>fever.capacity.network_gas</v>
       </c>
-      <c r="F216" s="129">
+      <c r="F236" s="129">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H216" s="126" t="s">
-        <v>177</v>
-      </c>
-      <c r="I216" s="126"/>
-      <c r="J216" s="127"/>
-    </row>
-    <row r="217" spans="1:10">
-      <c r="A217" s="102"/>
-      <c r="B217" s="103"/>
-    </row>
-    <row r="218" spans="1:10" s="124" customFormat="1">
-      <c r="B218" s="125"/>
-      <c r="C218" s="126"/>
-      <c r="D218" s="126"/>
-      <c r="E218" s="126"/>
-      <c r="F218" s="126"/>
-      <c r="G218" s="126"/>
-      <c r="H218" s="126"/>
-      <c r="I218" s="126"/>
-      <c r="J218" s="127"/>
-    </row>
-    <row r="219" spans="1:10" s="124" customFormat="1">
-      <c r="B219" s="125"/>
-      <c r="C219" s="134" t="str">
-        <f>'Research data'!L3</f>
-        <v>Ecofys</v>
-      </c>
-      <c r="D219" s="126" t="s">
-        <v>178</v>
-      </c>
-      <c r="E219" s="126">
-        <v>65</v>
-      </c>
-      <c r="F219" s="126"/>
-      <c r="G219" s="126"/>
-      <c r="H219" s="126"/>
-      <c r="I219" s="126"/>
-      <c r="J219" s="127"/>
-    </row>
-    <row r="220" spans="1:10" s="124" customFormat="1">
-      <c r="B220" s="125"/>
-      <c r="C220" s="126"/>
-      <c r="D220" s="126"/>
-      <c r="E220" s="126"/>
-      <c r="F220" s="126"/>
-      <c r="G220" s="126"/>
-      <c r="H220" s="126"/>
-      <c r="I220" s="126"/>
-      <c r="J220" s="127"/>
-    </row>
-    <row r="221" spans="1:10" s="124" customFormat="1">
-      <c r="B221" s="125"/>
-      <c r="C221" s="126"/>
-      <c r="D221" s="126"/>
-      <c r="E221" s="126"/>
-      <c r="F221" s="126"/>
-      <c r="G221" s="126"/>
-      <c r="H221" s="126"/>
-      <c r="I221" s="126"/>
-      <c r="J221" s="127"/>
-    </row>
-    <row r="222" spans="1:10" s="124" customFormat="1">
-      <c r="B222" s="125"/>
-      <c r="C222" s="126"/>
-      <c r="D222" s="126"/>
-      <c r="E222" s="126"/>
-      <c r="F222" s="126"/>
-      <c r="G222" s="126"/>
-      <c r="H222" s="126"/>
-      <c r="I222" s="126"/>
-      <c r="J222" s="127"/>
-    </row>
-    <row r="223" spans="1:10" s="124" customFormat="1">
-      <c r="B223" s="125"/>
-      <c r="C223" s="126"/>
-      <c r="D223" s="126"/>
-      <c r="I223" s="126"/>
-      <c r="J223" s="127"/>
-    </row>
-    <row r="224" spans="1:10" s="124" customFormat="1">
-      <c r="B224" s="125"/>
-      <c r="C224" s="126"/>
-      <c r="D224" s="126"/>
-      <c r="I224" s="126"/>
-      <c r="J224" s="127"/>
-    </row>
-    <row r="225" spans="2:10" s="124" customFormat="1">
-      <c r="B225" s="125"/>
-      <c r="C225" s="126"/>
-      <c r="D225" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="I225" s="126"/>
-      <c r="J225" s="127"/>
-    </row>
-    <row r="226" spans="2:10" s="124" customFormat="1">
-      <c r="B226" s="125"/>
-      <c r="D226" s="130" t="s">
-        <v>180</v>
-      </c>
-      <c r="E226" s="124">
-        <v>3.25</v>
-      </c>
-      <c r="F226" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="I226" s="126"/>
-      <c r="J226" s="127"/>
-    </row>
-    <row r="227" spans="2:10" s="124" customFormat="1">
-      <c r="B227" s="125"/>
-      <c r="D227" s="130" t="s">
-        <v>169</v>
-      </c>
-      <c r="E227" s="124">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="F227" s="124" t="s">
-        <v>181</v>
-      </c>
-      <c r="I227" s="126"/>
-      <c r="J227" s="127"/>
-    </row>
-    <row r="228" spans="2:10" s="124" customFormat="1">
-      <c r="B228" s="125"/>
-      <c r="I228" s="126"/>
-      <c r="J228" s="127"/>
-    </row>
-    <row r="229" spans="2:10" s="124" customFormat="1">
-      <c r="B229" s="125"/>
-      <c r="C229" s="131"/>
-      <c r="I229" s="126"/>
-      <c r="J229" s="127"/>
-    </row>
-    <row r="230" spans="2:10" s="124" customFormat="1">
-      <c r="B230" s="125"/>
-      <c r="C230" s="126"/>
-      <c r="D230" s="126"/>
-      <c r="I230" s="126"/>
-      <c r="J230" s="127"/>
-    </row>
-    <row r="231" spans="2:10" s="124" customFormat="1">
-      <c r="B231" s="125"/>
-      <c r="C231" s="126"/>
-      <c r="D231" s="126"/>
-      <c r="I231" s="126"/>
-      <c r="J231" s="127"/>
-    </row>
-    <row r="232" spans="2:10" s="124" customFormat="1">
-      <c r="B232" s="125"/>
-      <c r="C232" s="126"/>
-      <c r="D232" s="126"/>
-      <c r="I232" s="126"/>
-      <c r="J232" s="127"/>
-    </row>
-    <row r="233" spans="2:10" s="124" customFormat="1">
-      <c r="B233" s="125"/>
-      <c r="C233" s="126"/>
-      <c r="D233" s="126"/>
-      <c r="I233" s="126"/>
-      <c r="J233" s="127"/>
-    </row>
-    <row r="234" spans="2:10" s="124" customFormat="1">
-      <c r="B234" s="125"/>
-      <c r="C234" s="12" t="s">
+      <c r="H236" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="D234" s="124" t="s">
-        <v>185</v>
-      </c>
-      <c r="G234" s="126"/>
-      <c r="I234" s="126"/>
-      <c r="J234" s="127"/>
-    </row>
-    <row r="235" spans="2:10" s="124" customFormat="1">
-      <c r="B235" s="125"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="124" t="s">
-        <v>186</v>
-      </c>
-      <c r="E235" s="124" t="s">
-        <v>187</v>
-      </c>
-      <c r="G235" s="126"/>
-      <c r="I235" s="126"/>
-      <c r="J235" s="127"/>
-    </row>
-    <row r="236" spans="2:10" s="124" customFormat="1">
-      <c r="B236" s="125"/>
-      <c r="C236" s="126"/>
-      <c r="G236" s="126"/>
       <c r="I236" s="126"/>
       <c r="J236" s="127"/>
     </row>
-    <row r="237" spans="2:10" s="124" customFormat="1">
-      <c r="B237" s="125"/>
-      <c r="C237" s="126"/>
-      <c r="D237" s="135" t="str">
-        <f>Dashboard!C47</f>
-        <v>technical_lifetime</v>
-      </c>
-      <c r="E237" s="136">
-        <v>15</v>
-      </c>
-      <c r="F237" s="137" t="s">
-        <v>1</v>
-      </c>
-      <c r="G237" s="137"/>
-      <c r="H237" s="126"/>
-      <c r="I237" s="126"/>
-      <c r="J237" s="127"/>
-    </row>
-    <row r="238" spans="2:10" s="124" customFormat="1">
+    <row r="237" spans="1:10">
+      <c r="A237" s="102"/>
+      <c r="B237" s="103"/>
+    </row>
+    <row r="238" spans="1:10" s="124" customFormat="1">
       <c r="B238" s="125"/>
       <c r="C238" s="126"/>
-      <c r="D238" s="135" t="str">
-        <f>Dashboard!C35</f>
-        <v>cost_of_installing</v>
-      </c>
-      <c r="E238" s="124">
-        <v>1000</v>
-      </c>
-      <c r="F238" s="124" t="s">
-        <v>28</v>
-      </c>
+      <c r="D238" s="126"/>
+      <c r="E238" s="126"/>
+      <c r="F238" s="126"/>
       <c r="G238" s="126"/>
       <c r="H238" s="126"/>
       <c r="I238" s="126"/>
       <c r="J238" s="127"/>
     </row>
-    <row r="239" spans="2:10" s="124" customFormat="1">
+    <row r="239" spans="1:10" s="124" customFormat="1">
       <c r="B239" s="125"/>
-      <c r="C239" s="126"/>
-      <c r="D239" s="135" t="str">
-        <f>Dashboard!C37</f>
-        <v>fixed_operation_and_maintenance_costs_per_year</v>
-      </c>
-      <c r="E239" s="124">
-        <v>200</v>
-      </c>
-      <c r="F239" s="124" t="s">
-        <v>47</v>
-      </c>
+      <c r="C239" s="134" t="str">
+        <f>'Research data'!L3</f>
+        <v>Ecofys</v>
+      </c>
+      <c r="D239" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="E239" s="126">
+        <v>65</v>
+      </c>
+      <c r="F239" s="126"/>
       <c r="G239" s="126"/>
       <c r="H239" s="126"/>
       <c r="I239" s="126"/>
       <c r="J239" s="127"/>
     </row>
-    <row r="240" spans="2:10" s="124" customFormat="1">
+    <row r="240" spans="1:10" s="124" customFormat="1">
       <c r="B240" s="125"/>
       <c r="C240" s="126"/>
-      <c r="D240" s="135" t="str">
-        <f>Dashboard!C30</f>
-        <v>heat_output_capacity</v>
-      </c>
-      <c r="E240" s="140">
-        <f>H241/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F240" s="124" t="s">
-        <v>58</v>
-      </c>
+      <c r="D240" s="229" t="s">
+        <v>241</v>
+      </c>
+      <c r="E240" s="126"/>
+      <c r="F240" s="126"/>
       <c r="G240" s="126"/>
       <c r="H240" s="126"/>
       <c r="I240" s="126"/>
       <c r="J240" s="127"/>
     </row>
-    <row r="241" spans="1:10" s="124" customFormat="1">
+    <row r="241" spans="2:10" s="124" customFormat="1">
       <c r="B241" s="125"/>
       <c r="C241" s="126"/>
+      <c r="D241" s="232" t="s">
+        <v>250</v>
+      </c>
+      <c r="E241" s="126"/>
       <c r="F241" s="126"/>
-      <c r="H241" s="126">
-        <v>5</v>
-      </c>
-      <c r="I241" s="126" t="s">
-        <v>110</v>
-      </c>
+      <c r="G241" s="126"/>
+      <c r="H241" s="126"/>
+      <c r="I241" s="126"/>
       <c r="J241" s="127"/>
     </row>
-    <row r="242" spans="1:10" s="124" customFormat="1">
+    <row r="242" spans="2:10" s="124" customFormat="1">
       <c r="B242" s="125"/>
       <c r="C242" s="126"/>
-      <c r="D242" s="126" t="s">
-        <v>191</v>
-      </c>
+      <c r="D242" s="126"/>
+      <c r="E242" s="126"/>
       <c r="F242" s="126"/>
+      <c r="G242" s="126"/>
       <c r="H242" s="126"/>
-      <c r="I242" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="J242" s="127" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" s="124" customFormat="1">
+      <c r="I242" s="126"/>
+      <c r="J242" s="127"/>
+    </row>
+    <row r="243" spans="2:10" s="124" customFormat="1">
       <c r="B243" s="125"/>
       <c r="C243" s="126"/>
-      <c r="D243" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="G243" s="126"/>
-      <c r="H243" s="126"/>
+      <c r="D243" s="231" t="s">
+        <v>237</v>
+      </c>
+      <c r="E243" s="231">
+        <v>35</v>
+      </c>
+      <c r="F243" s="231">
+        <v>45</v>
+      </c>
+      <c r="G243" s="231">
+        <v>50</v>
+      </c>
       <c r="I243" s="126"/>
       <c r="J243" s="127"/>
     </row>
-    <row r="244" spans="1:10" s="124" customFormat="1">
+    <row r="244" spans="2:10" s="124" customFormat="1">
       <c r="B244" s="125"/>
-      <c r="D244" s="131" t="s">
-        <v>180</v>
-      </c>
-      <c r="E244" s="124">
+      <c r="C244" s="126"/>
+      <c r="D244" s="230" t="s">
+        <v>235</v>
+      </c>
+      <c r="E244" s="235">
         <v>3.25</v>
       </c>
-      <c r="F244" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="G244" s="126"/>
-      <c r="H244" s="126"/>
+      <c r="F244" s="235">
+        <f>G244-((G$243-F$243)/(G$243-E$243))*(G244-E244)</f>
+        <v>2.3233333333333333</v>
+      </c>
+      <c r="G244" s="235">
+        <v>1.86</v>
+      </c>
       <c r="I244" s="126"/>
       <c r="J244" s="127"/>
     </row>
-    <row r="245" spans="1:10" s="124" customFormat="1">
+    <row r="245" spans="2:10" s="124" customFormat="1">
       <c r="B245" s="125"/>
-      <c r="D245" s="131" t="s">
-        <v>169</v>
-      </c>
-      <c r="E245" s="124">
+      <c r="C245" s="126"/>
+      <c r="D245" s="230" t="s">
+        <v>236</v>
+      </c>
+      <c r="E245" s="235">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F245" s="124" t="s">
-        <v>190</v>
-      </c>
-      <c r="H245" s="126"/>
+      <c r="F245" s="235">
+        <f>G245-((G$243-F$243)/(G$243-E$243))*(G245-E245)</f>
+        <v>5.7833333333333327E-2</v>
+      </c>
+      <c r="G245" s="235">
+        <v>4.2999999999999997E-2</v>
+      </c>
       <c r="I245" s="126"/>
       <c r="J245" s="127"/>
     </row>
-    <row r="246" spans="1:10" s="124" customFormat="1">
+    <row r="246" spans="2:10" s="124" customFormat="1">
       <c r="B246" s="125"/>
-      <c r="C246" s="18"/>
-      <c r="D246" s="138"/>
-      <c r="F246" s="126"/>
-      <c r="H246" s="126"/>
+      <c r="C246" s="126"/>
+      <c r="D246" s="228" t="s">
+        <v>238</v>
+      </c>
+      <c r="E246" s="229" t="s">
+        <v>239</v>
+      </c>
+      <c r="G246" s="229" t="s">
+        <v>239</v>
+      </c>
       <c r="I246" s="126"/>
       <c r="J246" s="127"/>
     </row>
-    <row r="247" spans="1:10" s="124" customFormat="1">
+    <row r="247" spans="2:10" s="124" customFormat="1">
       <c r="B247" s="125"/>
-      <c r="D247" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="E247" s="126">
-        <v>7</v>
-      </c>
-      <c r="F247" s="126" t="s">
-        <v>189</v>
-      </c>
-      <c r="H247" s="126"/>
+      <c r="C247" s="126"/>
+      <c r="D247" s="126"/>
       <c r="I247" s="126"/>
       <c r="J247" s="127"/>
     </row>
-    <row r="248" spans="1:10">
-      <c r="A248" s="102"/>
-      <c r="B248" s="103"/>
-      <c r="D248" s="139" t="str">
+    <row r="248" spans="2:10" s="124" customFormat="1">
+      <c r="B248" s="125"/>
+      <c r="C248" s="126"/>
+      <c r="I248" s="126"/>
+      <c r="J248" s="127"/>
+    </row>
+    <row r="249" spans="2:10" s="124" customFormat="1">
+      <c r="B249" s="125"/>
+      <c r="D249" s="130" t="s">
+        <v>164</v>
+      </c>
+      <c r="E249" s="234">
+        <f>F244</f>
+        <v>2.3233333333333333</v>
+      </c>
+      <c r="F249" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="I249" s="126"/>
+      <c r="J249" s="127"/>
+    </row>
+    <row r="250" spans="2:10" s="124" customFormat="1">
+      <c r="B250" s="125"/>
+      <c r="D250" s="130" t="s">
+        <v>168</v>
+      </c>
+      <c r="E250" s="234">
+        <f>F245</f>
+        <v>5.7833333333333327E-2</v>
+      </c>
+      <c r="F250" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="I250" s="126"/>
+      <c r="J250" s="127"/>
+    </row>
+    <row r="251" spans="2:10" s="124" customFormat="1">
+      <c r="B251" s="125"/>
+      <c r="I251" s="126"/>
+      <c r="J251" s="127"/>
+    </row>
+    <row r="252" spans="2:10" s="124" customFormat="1">
+      <c r="B252" s="125"/>
+      <c r="C252" s="131"/>
+      <c r="D252" s="233" t="s">
+        <v>251</v>
+      </c>
+      <c r="I252" s="126"/>
+      <c r="J252" s="127"/>
+    </row>
+    <row r="253" spans="2:10" s="124" customFormat="1">
+      <c r="B253" s="125"/>
+      <c r="C253" s="126"/>
+      <c r="D253" s="228" t="s">
+        <v>240</v>
+      </c>
+      <c r="I253" s="126"/>
+      <c r="J253" s="127"/>
+    </row>
+    <row r="254" spans="2:10" s="124" customFormat="1">
+      <c r="B254" s="125"/>
+      <c r="C254" s="126"/>
+      <c r="D254" s="126"/>
+      <c r="I254" s="126"/>
+      <c r="J254" s="127"/>
+    </row>
+    <row r="255" spans="2:10" s="124" customFormat="1">
+      <c r="B255" s="125"/>
+      <c r="C255" s="126"/>
+      <c r="D255" s="126"/>
+      <c r="I255" s="126"/>
+      <c r="J255" s="127"/>
+    </row>
+    <row r="256" spans="2:10" s="124" customFormat="1">
+      <c r="B256" s="125"/>
+      <c r="C256" s="126"/>
+      <c r="D256" s="126"/>
+      <c r="I256" s="126"/>
+      <c r="J256" s="127"/>
+    </row>
+    <row r="257" spans="1:10" s="124" customFormat="1">
+      <c r="B257" s="125"/>
+      <c r="C257" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D257" s="124" t="s">
+        <v>182</v>
+      </c>
+      <c r="G257" s="126"/>
+      <c r="I257" s="126"/>
+      <c r="J257" s="127"/>
+    </row>
+    <row r="258" spans="1:10" s="124" customFormat="1">
+      <c r="B258" s="125"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="E258" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="G258" s="126"/>
+      <c r="I258" s="126"/>
+      <c r="J258" s="127"/>
+    </row>
+    <row r="259" spans="1:10" s="124" customFormat="1">
+      <c r="B259" s="125"/>
+      <c r="C259" s="126"/>
+      <c r="G259" s="126"/>
+      <c r="I259" s="126"/>
+      <c r="J259" s="127"/>
+    </row>
+    <row r="260" spans="1:10" s="124" customFormat="1">
+      <c r="B260" s="125"/>
+      <c r="C260" s="126"/>
+      <c r="D260" s="135" t="str">
+        <f>Dashboard!C47</f>
+        <v>technical_lifetime</v>
+      </c>
+      <c r="E260" s="136">
+        <v>15</v>
+      </c>
+      <c r="F260" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="G260" s="137"/>
+      <c r="H260" s="126"/>
+      <c r="I260" s="126"/>
+      <c r="J260" s="127"/>
+    </row>
+    <row r="261" spans="1:10" s="124" customFormat="1">
+      <c r="B261" s="125"/>
+      <c r="C261" s="126"/>
+      <c r="D261" s="135" t="str">
+        <f>Dashboard!C35</f>
+        <v>cost_of_installing</v>
+      </c>
+      <c r="E261" s="124">
+        <v>1000</v>
+      </c>
+      <c r="F261" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="G261" s="126"/>
+      <c r="H261" s="126"/>
+      <c r="I261" s="126"/>
+      <c r="J261" s="127"/>
+    </row>
+    <row r="262" spans="1:10" s="124" customFormat="1">
+      <c r="B262" s="125"/>
+      <c r="C262" s="126"/>
+      <c r="D262" s="135" t="str">
+        <f>Dashboard!C37</f>
+        <v>fixed_operation_and_maintenance_costs_per_year</v>
+      </c>
+      <c r="E262" s="124">
+        <v>200</v>
+      </c>
+      <c r="F262" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="G262" s="126"/>
+      <c r="H262" s="126"/>
+      <c r="I262" s="126"/>
+      <c r="J262" s="127"/>
+    </row>
+    <row r="263" spans="1:10" s="124" customFormat="1">
+      <c r="B263" s="125"/>
+      <c r="C263" s="126"/>
+      <c r="D263" s="135" t="str">
+        <f>Dashboard!C30</f>
+        <v>heat_output_capacity</v>
+      </c>
+      <c r="E263" s="140">
+        <f>H264/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F263" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="G263" s="126"/>
+      <c r="H263" s="126"/>
+      <c r="I263" s="126"/>
+      <c r="J263" s="127"/>
+    </row>
+    <row r="264" spans="1:10" s="124" customFormat="1">
+      <c r="B264" s="125"/>
+      <c r="C264" s="126"/>
+      <c r="F264" s="126"/>
+      <c r="H264" s="126">
+        <v>5</v>
+      </c>
+      <c r="I264" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="J264" s="127"/>
+    </row>
+    <row r="265" spans="1:10" s="124" customFormat="1">
+      <c r="B265" s="125"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="138"/>
+      <c r="F265" s="126"/>
+      <c r="H265" s="126"/>
+      <c r="I265" s="126"/>
+      <c r="J265" s="127"/>
+    </row>
+    <row r="266" spans="1:10" s="124" customFormat="1">
+      <c r="B266" s="125"/>
+      <c r="D266" s="124" t="s">
+        <v>185</v>
+      </c>
+      <c r="E266" s="126">
+        <v>7</v>
+      </c>
+      <c r="F266" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="H266" s="126"/>
+      <c r="I266" s="126"/>
+      <c r="J266" s="127"/>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="A267" s="102"/>
+      <c r="B267" s="103"/>
+      <c r="D267" s="139" t="str">
         <f>'Research data'!C14</f>
         <v>fever.capacity.electricity</v>
       </c>
-      <c r="E248" s="126">
-        <f>H241/(E247*E245+E244)/1000</f>
-        <v>1.2944983818770229E-3</v>
-      </c>
-      <c r="F248" s="126" t="s">
+      <c r="E267" s="126">
+        <f>H264/(E266*E250+E249)/1000</f>
+        <v>1.8327326043130307E-3</v>
+      </c>
+      <c r="F267" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="G248" s="106"/>
-    </row>
-    <row r="249" spans="1:10">
-      <c r="A249" s="102"/>
-      <c r="B249" s="103"/>
-      <c r="E249" s="124"/>
-      <c r="F249" s="126"/>
-      <c r="G249" s="106"/>
-    </row>
-    <row r="250" spans="1:10">
-      <c r="A250" s="102"/>
-      <c r="B250" s="103"/>
-      <c r="D250" s="138" t="str">
+      <c r="G267" s="106"/>
+      <c r="J267" s="94"/>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268" s="102"/>
+      <c r="B268" s="103"/>
+      <c r="E268" s="124"/>
+      <c r="F268" s="126"/>
+      <c r="G268" s="106"/>
+      <c r="J268" s="94"/>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269" s="102"/>
+      <c r="B269" s="103"/>
+      <c r="D269" s="138" t="str">
         <f>Dashboard!C$22</f>
         <v>storage.volume</v>
       </c>
-      <c r="E250" s="124">
+      <c r="E269" s="124">
         <v>0</v>
       </c>
-      <c r="F250" s="126" t="s">
-        <v>171</v>
-      </c>
-      <c r="G250" s="124" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10">
-      <c r="A251" s="102"/>
-      <c r="B251" s="103"/>
-    </row>
-    <row r="252" spans="1:10">
-      <c r="A252" s="102"/>
-      <c r="B252" s="103"/>
-    </row>
-    <row r="253" spans="1:10">
-      <c r="A253" s="102"/>
-      <c r="B253" s="103"/>
-    </row>
-    <row r="254" spans="1:10">
-      <c r="A254" s="102"/>
-      <c r="B254" s="103"/>
-    </row>
-    <row r="255" spans="1:10">
-      <c r="A255" s="102"/>
-      <c r="B255" s="103"/>
-    </row>
-    <row r="256" spans="1:10">
-      <c r="A256" s="102"/>
-      <c r="B256" s="103"/>
-    </row>
-    <row r="257" spans="1:10">
-      <c r="A257" s="102"/>
-      <c r="B257" s="103"/>
-    </row>
-    <row r="258" spans="1:10" s="124" customFormat="1">
-      <c r="B258" s="125"/>
-      <c r="C258" s="134" t="str">
+      <c r="F269" s="126" t="s">
+        <v>170</v>
+      </c>
+      <c r="G269" s="124" t="s">
+        <v>224</v>
+      </c>
+      <c r="J269" s="94"/>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="A270" s="102"/>
+      <c r="B270" s="103"/>
+      <c r="J270" s="94"/>
+    </row>
+    <row r="271" spans="1:10">
+      <c r="A271" s="102"/>
+      <c r="B271" s="103"/>
+      <c r="J271" s="94"/>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="A272" s="102"/>
+      <c r="B272" s="103"/>
+      <c r="J272" s="94"/>
+    </row>
+    <row r="273" spans="1:10">
+      <c r="A273" s="102"/>
+      <c r="B273" s="103"/>
+      <c r="J273" s="94"/>
+    </row>
+    <row r="274" spans="1:10">
+      <c r="A274" s="102"/>
+      <c r="B274" s="103"/>
+      <c r="J274" s="94"/>
+    </row>
+    <row r="275" spans="1:10">
+      <c r="A275" s="102"/>
+      <c r="B275" s="103"/>
+      <c r="J275" s="94"/>
+    </row>
+    <row r="276" spans="1:10">
+      <c r="A276" s="102"/>
+      <c r="B276" s="103"/>
+      <c r="J276" s="94"/>
+    </row>
+    <row r="277" spans="1:10" s="124" customFormat="1">
+      <c r="B277" s="125"/>
+      <c r="C277" s="134" t="str">
         <f>'Research data'!M3</f>
         <v>ISSO 72 and Quintel calc</v>
       </c>
-      <c r="D258" s="132"/>
-      <c r="G258" s="124" t="s">
-        <v>182</v>
-      </c>
-      <c r="I258" s="126"/>
-      <c r="J258" s="127"/>
-    </row>
-    <row r="259" spans="1:10" s="124" customFormat="1">
-      <c r="B259" s="125"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="E259" s="133">
+      <c r="D277" s="132"/>
+      <c r="G277" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="I277" s="126"/>
+      <c r="J277" s="127"/>
+    </row>
+    <row r="278" spans="1:10" s="124" customFormat="1">
+      <c r="B278" s="125"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="E278" s="133">
         <v>10</v>
       </c>
-      <c r="F259" s="133" t="s">
-        <v>184</v>
-      </c>
-      <c r="I259" s="126"/>
-      <c r="J259" s="127"/>
-    </row>
-    <row r="260" spans="1:10" s="124" customFormat="1">
-      <c r="B260" s="125"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="124" t="s">
+      <c r="F278" s="133" t="s">
+        <v>181</v>
+      </c>
+      <c r="I278" s="126"/>
+      <c r="J278" s="127"/>
+    </row>
+    <row r="279" spans="1:10" s="124" customFormat="1">
+      <c r="B279" s="125"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="E279" s="133">
+        <v>10</v>
+      </c>
+      <c r="F279" s="133" t="s">
+        <v>188</v>
+      </c>
+      <c r="I279" s="126"/>
+      <c r="J279" s="127"/>
+    </row>
+    <row r="280" spans="1:10" s="124" customFormat="1">
+      <c r="B280" s="125"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="E280" s="133">
+        <v>4.18</v>
+      </c>
+      <c r="F280" s="133" t="s">
+        <v>190</v>
+      </c>
+      <c r="I280" s="126"/>
+      <c r="J280" s="127"/>
+    </row>
+    <row r="281" spans="1:10" s="124" customFormat="1">
+      <c r="B281" s="125"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="E281" s="133">
+        <v>10</v>
+      </c>
+      <c r="F281" s="133" t="s">
+        <v>186</v>
+      </c>
+      <c r="G281" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="I281" s="126"/>
+      <c r="J281" s="127"/>
+    </row>
+    <row r="282" spans="1:10" s="124" customFormat="1">
+      <c r="B282" s="125"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="E260" s="133">
-        <v>10</v>
-      </c>
-      <c r="F260" s="133" t="s">
+      <c r="E282" s="141">
+        <f>E278*60*E279/E280/E281</f>
+        <v>143.54066985645935</v>
+      </c>
+      <c r="F282" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="I260" s="126"/>
-      <c r="J260" s="127"/>
-    </row>
-    <row r="261" spans="1:10" s="124" customFormat="1">
-      <c r="B261" s="125"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="124" t="s">
+      <c r="I282" s="126"/>
+      <c r="J282" s="127"/>
+    </row>
+    <row r="283" spans="1:10" s="124" customFormat="1">
+      <c r="B283" s="125"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="E261" s="133">
-        <v>4.18</v>
-      </c>
-      <c r="F261" s="133" t="s">
-        <v>196</v>
-      </c>
-      <c r="I261" s="126"/>
-      <c r="J261" s="127"/>
-    </row>
-    <row r="262" spans="1:10" s="124" customFormat="1">
-      <c r="B262" s="125"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="124" t="s">
-        <v>197</v>
-      </c>
-      <c r="E262" s="133">
-        <v>10</v>
-      </c>
-      <c r="F262" s="133" t="s">
-        <v>189</v>
-      </c>
-      <c r="G262" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="I262" s="126"/>
-      <c r="J262" s="127"/>
-    </row>
-    <row r="263" spans="1:10" s="124" customFormat="1">
-      <c r="B263" s="125"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="124" t="s">
-        <v>199</v>
-      </c>
-      <c r="E263" s="141">
-        <f>E259*60*E260/E261/E262</f>
-        <v>143.54066985645935</v>
-      </c>
-      <c r="F263" s="133" t="s">
-        <v>200</v>
-      </c>
-      <c r="I263" s="126"/>
-      <c r="J263" s="127"/>
-    </row>
-    <row r="264" spans="1:10" s="124" customFormat="1">
-      <c r="B264" s="125"/>
-      <c r="C264" s="12"/>
-      <c r="D264" s="124" t="s">
-        <v>201</v>
-      </c>
-      <c r="E264" s="216">
+      <c r="E283" s="213">
         <v>3600000</v>
       </c>
-      <c r="F264" s="133" t="s">
-        <v>215</v>
-      </c>
-      <c r="I264" s="126"/>
-      <c r="J264" s="127"/>
-    </row>
-    <row r="265" spans="1:10" s="124" customFormat="1">
-      <c r="B265" s="125"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="138" t="str">
+      <c r="F283" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="I283" s="126"/>
+      <c r="J283" s="127"/>
+    </row>
+    <row r="284" spans="1:10" s="124" customFormat="1">
+      <c r="B284" s="125"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="138" t="str">
         <f>Dashboard!C$22</f>
         <v>storage.volume</v>
       </c>
-      <c r="E265" s="215">
-        <f>MROUND(E263*E262*E261/E264,0.0001)</f>
+      <c r="E284" s="212">
+        <f>MROUND(E282*E281*E280/E283,0.0001)</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="F265" s="133" t="s">
-        <v>171</v>
-      </c>
-      <c r="H265"/>
-      <c r="I265" s="126"/>
-      <c r="J265" s="127"/>
-    </row>
-    <row r="266" spans="1:10" s="124" customFormat="1">
-      <c r="B266" s="125"/>
-      <c r="C266" s="12"/>
-      <c r="I266" s="126"/>
-      <c r="J266" s="127"/>
-    </row>
-    <row r="267" spans="1:10" s="124" customFormat="1">
-      <c r="B267" s="125"/>
-      <c r="C267" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D267" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="E267" s="133">
+      <c r="F284" s="133" t="s">
+        <v>170</v>
+      </c>
+      <c r="H284"/>
+      <c r="I284" s="126"/>
+      <c r="J284" s="127"/>
+    </row>
+    <row r="285" spans="1:10" s="124" customFormat="1">
+      <c r="B285" s="125"/>
+      <c r="C285" s="12"/>
+      <c r="I285" s="126"/>
+      <c r="J285" s="127"/>
+    </row>
+    <row r="286" spans="1:10" s="124" customFormat="1">
+      <c r="B286" s="125"/>
+      <c r="C286" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D286" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="E286" s="133">
         <v>20</v>
       </c>
-      <c r="F267" s="133" t="s">
-        <v>184</v>
-      </c>
-      <c r="I267" s="126"/>
-      <c r="J267" s="127"/>
-    </row>
-    <row r="268" spans="1:10" s="124" customFormat="1">
-      <c r="B268" s="125"/>
-      <c r="C268" s="12"/>
-      <c r="D268" s="124" t="s">
+      <c r="F286" s="133" t="s">
+        <v>181</v>
+      </c>
+      <c r="I286" s="126"/>
+      <c r="J286" s="127"/>
+    </row>
+    <row r="287" spans="1:10" s="124" customFormat="1">
+      <c r="B287" s="125"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="E287" s="133">
+        <v>10</v>
+      </c>
+      <c r="F287" s="133" t="s">
+        <v>188</v>
+      </c>
+      <c r="I287" s="126"/>
+      <c r="J287" s="127"/>
+    </row>
+    <row r="288" spans="1:10" s="124" customFormat="1">
+      <c r="B288" s="125"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="E288" s="133">
+        <v>4.18</v>
+      </c>
+      <c r="F288" s="133" t="s">
+        <v>190</v>
+      </c>
+      <c r="I288" s="126"/>
+      <c r="J288" s="127"/>
+    </row>
+    <row r="289" spans="1:10" s="124" customFormat="1">
+      <c r="B289" s="125"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="E289" s="133">
+        <v>10</v>
+      </c>
+      <c r="F289" s="133" t="s">
+        <v>186</v>
+      </c>
+      <c r="G289" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="I289" s="126"/>
+      <c r="J289" s="127"/>
+    </row>
+    <row r="290" spans="1:10" s="124" customFormat="1">
+      <c r="B290" s="125"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="E268" s="133">
-        <v>10</v>
-      </c>
-      <c r="F268" s="133" t="s">
+      <c r="E290" s="141">
+        <f>E286*60*E287/E288/E289</f>
+        <v>287.08133971291869</v>
+      </c>
+      <c r="F290" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="I268" s="126"/>
-      <c r="J268" s="127"/>
-    </row>
-    <row r="269" spans="1:10" s="124" customFormat="1">
-      <c r="B269" s="125"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="124" t="s">
+      <c r="I290" s="126"/>
+      <c r="J290" s="127"/>
+    </row>
+    <row r="291" spans="1:10" s="124" customFormat="1">
+      <c r="B291" s="125"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="E269" s="133">
-        <v>4.18</v>
-      </c>
-      <c r="F269" s="133" t="s">
+      <c r="E291" s="213">
+        <v>3600000</v>
+      </c>
+      <c r="F291" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="I269" s="126"/>
-      <c r="J269" s="127"/>
-    </row>
-    <row r="270" spans="1:10" s="124" customFormat="1">
-      <c r="B270" s="125"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="124" t="s">
-        <v>197</v>
-      </c>
-      <c r="E270" s="133">
-        <v>10</v>
-      </c>
-      <c r="F270" s="133" t="s">
-        <v>189</v>
-      </c>
-      <c r="G270" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="I270" s="126"/>
-      <c r="J270" s="127"/>
-    </row>
-    <row r="271" spans="1:10" s="124" customFormat="1">
-      <c r="B271" s="125"/>
-      <c r="C271" s="12"/>
-      <c r="D271" s="124" t="s">
-        <v>199</v>
-      </c>
-      <c r="E271" s="141">
-        <f>E267*60*E268/E269/E270</f>
-        <v>287.08133971291869</v>
-      </c>
-      <c r="F271" s="133" t="s">
-        <v>200</v>
-      </c>
-      <c r="I271" s="126"/>
-      <c r="J271" s="127"/>
-    </row>
-    <row r="272" spans="1:10" s="124" customFormat="1">
-      <c r="B272" s="125"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="124" t="s">
-        <v>201</v>
-      </c>
-      <c r="E272" s="216">
-        <v>3600000</v>
-      </c>
-      <c r="F272" s="133" t="s">
-        <v>202</v>
-      </c>
-      <c r="I272" s="126"/>
-      <c r="J272" s="127"/>
-    </row>
-    <row r="273" spans="1:10" s="124" customFormat="1">
-      <c r="B273" s="125"/>
-      <c r="C273" s="12"/>
-      <c r="D273" s="138" t="str">
+      <c r="I291" s="126"/>
+      <c r="J291" s="127"/>
+    </row>
+    <row r="292" spans="1:10" s="124" customFormat="1">
+      <c r="B292" s="125"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="138" t="str">
         <f>Dashboard!C22</f>
         <v>storage.volume</v>
       </c>
-      <c r="E273" s="215">
-        <f>MROUND(E271*E270*E269/E272,0.0001)</f>
+      <c r="E292" s="212">
+        <f>MROUND(E290*E289*E288/E291,0.0001)</f>
         <v>3.3E-3</v>
       </c>
-      <c r="F273" s="133" t="s">
-        <v>203</v>
-      </c>
-      <c r="I273" s="126"/>
-      <c r="J273" s="127"/>
-    </row>
-    <row r="274" spans="1:10" s="124" customFormat="1">
-      <c r="B274" s="125"/>
-      <c r="J274" s="127"/>
-    </row>
-    <row r="275" spans="1:10" s="124" customFormat="1">
-      <c r="B275" s="125"/>
-      <c r="J275" s="127"/>
-    </row>
-    <row r="276" spans="1:10" s="124" customFormat="1">
-      <c r="B276" s="125"/>
-      <c r="J276" s="127"/>
-    </row>
-    <row r="277" spans="1:10" s="124" customFormat="1">
-      <c r="B277" s="125"/>
-      <c r="J277" s="127"/>
-    </row>
-    <row r="278" spans="1:10" s="124" customFormat="1">
-      <c r="B278" s="125"/>
-      <c r="J278" s="127"/>
-    </row>
-    <row r="279" spans="1:10" s="124" customFormat="1">
-      <c r="B279" s="125"/>
-      <c r="J279" s="127"/>
-    </row>
-    <row r="280" spans="1:10" s="124" customFormat="1">
-      <c r="B280" s="125"/>
-      <c r="J280" s="127"/>
-    </row>
-    <row r="281" spans="1:10" s="124" customFormat="1">
-      <c r="B281" s="125"/>
-      <c r="J281" s="127"/>
-    </row>
-    <row r="282" spans="1:10" s="124" customFormat="1">
-      <c r="B282" s="125"/>
-      <c r="J282" s="127"/>
-    </row>
-    <row r="283" spans="1:10">
-      <c r="A283" s="102"/>
-      <c r="B283" s="103"/>
-    </row>
-    <row r="284" spans="1:10" s="124" customFormat="1">
-      <c r="B284" s="125"/>
-      <c r="C284" s="126"/>
-      <c r="D284" s="126"/>
-      <c r="E284" s="126"/>
-      <c r="F284" s="126"/>
-      <c r="G284" s="126"/>
-      <c r="H284" s="126"/>
-      <c r="I284" s="126"/>
-      <c r="J284" s="127"/>
-    </row>
-    <row r="285" spans="1:10" s="124" customFormat="1">
-      <c r="B285" s="125"/>
-      <c r="C285" s="217" t="s">
-        <v>217</v>
-      </c>
-      <c r="D285" s="217"/>
-      <c r="E285" s="126"/>
-      <c r="F285" s="126"/>
-      <c r="G285" s="126"/>
-      <c r="H285" s="126"/>
-      <c r="I285" s="126"/>
-      <c r="J285" s="127"/>
-    </row>
-    <row r="286" spans="1:10" s="124" customFormat="1">
-      <c r="B286" s="125"/>
-      <c r="C286" s="126"/>
-      <c r="D286" s="126" t="s">
-        <v>218</v>
-      </c>
-      <c r="E286">
-        <v>4.18</v>
-      </c>
-      <c r="F286" t="s">
-        <v>196</v>
-      </c>
-      <c r="G286" s="126"/>
-      <c r="H286" s="126"/>
-      <c r="I286" s="126"/>
-      <c r="J286" s="127"/>
-    </row>
-    <row r="287" spans="1:10" s="124" customFormat="1">
-      <c r="B287" s="125"/>
-      <c r="C287" s="126"/>
-      <c r="D287" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="E287">
-        <v>10</v>
-      </c>
-      <c r="F287" t="s">
-        <v>189</v>
-      </c>
-      <c r="G287" s="126"/>
-      <c r="H287" s="126"/>
-      <c r="I287" s="126"/>
-      <c r="J287" s="127"/>
-    </row>
-    <row r="288" spans="1:10" s="124" customFormat="1">
-      <c r="B288" s="125"/>
-      <c r="C288" s="126"/>
-      <c r="D288" s="126"/>
-      <c r="E288" s="126">
-        <f>E286*E287</f>
-        <v>41.8</v>
-      </c>
-      <c r="F288" s="126" t="s">
-        <v>220</v>
-      </c>
-      <c r="G288" s="126"/>
-      <c r="H288" s="126"/>
-      <c r="I288" s="126"/>
-      <c r="J288" s="127"/>
-    </row>
-    <row r="289" spans="2:10" s="124" customFormat="1">
-      <c r="B289" s="125"/>
-      <c r="C289" s="126"/>
-      <c r="D289" s="126"/>
-      <c r="E289" s="126">
-        <v>3600000</v>
-      </c>
-      <c r="F289" s="126" t="s">
-        <v>221</v>
-      </c>
-      <c r="G289" s="126"/>
-      <c r="H289" s="126"/>
-      <c r="I289" s="126"/>
-      <c r="J289" s="127"/>
-    </row>
-    <row r="290" spans="2:10" s="124" customFormat="1">
-      <c r="B290" s="125"/>
-      <c r="C290" s="126"/>
-      <c r="D290" s="126"/>
-      <c r="E290" s="218">
-        <f>E288/E289</f>
-        <v>1.161111111111111E-5</v>
-      </c>
-      <c r="F290" s="126" t="s">
-        <v>222</v>
-      </c>
-      <c r="G290" s="126"/>
-      <c r="H290" s="126"/>
-      <c r="I290" s="126"/>
-      <c r="J290" s="127"/>
-    </row>
-    <row r="291" spans="2:10" s="124" customFormat="1">
-      <c r="B291" s="125"/>
-      <c r="C291" s="126"/>
-      <c r="D291" s="126"/>
-      <c r="E291" s="124">
-        <v>500</v>
-      </c>
-      <c r="F291" s="124" t="s">
-        <v>200</v>
-      </c>
-      <c r="G291" s="126"/>
-      <c r="H291" s="126"/>
-      <c r="I291" s="126"/>
-      <c r="J291" s="127"/>
-    </row>
-    <row r="292" spans="2:10" s="124" customFormat="1">
-      <c r="B292" s="125"/>
-      <c r="C292" s="126"/>
-      <c r="D292" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="E292" s="126">
-        <v>1159</v>
-      </c>
-      <c r="F292" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G292" s="126"/>
-      <c r="H292" s="126"/>
+      <c r="F292" s="133" t="s">
+        <v>197</v>
+      </c>
       <c r="I292" s="126"/>
       <c r="J292" s="127"/>
     </row>
-    <row r="293" spans="2:10" s="124" customFormat="1">
+    <row r="293" spans="1:10" s="124" customFormat="1">
       <c r="B293" s="125"/>
-      <c r="C293" s="126"/>
-      <c r="D293" s="126" t="s">
-        <v>224</v>
-      </c>
-      <c r="E293" s="140">
-        <f>E292/1.21</f>
-        <v>957.85123966942149</v>
-      </c>
-      <c r="F293" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G293" s="126"/>
-      <c r="H293" s="126"/>
-      <c r="I293" s="126"/>
       <c r="J293" s="127"/>
     </row>
-    <row r="294" spans="2:10" s="124" customFormat="1">
+    <row r="294" spans="1:10" s="124" customFormat="1">
       <c r="B294" s="125"/>
-      <c r="C294" s="126"/>
-      <c r="D294" s="126" t="s">
-        <v>225</v>
-      </c>
-      <c r="E294" s="219">
-        <f>E293/E291</f>
-        <v>1.9157024793388431</v>
-      </c>
-      <c r="F294" s="124" t="s">
-        <v>226</v>
-      </c>
-      <c r="G294" s="126"/>
-      <c r="H294" s="126"/>
-      <c r="I294" s="126"/>
       <c r="J294" s="127"/>
     </row>
-    <row r="295" spans="2:10" s="124" customFormat="1">
+    <row r="295" spans="1:10" s="124" customFormat="1">
       <c r="B295" s="125"/>
-      <c r="C295" s="126"/>
-      <c r="G295" s="126"/>
-      <c r="H295" s="126"/>
-      <c r="I295" s="126"/>
       <c r="J295" s="127"/>
     </row>
-    <row r="296" spans="2:10" s="124" customFormat="1">
+    <row r="296" spans="1:10" s="124" customFormat="1">
       <c r="B296" s="125"/>
-      <c r="C296" s="126"/>
-      <c r="D296" s="220" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E296" s="221">
-        <f>E294/E290</f>
-        <v>164988.7302779865</v>
-      </c>
-      <c r="F296" s="126" t="s">
-        <v>172</v>
-      </c>
-      <c r="G296" s="126"/>
-      <c r="H296" s="126"/>
-      <c r="I296" s="126"/>
       <c r="J296" s="127"/>
     </row>
-    <row r="297" spans="2:10" s="124" customFormat="1">
+    <row r="297" spans="1:10" s="124" customFormat="1">
       <c r="B297" s="125"/>
-      <c r="C297" s="126"/>
-      <c r="D297" s="220"/>
-      <c r="E297" s="222"/>
-      <c r="F297" s="126"/>
-      <c r="G297" s="126"/>
-      <c r="H297" s="126"/>
-      <c r="I297" s="126"/>
       <c r="J297" s="127"/>
     </row>
-    <row r="298" spans="2:10" s="124" customFormat="1">
+    <row r="298" spans="1:10" s="124" customFormat="1">
       <c r="B298" s="125"/>
-      <c r="C298" s="126"/>
-      <c r="D298" s="220"/>
-      <c r="E298" s="222"/>
-      <c r="F298" s="126"/>
-      <c r="G298" s="126"/>
-      <c r="H298" s="126"/>
-      <c r="I298" s="126"/>
       <c r="J298" s="127"/>
     </row>
-    <row r="299" spans="2:10" s="124" customFormat="1">
+    <row r="299" spans="1:10" s="124" customFormat="1">
       <c r="B299" s="125"/>
-      <c r="C299" s="126"/>
-      <c r="D299" s="220"/>
-      <c r="E299" s="222"/>
-      <c r="F299" s="126"/>
-      <c r="G299" s="126"/>
-      <c r="H299" s="126"/>
-      <c r="I299" s="126"/>
       <c r="J299" s="127"/>
     </row>
-    <row r="300" spans="2:10" s="124" customFormat="1">
+    <row r="300" spans="1:10" s="124" customFormat="1">
       <c r="B300" s="125"/>
-      <c r="C300" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D300" s="126"/>
-      <c r="E300" s="124">
-        <v>300</v>
-      </c>
-      <c r="F300" s="124" t="s">
-        <v>200</v>
-      </c>
-      <c r="G300" s="126"/>
-      <c r="H300" s="126"/>
-      <c r="I300" s="126"/>
       <c r="J300" s="127"/>
     </row>
-    <row r="301" spans="2:10" s="124" customFormat="1">
+    <row r="301" spans="1:10" s="124" customFormat="1">
       <c r="B301" s="125"/>
-      <c r="C301" s="126"/>
-      <c r="D301" s="126" t="s">
-        <v>224</v>
-      </c>
-      <c r="E301" s="140">
-        <v>539</v>
-      </c>
-      <c r="F301" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G301" s="126"/>
-      <c r="H301" s="126"/>
-      <c r="I301" s="126"/>
       <c r="J301" s="127"/>
     </row>
-    <row r="302" spans="2:10" s="124" customFormat="1">
-      <c r="B302" s="125"/>
-      <c r="C302" s="126"/>
-      <c r="D302" s="126" t="s">
-        <v>225</v>
-      </c>
-      <c r="E302" s="219">
-        <f>E301/E300</f>
-        <v>1.7966666666666666</v>
-      </c>
-      <c r="F302" s="124" t="s">
-        <v>226</v>
-      </c>
-      <c r="G302" s="126"/>
-      <c r="H302" s="126"/>
-      <c r="I302" s="126"/>
-      <c r="J302" s="127"/>
-    </row>
-    <row r="303" spans="2:10" s="124" customFormat="1">
+    <row r="302" spans="1:10">
+      <c r="A302" s="102"/>
+      <c r="B302" s="103"/>
+      <c r="J302" s="94"/>
+    </row>
+    <row r="303" spans="1:10" s="124" customFormat="1">
       <c r="B303" s="125"/>
       <c r="C303" s="126"/>
+      <c r="D303" s="126"/>
+      <c r="E303" s="126"/>
+      <c r="F303" s="126"/>
       <c r="G303" s="126"/>
       <c r="H303" s="126"/>
       <c r="I303" s="126"/>
       <c r="J303" s="127"/>
     </row>
-    <row r="304" spans="2:10" s="124" customFormat="1">
+    <row r="304" spans="1:10" s="124" customFormat="1">
       <c r="B304" s="125"/>
-      <c r="C304" s="126"/>
-      <c r="D304" s="220" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E304" s="221">
-        <f>E302/E290</f>
-        <v>154736.84210526317</v>
-      </c>
-      <c r="F304" s="126" t="s">
-        <v>172</v>
-      </c>
+      <c r="C304" s="214" t="s">
+        <v>211</v>
+      </c>
+      <c r="D304" s="214"/>
+      <c r="E304" s="126"/>
+      <c r="F304" s="126"/>
       <c r="G304" s="126"/>
       <c r="H304" s="126"/>
       <c r="I304" s="126"/>
@@ -10754,6 +10627,15 @@
     <row r="305" spans="2:10" s="124" customFormat="1">
       <c r="B305" s="125"/>
       <c r="C305" s="126"/>
+      <c r="D305" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="E305">
+        <v>4.18</v>
+      </c>
+      <c r="F305" t="s">
+        <v>190</v>
+      </c>
       <c r="G305" s="126"/>
       <c r="H305" s="126"/>
       <c r="I305" s="126"/>
@@ -10762,9 +10644,15 @@
     <row r="306" spans="2:10" s="124" customFormat="1">
       <c r="B306" s="125"/>
       <c r="C306" s="126"/>
-      <c r="D306" s="126"/>
-      <c r="E306" s="126"/>
-      <c r="F306" s="126"/>
+      <c r="D306" s="126" t="s">
+        <v>213</v>
+      </c>
+      <c r="E306">
+        <v>10</v>
+      </c>
+      <c r="F306" t="s">
+        <v>186</v>
+      </c>
       <c r="G306" s="126"/>
       <c r="H306" s="126"/>
       <c r="I306" s="126"/>
@@ -10774,8 +10662,13 @@
       <c r="B307" s="125"/>
       <c r="C307" s="126"/>
       <c r="D307" s="126"/>
-      <c r="E307" s="126"/>
-      <c r="F307" s="126"/>
+      <c r="E307" s="126">
+        <f>E305*E306</f>
+        <v>41.8</v>
+      </c>
+      <c r="F307" s="126" t="s">
+        <v>214</v>
+      </c>
       <c r="G307" s="126"/>
       <c r="H307" s="126"/>
       <c r="I307" s="126"/>
@@ -10785,8 +10678,12 @@
       <c r="B308" s="125"/>
       <c r="C308" s="126"/>
       <c r="D308" s="126"/>
-      <c r="E308" s="126"/>
-      <c r="F308" s="126"/>
+      <c r="E308" s="126">
+        <v>3600000</v>
+      </c>
+      <c r="F308" s="126" t="s">
+        <v>215</v>
+      </c>
       <c r="G308" s="126"/>
       <c r="H308" s="126"/>
       <c r="I308" s="126"/>
@@ -10794,12 +10691,15 @@
     </row>
     <row r="309" spans="2:10" s="124" customFormat="1">
       <c r="B309" s="125"/>
-      <c r="C309" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D309" s="102"/>
-      <c r="E309" s="126"/>
-      <c r="F309" s="126"/>
+      <c r="C309" s="126"/>
+      <c r="D309" s="126"/>
+      <c r="E309" s="215">
+        <f>E307/E308</f>
+        <v>1.161111111111111E-5</v>
+      </c>
+      <c r="F309" s="126" t="s">
+        <v>216</v>
+      </c>
       <c r="G309" s="126"/>
       <c r="H309" s="126"/>
       <c r="I309" s="126"/>
@@ -10808,14 +10708,12 @@
     <row r="310" spans="2:10" s="124" customFormat="1">
       <c r="B310" s="125"/>
       <c r="C310" s="126"/>
-      <c r="D310" s="229" t="s">
-        <v>235</v>
-      </c>
-      <c r="E310" s="126">
-        <v>2808</v>
-      </c>
-      <c r="F310" s="229" t="s">
-        <v>238</v>
+      <c r="D310" s="126"/>
+      <c r="E310" s="124">
+        <v>500</v>
+      </c>
+      <c r="F310" s="124" t="s">
+        <v>194</v>
       </c>
       <c r="G310" s="126"/>
       <c r="H310" s="126"/>
@@ -10825,14 +10723,14 @@
     <row r="311" spans="2:10" s="124" customFormat="1">
       <c r="B311" s="125"/>
       <c r="C311" s="126"/>
-      <c r="D311" s="229" t="s">
-        <v>236</v>
+      <c r="D311" s="126" t="s">
+        <v>217</v>
       </c>
       <c r="E311" s="126">
-        <v>4830</v>
-      </c>
-      <c r="F311" s="229" t="s">
-        <v>238</v>
+        <v>1159</v>
+      </c>
+      <c r="F311" s="124" t="s">
+        <v>28</v>
       </c>
       <c r="G311" s="126"/>
       <c r="H311" s="126"/>
@@ -10842,15 +10740,15 @@
     <row r="312" spans="2:10" s="124" customFormat="1">
       <c r="B312" s="125"/>
       <c r="C312" s="126"/>
-      <c r="D312" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E312" s="126">
-        <f>(E311+E310)/2</f>
-        <v>3819</v>
-      </c>
-      <c r="F312" s="229" t="s">
-        <v>238</v>
+      <c r="D312" s="126" t="s">
+        <v>218</v>
+      </c>
+      <c r="E312" s="140">
+        <f>E311/1.21</f>
+        <v>957.85123966942149</v>
+      </c>
+      <c r="F312" s="124" t="s">
+        <v>28</v>
       </c>
       <c r="G312" s="126"/>
       <c r="H312" s="126"/>
@@ -10860,11 +10758,16 @@
     <row r="313" spans="2:10" s="124" customFormat="1">
       <c r="B313" s="125"/>
       <c r="C313" s="126"/>
-      <c r="D313" s="230" t="s">
-        <v>241</v>
-      </c>
-      <c r="E313" s="126"/>
-      <c r="F313" s="126"/>
+      <c r="D313" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="E313" s="216">
+        <f>E312/E310</f>
+        <v>1.9157024793388431</v>
+      </c>
+      <c r="F313" s="124" t="s">
+        <v>220</v>
+      </c>
       <c r="G313" s="126"/>
       <c r="H313" s="126"/>
       <c r="I313" s="126"/>
@@ -10873,8 +10776,6 @@
     <row r="314" spans="2:10" s="124" customFormat="1">
       <c r="B314" s="125"/>
       <c r="C314" s="126"/>
-      <c r="E314" s="126"/>
-      <c r="F314" s="126"/>
       <c r="G314" s="126"/>
       <c r="H314" s="126"/>
       <c r="I314" s="126"/>
@@ -10883,9 +10784,17 @@
     <row r="315" spans="2:10" s="124" customFormat="1">
       <c r="B315" s="125"/>
       <c r="C315" s="126"/>
-      <c r="D315" s="126"/>
-      <c r="E315" s="126"/>
-      <c r="F315" s="126"/>
+      <c r="D315" s="217" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E315" s="218">
+        <f>E313/E309</f>
+        <v>164988.7302779865</v>
+      </c>
+      <c r="F315" s="126" t="s">
+        <v>171</v>
+      </c>
       <c r="G315" s="126"/>
       <c r="H315" s="126"/>
       <c r="I315" s="126"/>
@@ -10894,8 +10803,8 @@
     <row r="316" spans="2:10" s="124" customFormat="1">
       <c r="B316" s="125"/>
       <c r="C316" s="126"/>
-      <c r="D316" s="126"/>
-      <c r="E316" s="126"/>
+      <c r="D316" s="217"/>
+      <c r="E316" s="219"/>
       <c r="F316" s="126"/>
       <c r="G316" s="126"/>
       <c r="H316" s="126"/>
@@ -10905,8 +10814,8 @@
     <row r="317" spans="2:10" s="124" customFormat="1">
       <c r="B317" s="125"/>
       <c r="C317" s="126"/>
-      <c r="D317" s="126"/>
-      <c r="E317" s="126"/>
+      <c r="D317" s="217"/>
+      <c r="E317" s="219"/>
       <c r="F317" s="126"/>
       <c r="G317" s="126"/>
       <c r="H317" s="126"/>
@@ -10916,8 +10825,8 @@
     <row r="318" spans="2:10" s="124" customFormat="1">
       <c r="B318" s="125"/>
       <c r="C318" s="126"/>
-      <c r="D318" s="126"/>
-      <c r="E318" s="126"/>
+      <c r="D318" s="217"/>
+      <c r="E318" s="219"/>
       <c r="F318" s="126"/>
       <c r="G318" s="126"/>
       <c r="H318" s="126"/>
@@ -10926,10 +10835,16 @@
     </row>
     <row r="319" spans="2:10" s="124" customFormat="1">
       <c r="B319" s="125"/>
-      <c r="C319" s="126"/>
+      <c r="C319" s="12" t="s">
+        <v>221</v>
+      </c>
       <c r="D319" s="126"/>
-      <c r="E319" s="126"/>
-      <c r="F319" s="126"/>
+      <c r="E319" s="124">
+        <v>300</v>
+      </c>
+      <c r="F319" s="124" t="s">
+        <v>194</v>
+      </c>
       <c r="G319" s="126"/>
       <c r="H319" s="126"/>
       <c r="I319" s="126"/>
@@ -10938,9 +10853,15 @@
     <row r="320" spans="2:10" s="124" customFormat="1">
       <c r="B320" s="125"/>
       <c r="C320" s="126"/>
-      <c r="D320" s="126"/>
-      <c r="E320" s="126"/>
-      <c r="F320" s="126"/>
+      <c r="D320" s="126" t="s">
+        <v>218</v>
+      </c>
+      <c r="E320" s="140">
+        <v>539</v>
+      </c>
+      <c r="F320" s="124" t="s">
+        <v>28</v>
+      </c>
       <c r="G320" s="126"/>
       <c r="H320" s="126"/>
       <c r="I320" s="126"/>
@@ -10949,9 +10870,16 @@
     <row r="321" spans="2:10" s="124" customFormat="1">
       <c r="B321" s="125"/>
       <c r="C321" s="126"/>
-      <c r="D321" s="126"/>
-      <c r="E321" s="126"/>
-      <c r="F321" s="126"/>
+      <c r="D321" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="E321" s="216">
+        <f>E320/E319</f>
+        <v>1.7966666666666666</v>
+      </c>
+      <c r="F321" s="124" t="s">
+        <v>220</v>
+      </c>
       <c r="G321" s="126"/>
       <c r="H321" s="126"/>
       <c r="I321" s="126"/>
@@ -10960,9 +10888,6 @@
     <row r="322" spans="2:10" s="124" customFormat="1">
       <c r="B322" s="125"/>
       <c r="C322" s="126"/>
-      <c r="D322" s="126"/>
-      <c r="E322" s="126"/>
-      <c r="F322" s="126"/>
       <c r="G322" s="126"/>
       <c r="H322" s="126"/>
       <c r="I322" s="126"/>
@@ -10971,9 +10896,17 @@
     <row r="323" spans="2:10" s="124" customFormat="1">
       <c r="B323" s="125"/>
       <c r="C323" s="126"/>
-      <c r="D323" s="126"/>
-      <c r="E323" s="126"/>
-      <c r="F323" s="126"/>
+      <c r="D323" s="217" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E323" s="218">
+        <f>E321/E309</f>
+        <v>154736.84210526317</v>
+      </c>
+      <c r="F323" s="126" t="s">
+        <v>171</v>
+      </c>
       <c r="G323" s="126"/>
       <c r="H323" s="126"/>
       <c r="I323" s="126"/>
@@ -10982,9 +10915,6 @@
     <row r="324" spans="2:10" s="124" customFormat="1">
       <c r="B324" s="125"/>
       <c r="C324" s="126"/>
-      <c r="D324" s="126"/>
-      <c r="E324" s="126"/>
-      <c r="F324" s="126"/>
       <c r="G324" s="126"/>
       <c r="H324" s="126"/>
       <c r="I324" s="126"/>
@@ -11015,8 +10945,8 @@
     <row r="327" spans="2:10" s="124" customFormat="1">
       <c r="B327" s="125"/>
       <c r="C327" s="126"/>
-      <c r="D327" s="220"/>
-      <c r="E327" s="222"/>
+      <c r="D327" s="126"/>
+      <c r="E327" s="126"/>
       <c r="F327" s="126"/>
       <c r="G327" s="126"/>
       <c r="H327" s="126"/>
@@ -11025,23 +10955,254 @@
     </row>
     <row r="328" spans="2:10" s="124" customFormat="1">
       <c r="B328" s="125"/>
-      <c r="C328" s="12"/>
-      <c r="F328" s="222"/>
+      <c r="C328" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D328" s="102"/>
+      <c r="E328" s="126"/>
+      <c r="F328" s="126"/>
       <c r="G328" s="126"/>
       <c r="H328" s="126"/>
       <c r="I328" s="126"/>
       <c r="J328" s="127"/>
     </row>
-    <row r="329" spans="2:10" s="124" customFormat="1" ht="17" thickBot="1">
-      <c r="B329" s="223"/>
-      <c r="C329" s="224"/>
-      <c r="D329" s="224"/>
-      <c r="E329" s="224"/>
-      <c r="F329" s="224"/>
-      <c r="G329" s="224"/>
-      <c r="H329" s="224"/>
-      <c r="I329" s="224"/>
-      <c r="J329" s="225"/>
+    <row r="329" spans="2:10" s="124" customFormat="1">
+      <c r="B329" s="125"/>
+      <c r="C329" s="126"/>
+      <c r="D329" s="226" t="s">
+        <v>228</v>
+      </c>
+      <c r="E329" s="126">
+        <v>2808</v>
+      </c>
+      <c r="F329" s="226" t="s">
+        <v>231</v>
+      </c>
+      <c r="G329" s="126"/>
+      <c r="H329" s="126"/>
+      <c r="I329" s="126"/>
+      <c r="J329" s="127"/>
+    </row>
+    <row r="330" spans="2:10" s="124" customFormat="1">
+      <c r="B330" s="125"/>
+      <c r="C330" s="126"/>
+      <c r="D330" s="226" t="s">
+        <v>229</v>
+      </c>
+      <c r="E330" s="126">
+        <v>4830</v>
+      </c>
+      <c r="F330" s="226" t="s">
+        <v>231</v>
+      </c>
+      <c r="G330" s="126"/>
+      <c r="H330" s="126"/>
+      <c r="I330" s="126"/>
+      <c r="J330" s="127"/>
+    </row>
+    <row r="331" spans="2:10" s="124" customFormat="1">
+      <c r="B331" s="125"/>
+      <c r="C331" s="126"/>
+      <c r="D331" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E331" s="126">
+        <f>(E330+E329)/2</f>
+        <v>3819</v>
+      </c>
+      <c r="F331" s="226" t="s">
+        <v>231</v>
+      </c>
+      <c r="G331" s="126"/>
+      <c r="H331" s="126"/>
+      <c r="I331" s="126"/>
+      <c r="J331" s="127"/>
+    </row>
+    <row r="332" spans="2:10" s="124" customFormat="1">
+      <c r="B332" s="125"/>
+      <c r="C332" s="126"/>
+      <c r="D332" s="227" t="s">
+        <v>234</v>
+      </c>
+      <c r="E332" s="126"/>
+      <c r="F332" s="126"/>
+      <c r="G332" s="126"/>
+      <c r="H332" s="126"/>
+      <c r="I332" s="126"/>
+      <c r="J332" s="127"/>
+    </row>
+    <row r="333" spans="2:10" s="124" customFormat="1">
+      <c r="B333" s="125"/>
+      <c r="C333" s="126"/>
+      <c r="E333" s="126"/>
+      <c r="F333" s="126"/>
+      <c r="G333" s="126"/>
+      <c r="H333" s="126"/>
+      <c r="I333" s="126"/>
+      <c r="J333" s="127"/>
+    </row>
+    <row r="334" spans="2:10" s="124" customFormat="1">
+      <c r="B334" s="125"/>
+      <c r="C334" s="126"/>
+      <c r="D334" s="126"/>
+      <c r="E334" s="126"/>
+      <c r="F334" s="126"/>
+      <c r="G334" s="126"/>
+      <c r="H334" s="126"/>
+      <c r="I334" s="126"/>
+      <c r="J334" s="127"/>
+    </row>
+    <row r="335" spans="2:10" s="124" customFormat="1">
+      <c r="B335" s="125"/>
+      <c r="C335" s="126"/>
+      <c r="D335" s="126"/>
+      <c r="E335" s="126"/>
+      <c r="F335" s="126"/>
+      <c r="G335" s="126"/>
+      <c r="H335" s="126"/>
+      <c r="I335" s="126"/>
+      <c r="J335" s="127"/>
+    </row>
+    <row r="336" spans="2:10" s="124" customFormat="1">
+      <c r="B336" s="125"/>
+      <c r="C336" s="126"/>
+      <c r="D336" s="126"/>
+      <c r="E336" s="126"/>
+      <c r="F336" s="126"/>
+      <c r="G336" s="126"/>
+      <c r="H336" s="126"/>
+      <c r="I336" s="126"/>
+      <c r="J336" s="127"/>
+    </row>
+    <row r="337" spans="2:10" s="124" customFormat="1">
+      <c r="B337" s="125"/>
+      <c r="C337" s="126"/>
+      <c r="D337" s="126"/>
+      <c r="E337" s="126"/>
+      <c r="F337" s="126"/>
+      <c r="G337" s="126"/>
+      <c r="H337" s="126"/>
+      <c r="I337" s="126"/>
+      <c r="J337" s="127"/>
+    </row>
+    <row r="338" spans="2:10" s="124" customFormat="1">
+      <c r="B338" s="125"/>
+      <c r="C338" s="126"/>
+      <c r="D338" s="126"/>
+      <c r="E338" s="126"/>
+      <c r="F338" s="126"/>
+      <c r="G338" s="126"/>
+      <c r="H338" s="126"/>
+      <c r="I338" s="126"/>
+      <c r="J338" s="127"/>
+    </row>
+    <row r="339" spans="2:10" s="124" customFormat="1">
+      <c r="B339" s="125"/>
+      <c r="C339" s="126"/>
+      <c r="D339" s="126"/>
+      <c r="E339" s="126"/>
+      <c r="F339" s="126"/>
+      <c r="G339" s="126"/>
+      <c r="H339" s="126"/>
+      <c r="I339" s="126"/>
+      <c r="J339" s="127"/>
+    </row>
+    <row r="340" spans="2:10" s="124" customFormat="1">
+      <c r="B340" s="125"/>
+      <c r="C340" s="126"/>
+      <c r="D340" s="126"/>
+      <c r="E340" s="126"/>
+      <c r="F340" s="126"/>
+      <c r="G340" s="126"/>
+      <c r="H340" s="126"/>
+      <c r="I340" s="126"/>
+      <c r="J340" s="127"/>
+    </row>
+    <row r="341" spans="2:10" s="124" customFormat="1">
+      <c r="B341" s="125"/>
+      <c r="C341" s="126"/>
+      <c r="D341" s="126"/>
+      <c r="E341" s="126"/>
+      <c r="F341" s="126"/>
+      <c r="G341" s="126"/>
+      <c r="H341" s="126"/>
+      <c r="I341" s="126"/>
+      <c r="J341" s="127"/>
+    </row>
+    <row r="342" spans="2:10" s="124" customFormat="1">
+      <c r="B342" s="125"/>
+      <c r="C342" s="126"/>
+      <c r="D342" s="126"/>
+      <c r="E342" s="126"/>
+      <c r="F342" s="126"/>
+      <c r="G342" s="126"/>
+      <c r="H342" s="126"/>
+      <c r="I342" s="126"/>
+      <c r="J342" s="127"/>
+    </row>
+    <row r="343" spans="2:10" s="124" customFormat="1">
+      <c r="B343" s="125"/>
+      <c r="C343" s="126"/>
+      <c r="D343" s="126"/>
+      <c r="E343" s="126"/>
+      <c r="F343" s="126"/>
+      <c r="G343" s="126"/>
+      <c r="H343" s="126"/>
+      <c r="I343" s="126"/>
+      <c r="J343" s="127"/>
+    </row>
+    <row r="344" spans="2:10" s="124" customFormat="1">
+      <c r="B344" s="125"/>
+      <c r="C344" s="126"/>
+      <c r="D344" s="126"/>
+      <c r="E344" s="126"/>
+      <c r="F344" s="126"/>
+      <c r="G344" s="126"/>
+      <c r="H344" s="126"/>
+      <c r="I344" s="126"/>
+      <c r="J344" s="127"/>
+    </row>
+    <row r="345" spans="2:10" s="124" customFormat="1">
+      <c r="B345" s="125"/>
+      <c r="C345" s="126"/>
+      <c r="D345" s="126"/>
+      <c r="E345" s="126"/>
+      <c r="F345" s="126"/>
+      <c r="G345" s="126"/>
+      <c r="H345" s="126"/>
+      <c r="I345" s="126"/>
+      <c r="J345" s="127"/>
+    </row>
+    <row r="346" spans="2:10" s="124" customFormat="1">
+      <c r="B346" s="125"/>
+      <c r="C346" s="126"/>
+      <c r="D346" s="217"/>
+      <c r="E346" s="219"/>
+      <c r="F346" s="126"/>
+      <c r="G346" s="126"/>
+      <c r="H346" s="126"/>
+      <c r="I346" s="126"/>
+      <c r="J346" s="127"/>
+    </row>
+    <row r="347" spans="2:10" s="124" customFormat="1">
+      <c r="B347" s="125"/>
+      <c r="C347" s="12"/>
+      <c r="F347" s="219"/>
+      <c r="G347" s="126"/>
+      <c r="H347" s="126"/>
+      <c r="I347" s="126"/>
+      <c r="J347" s="127"/>
+    </row>
+    <row r="348" spans="2:10" s="124" customFormat="1" ht="17" thickBot="1">
+      <c r="B348" s="220"/>
+      <c r="C348" s="221"/>
+      <c r="D348" s="221"/>
+      <c r="E348" s="221"/>
+      <c r="F348" s="221"/>
+      <c r="G348" s="221"/>
+      <c r="H348" s="221"/>
+      <c r="I348" s="221"/>
+      <c r="J348" s="222"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
